--- a/Coding/SlimksSDDGennerator/template.xlsx
+++ b/Coding/SlimksSDDGennerator/template.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226" filterPrivacy="1" showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="939"/>
+    <workbookView tabRatio="939" windowHeight="11745" windowWidth="19200" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="KSC-S-23_1 プログラム一覧表" sheetId="121" r:id="rId1"/>
-    <sheet name="KSC-S-23_2 メソッド（関数）仕様(1枚目)" sheetId="122" r:id="rId2"/>
-    <sheet name="KSC-S-23_3メソッドロジック図(1枚目)" sheetId="119" r:id="rId3"/>
-    <sheet name="KSC-S-23_3メソッドロジック説明(1枚目)" sheetId="120" r:id="rId4"/>
+    <sheet name="KSC-S-23_1 プログラム一覧表" r:id="rId1" sheetId="121"/>
+    <sheet name="KSC-S-23_2 メソッド（関数）仕様(1枚目)" r:id="rId2" sheetId="122"/>
+    <sheet name="KSC-S-23_3メソッドロジック図(1枚目)" r:id="rId3" sheetId="119"/>
+    <sheet name="KSC-S-23_3メソッドロジック説明(1枚目)" r:id="rId4" sheetId="120"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'KSC-S-23_1 プログラム一覧表'!$A$1:$P$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$A$1:$Q$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'KSC-S-23_3メソッドロジック図(1枚目)'!$A$1:$AS$51</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'KSC-S-23_3メソッドロジック説明(1枚目)'!$A$1:$AS$50</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'KSC-S-23_1 プログラム一覧表'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'KSC-S-23_3メソッドロジック図(1枚目)'!$1:$2</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Area">'KSC-S-23_1 プログラム一覧表'!$A$1:$P$19</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Area">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$A$1:$Q$30</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'KSC-S-23_3メソッドロジック図(1枚目)'!$A$1:$AS$51</definedName>
+    <definedName localSheetId="3" name="_xlnm.Print_Area">'KSC-S-23_3メソッドロジック説明(1枚目)'!$A$1:$AS$50</definedName>
+    <definedName localSheetId="0" name="_xlnm.Print_Titles">'KSC-S-23_1 プログラム一覧表'!$1:$4</definedName>
+    <definedName localSheetId="1" name="_xlnm.Print_Titles">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$1:$6</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Titles">'KSC-S-23_3メソッドロジック図(1枚目)'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -31,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A23" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A23" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="0" shapeId="0">
+    <comment authorId="0" ref="A26" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G28" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0" shapeId="0">
+    <comment authorId="0" ref="J28" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,191 +179,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="117">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>前提条件</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ゼンテイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ジョウケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>引数</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>引数名</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>メイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>型</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">初期値 </t>
-    <rPh sb="0" eb="3">
+    <rPh eb="3" sb="0">
       <t>ショキチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>返り値</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>カエ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>チ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>例外処理</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>レイガイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発生条件および説明</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ハッセイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ジョウケン</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh eb="9" sb="7">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Exceptionの内容</t>
-    <rPh sb="10" eb="12">
+    <rPh eb="12" sb="10">
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応方法</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プログラム名</t>
-    <rPh sb="5" eb="6">
+    <rPh eb="6" sb="5">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>実装形態</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ジッソウ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <rPh eb="4" sb="2">
       <t>ケイタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>分類</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図ID</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図名</t>
-    <rPh sb="0" eb="1">
+    <rPh eb="1" sb="0">
       <t>ズ</t>
     </rPh>
-    <rPh sb="1" eb="2">
+    <rPh eb="2" sb="1">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>凡例</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ハンレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>物理名</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ブツリ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応クラス</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パッケージ名</t>
-    <rPh sb="5" eb="6">
+    <rPh eb="6" sb="5">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>クラス名</t>
-    <rPh sb="3" eb="4">
+    <rPh eb="4" sb="3">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メソッド名</t>
-    <rPh sb="4" eb="5">
+    <rPh eb="5" sb="4">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -373,10 +373,10 @@
   </si>
   <si>
     <t>システム名／サブシステム名</t>
-    <rPh sb="4" eb="5">
+    <rPh eb="5" sb="4">
       <t>メイ</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh eb="13" sb="12">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -389,10 +389,10 @@
   </si>
   <si>
     <t>作成者</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -403,7 +403,7 @@
   </si>
   <si>
     <t>ドキュメント名</t>
-    <rPh sb="6" eb="7">
+    <rPh eb="7" sb="6">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -416,10 +416,10 @@
   </si>
   <si>
     <t>更新者</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>コウシン</t>
     </rPh>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -434,21 +434,21 @@
   </si>
   <si>
     <t>初版</t>
-    <rPh sb="0" eb="2">
+    <rPh eb="2" sb="0">
       <t>ショハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作成日</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作成者</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -458,14 +458,14 @@
   </si>
   <si>
     <t>更新日</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>更新者</t>
-    <rPh sb="2" eb="3">
+    <rPh eb="3" sb="2">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -480,10 +480,10 @@
   </si>
   <si>
     <t>メソッド（関数）仕様</t>
-    <rPh sb="5" eb="7">
+    <rPh eb="7" sb="5">
       <t>カンスウ</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh eb="10" sb="8">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -549,12 +549,6 @@
     <t>jsp_ks23_SubstituteInput</t>
   </si>
   <si>
-    <t>JSP</t>
-  </si>
-  <si>
-    <t>java_SubstituteInputAC</t>
-  </si>
-  <si>
     <t>KSSubstituteInputAC.java</t>
   </si>
   <si>
@@ -567,19 +561,6 @@
     <t>java_KSSubstituteInputAF</t>
   </si>
   <si>
-    <t>本画面用実装ファイル(ActionForm部)</t>
-  </si>
-  <si>
-    <t>本画面用のアクションフォームファイル</t>
-  </si>
-  <si>
-    <t>本画面用実装ファイル(DataSet部)</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>本画面用のデータセットファイル</t>
-  </si>
-  <si>
     <t>jp.co.toshiba_sol.slim.ks.substitute.input</t>
   </si>
   <si>
@@ -589,12 +570,6 @@
     <t>java_KSSubstituteInputService</t>
   </si>
   <si>
-    <t>KSSubstituteInputService.java</t>
-  </si>
-  <si>
-    <t>本画面用のサービスファイル</t>
-  </si>
-  <si>
     <t>KSC-S-23_3メソッドロジック図</t>
   </si>
   <si>
@@ -604,22 +579,7 @@
     <t>KSC-S-23_3メソッドロジック説明</t>
   </si>
   <si>
-    <t>本画面用のアクションファイル</t>
-  </si>
-  <si>
     <t>要求を実施し、表示部分を返す。</t>
-  </si>
-  <si>
-    <t>KSSubstituteInputAF.java</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>本画面用</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>本画面用実装ファイル(Action部)</t>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>HTTPリクエストから取得した原価部課CD</t>
@@ -646,57 +606,17 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>本画面用実装ファイル(Javascript part)</t>
-  </si>
-  <si>
-    <t>JAVASCRIPT</t>
-  </si>
-  <si>
-    <t>js_ks23_SubstituteInput</t>
-  </si>
-  <si>
-    <t>ks23_SubstituteInput.jsp</t>
-  </si>
-  <si>
-    <t>ks23_SubstituteInput.js</t>
-  </si>
-  <si>
-    <t>本画面用JSPファイル</t>
-  </si>
-  <si>
-    <t>本画面用Javascriptファイル</t>
-  </si>
-  <si>
-    <t>本画面用の入力バリデーション実装ファイル(Action部)</t>
-  </si>
-  <si>
-    <t>本画面用の入力バリデーションアクションファイル</t>
-  </si>
-  <si>
     <t>java_SubstituteInputValidationAC</t>
-  </si>
-  <si>
-    <t>本画面用実装ファイル(Service部)</t>
   </si>
   <si>
     <t>KSSubstituteInputAC.exec()関数</t>
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>KSSubstituteInputAC.java</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>KSDepartmentDS.java</t>
-  </si>
-  <si>
     <t>java_KSDepartmentDS</t>
   </si>
   <si>
     <t>java_KSListUserDS</t>
-  </si>
-  <si>
-    <t>KSListUserDS.java</t>
   </si>
   <si>
     <t>ユーザが既にログイン済であること。</t>
@@ -786,6 +706,69 @@
   </si>
   <si>
     <t>139, 149</t>
+  </si>
+  <si>
+    <t>java_KSSubstituteInputAC</t>
+  </si>
+  <si>
+    <t>java_KSSubstituteInputValidationAC</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadAC</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadAC.java</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadAF</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadAF.java</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadButtonAC</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadButtonAC.java</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadDS</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadDS.java</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadHeaderDS</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadHeaderDS.java</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadPJDTO</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadPJDTO.java</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadProjectDS</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadProjectDS.java</t>
+  </si>
+  <si>
+    <t>java_KSKosuInputSheetDownloadService</t>
+  </si>
+  <si>
+    <t>KSKosuInputSheetDownloadService.java</t>
+  </si>
+  <si>
+    <t>tunguyen</t>
+  </si>
+  <si>
+    <t>2018/4/23</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1281,614 +1264,893 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+  <cellXfs count="287">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="165" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="165" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="0" fontId="2" numFmtId="49" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="2">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="14" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" quotePrefix="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="15" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="16" numFmtId="165" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="16" numFmtId="165" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="165" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="14" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="14" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" quotePrefix="1" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="22" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="通貨 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1901,7 +2163,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -1945,23 +2207,23 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1000"/>
             <a:t>①</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
+            <a:rPr altLang="ja-JP" baseline="0" kumimoji="1" lang="en-US" sz="1000"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
+            <a:rPr altLang="en-US" baseline="0" kumimoji="1" lang="ja-JP" sz="1000"/>
             <a:t>ユーザーの情報と原価部課を取得</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+          <a:endParaRPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2010,11 +2272,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2025,7 +2287,7 @@
             <a:t>②</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
+            <a:rPr altLang="en-US" baseline="0" kumimoji="1" lang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2036,7 +2298,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2060,7 +2322,7 @@
             <a:t>ActionForm</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2122,12 +2384,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100"/>
             <a:t>開始</a:t>
           </a:r>
         </a:p>
@@ -2178,12 +2440,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100"/>
             <a:t>終了</a:t>
           </a:r>
         </a:p>
@@ -2234,11 +2496,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2299,16 +2561,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" bIns="0" horzOverflow="clip" lIns="0" rIns="0" rtlCol="0" tIns="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100"/>
             <a:t>④選択される部課コードが</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2319,7 +2581,7 @@
             <a:t>null</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2519,11 +2781,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2534,7 +2796,7 @@
             <a:t>⑤</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
+            <a:rPr altLang="en-US" baseline="0" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2642,11 +2904,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2658,7 +2920,7 @@
             <a:t>⑥</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2669,7 +2931,7 @@
             <a:t>KSSubstituteInputService</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2730,11 +2992,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2746,7 +3008,7 @@
             <a:t>⑦パラメーターマップを作成し、①で取得したユーザー</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+            <a:rPr altLang="ja-JP" lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2758,7 +3020,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2820,11 +3082,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2884,7 +3146,7 @@
             <a:t>() </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2896,7 +3158,7 @@
             <a:t>関数を呼び出し、</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+            <a:rPr altLang="en-US" baseline="0" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2958,11 +3220,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2974,7 +3236,7 @@
             <a:t>⑨</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2986,7 +3248,7 @@
             <a:t>パラメーターマップを作成し、③で選択の取得した部課コードとユーザー</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr altLang="ja-JP" lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2998,7 +3260,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3086,13 +3348,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
+        <a:xfrm flipV="1" rot="10800000">
           <a:off x="3000374" y="2709861"/>
           <a:ext cx="38100" cy="1271589"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 700000"/>
+            <a:gd fmla="val 700000" name="adj1"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3156,11 +3418,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3196,7 +3458,7 @@
             <a:t>.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" smtClean="0">
+            <a:rPr lang="en-US" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3219,7 +3481,7 @@
             <a:t>() </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3231,7 +3493,7 @@
             <a:t>関数を呼び出し、</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
+            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3292,11 +3554,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3344,7 +3606,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:sysClr lastClr="000000" val="windowText"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3365,84 +3627,84 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>⑫パラメータの</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>ActionMapping</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>から</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>ActionForward</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>を取得し、’</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>success</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>’を設定</a:t>
           </a:r>
@@ -3480,7 +3742,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:sysClr lastClr="000000" val="windowText"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3501,40 +3763,40 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>⑬⑫で生成した</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>ActionForward</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
             </a:rPr>
             <a:t>を返却</a:t>
           </a:r>
@@ -3991,26 +4253,26 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip" wrap="none">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:rPr altLang="en-US" lang="ja-JP" sz="900"/>
             <a:t>有り</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900"/>
@@ -4044,26 +4306,26 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:scrgbClr b="0" g="0" r="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip" wrap="none">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:rPr altLang="en-US" lang="ja-JP" sz="900"/>
             <a:t>無し</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900"/>
@@ -4075,15 +4337,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4118,7 +4384,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4153,7 +4419,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4241,7 +4507,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -4250,13 +4516,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4266,7 +4532,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -4275,7 +4541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4284,7 +4550,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4294,12 +4560,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -4330,7 +4596,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -4349,7 +4615,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -4361,46 +4627,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="2.5703125" style="7" customWidth="1"/>
-    <col min="4" max="5" width="16.28515625" style="7" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="3.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" style="7" customWidth="1"/>
-    <col min="10" max="11" width="2.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="4.5703125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="true"/>
+    <col min="17" max="16384" style="7" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="66" t="s">
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="70"/>
-      <c r="H1" s="67"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="36" t="s">
         <v>53</v>
       </c>
@@ -4411,33 +4677,33 @@
       <c r="L1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="40">
-        <v>43143</v>
+      <c r="M1" s="40" t="s">
+        <v>115</v>
       </c>
       <c r="N1" s="25" t="s">
         <v>27</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="P1" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="81" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="73"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="26" t="s">
         <v>30</v>
       </c>
@@ -4456,9 +4722,9 @@
       <c r="O2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="72"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="6" customHeight="1">
+      <c r="P2" s="82"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4476,14 +4742,14 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
+    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="85"/>
       <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
@@ -4496,312 +4762,599 @@
       <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="74" t="s">
+      <c r="H4" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="74" t="s">
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="75"/>
-    </row>
-    <row r="5" spans="1:16" ht="31.5" customHeight="1" thickTop="1">
-      <c r="A5" s="19">
-        <v>1</v>
-      </c>
-      <c r="B5" s="77" t="s">
+      <c r="O4" s="87"/>
+      <c r="P4" s="88"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="31.5" r="5" s="58" spans="1:16" thickTop="1">
+      <c r="A5" s="19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B5" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="15" t="s">
-        <v>83</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="77" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="89"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="93" t="s">
+        <v>114</v>
+      </c>
+      <c r="P5" s="94"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="32.25" r="6" s="59" spans="1:16">
+      <c r="A6" s="19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B6" s="205" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="72"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40.5" r="7" s="60" spans="1:16">
+      <c r="A7" s="19" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B7" s="205" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="67"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="72"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="40.5" r="8" s="61" spans="1:16">
+      <c r="A8" s="19" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B8" s="205" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="80" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="67"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="81"/>
-      <c r="P5" s="82"/>
-    </row>
-    <row r="6" spans="1:16" ht="32.25" customHeight="1">
-      <c r="A6" s="19">
-        <v>2</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="O8" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P8" s="72"/>
+    </row>
+    <row customFormat="1" ht="33.75" r="9" s="62" spans="1:16">
+      <c r="A9" s="19" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B9" s="205" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="63" t="s">
+      <c r="G9" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="67"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="64"/>
-      <c r="P6" s="65"/>
-    </row>
-    <row r="7" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A7" s="19">
-        <v>3</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="63" t="s">
+      <c r="O9" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" s="72"/>
+    </row>
+    <row customFormat="1" ht="22.5" r="10" s="63" spans="1:16">
+      <c r="A10" s="19" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="205" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="64"/>
-      <c r="P7" s="65"/>
-    </row>
-    <row r="8" spans="1:16" ht="40.5" customHeight="1">
-      <c r="A8" s="19">
-        <v>4</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="63" t="s">
+      <c r="O10" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P10" s="72"/>
+    </row>
+    <row customFormat="1" ht="33.75" r="11" s="64" spans="1:16">
+      <c r="A11" s="19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B11" s="205" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="64"/>
-      <c r="P8" s="65"/>
-    </row>
-    <row r="9" spans="1:16" ht="27" customHeight="1">
-      <c r="A9" s="19">
-        <v>5</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="63" t="s">
+      <c r="O11" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="72"/>
+    </row>
+    <row customFormat="1" ht="33.75" r="12" s="65" spans="1:16">
+      <c r="A12" s="19" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B12" s="205" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="65"/>
-    </row>
-    <row r="10" spans="1:16" ht="27" customHeight="1">
-      <c r="A10" s="19">
-        <v>6</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="65"/>
-    </row>
-    <row r="11" spans="1:16" ht="33.75">
-      <c r="A11" s="19">
-        <v>7</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="64"/>
-      <c r="P11" s="65"/>
-    </row>
-    <row r="12" spans="1:16" ht="45">
-      <c r="A12" s="19">
-        <v>8</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="O12" s="64"/>
-      <c r="P12" s="65"/>
+      <c r="O12" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" s="72"/>
+    </row>
+    <row ht="22.5" r="13" spans="1:16">
+      <c r="A13" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="206" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="206" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="P13" s="72"/>
+    </row>
+    <row ht="22.5" r="14" spans="1:16">
+      <c r="A14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M14" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="P14" s="72"/>
+    </row>
+    <row ht="22.5" r="15" spans="1:16">
+      <c r="A15" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="N15" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" s="72"/>
+    </row>
+    <row ht="22.5" r="16" spans="1:16">
+      <c r="A16" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="N16" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="P16" s="72"/>
+    </row>
+    <row ht="22.5" r="17" spans="1:16">
+      <c r="A17" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="72"/>
+    </row>
+    <row ht="22.5" r="18" spans="1:16">
+      <c r="A18" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="N18" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="O18" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="P18" s="72"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="33">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
+  <mergeCells count="51">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:P12"/>
@@ -4818,68 +5371,86 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="180" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="180" fitToHeight="0" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
+  <drawing r:id="rId5"/>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:Q21"/>
+    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
+      <selection activeCell="G10" sqref="G10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="7" customWidth="1"/>
-    <col min="11" max="12" width="2.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" style="32" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" style="32" customWidth="1"/>
-    <col min="17" max="17" width="7.140625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="7"/>
+    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="7" width="6.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="7" width="13.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="7" width="11.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="32" width="7.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="32" width="4.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="32" width="10.5703125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="7" width="7.140625" collapsed="true"/>
+    <col min="18" max="16384" style="7" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="73"/>
-      <c r="E1" s="66" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="67"/>
-      <c r="G1" s="130" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="132"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="127"/>
       <c r="K1" s="37" t="s">
         <v>25</v>
       </c>
@@ -4897,31 +5468,31 @@
       <c r="P1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="81" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="73"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="130" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="132"/>
+      <c r="I2" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="127"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
@@ -4940,80 +5511,80 @@
       <c r="P2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="72"/>
+      <c r="Q2" s="82"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="126"/>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="F3" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="101"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="1" spans="1:17">
+      <c r="A4" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="127"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="126"/>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A5" s="66" t="s">
+      <c r="B4" s="98"/>
+      <c r="C4" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101"/>
+    </row>
+    <row customFormat="1" customHeight="1" ht="41.25" r="5" s="1" spans="1:17">
+      <c r="A5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="126"/>
-    </row>
-    <row r="6" spans="1:17" ht="6" customHeight="1">
+      <c r="B5" s="98"/>
+      <c r="C5" s="99" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="101"/>
+    </row>
+    <row customHeight="1" ht="6" r="6" spans="1:17">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5032,182 +5603,182 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
-      <c r="A7" s="90" t="s">
+    <row customHeight="1" ht="15" r="7" spans="1:17">
+      <c r="A7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="92"/>
-    </row>
-    <row r="8" spans="1:17" ht="14.25" thickBot="1">
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="103"/>
+      <c r="L7" s="103"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="103"/>
+      <c r="O7" s="103"/>
+      <c r="P7" s="103"/>
+      <c r="Q7" s="104"/>
+    </row>
+    <row ht="14.25" r="8" spans="1:17" thickBot="1">
       <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="118"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="116" t="s">
+      <c r="F8" s="106"/>
+      <c r="G8" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118"/>
-    </row>
-    <row r="9" spans="1:17" ht="14.25" thickTop="1">
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="106"/>
+    </row>
+    <row ht="14.25" r="9" spans="1:17" thickTop="1">
       <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B9" s="133" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="134"/>
+      <c r="B9" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="109"/>
       <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="136"/>
-      <c r="G9" s="122" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="123"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="124"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="114"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="86"/>
+      <c r="B10" s="115" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="116"/>
       <c r="D10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="138"/>
-      <c r="G10" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="88"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="86"/>
+      <c r="B11" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="116"/>
       <c r="D11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139" t="s">
-        <v>112</v>
-      </c>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="140"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="141"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
+      <c r="M11" s="123"/>
+      <c r="N11" s="123"/>
+      <c r="O11" s="123"/>
+      <c r="P11" s="123"/>
+      <c r="Q11" s="124"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="23"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="86"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="59"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="23"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="88"/>
-    </row>
-    <row r="14" spans="1:17" ht="6" customHeight="1">
+      <c r="E13" s="119"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="121"/>
+    </row>
+    <row customHeight="1" ht="6" r="14" spans="1:17">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -5227,322 +5798,373 @@
       <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="90" t="s">
+      <c r="A15" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="92"/>
-    </row>
-    <row r="16" spans="1:17" ht="14.25" thickBot="1">
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="103"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="104"/>
+    </row>
+    <row ht="14.25" r="16" spans="1:17" thickBot="1">
       <c r="A16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="116" t="s">
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-    </row>
-    <row r="17" spans="1:17" ht="27" customHeight="1" thickTop="1">
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="106"/>
+    </row>
+    <row customHeight="1" ht="27" r="17" spans="1:17" thickTop="1">
       <c r="A17" s="22">
         <v>1</v>
       </c>
-      <c r="B17" s="119" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="120"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="124"/>
+      <c r="B17" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="136"/>
+      <c r="D17" s="136"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="114"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="22"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="115"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="130"/>
+      <c r="L18" s="130"/>
+      <c r="M18" s="130"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="130"/>
+      <c r="P18" s="130"/>
+      <c r="Q18" s="131"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="22"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="115"/>
+      <c r="B19" s="132"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="130"/>
+      <c r="K19" s="130"/>
+      <c r="L19" s="130"/>
+      <c r="M19" s="130"/>
+      <c r="N19" s="130"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="130"/>
+      <c r="Q19" s="131"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="22"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="115"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+      <c r="B20" s="132"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
+      <c r="K20" s="130"/>
+      <c r="L20" s="130"/>
+      <c r="M20" s="130"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="130"/>
+      <c r="Q20" s="131"/>
+    </row>
+    <row customHeight="1" ht="15" r="21" spans="1:17">
       <c r="A21" s="23"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="88"/>
-    </row>
-    <row r="22" spans="1:17" ht="6" customHeight="1"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="121"/>
+    </row>
+    <row customHeight="1" ht="6" r="22" spans="1:17"/>
     <row r="23" spans="1:17">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="90" t="s">
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="92"/>
-    </row>
-    <row r="24" spans="1:17" ht="57" customHeight="1">
-      <c r="A24" s="87" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="84" t="s">
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="104"/>
+    </row>
+    <row customHeight="1" ht="57" r="24" spans="1:17">
+      <c r="A24" s="119" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="138"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
-    </row>
-    <row r="25" spans="1:17" ht="7.5" customHeight="1"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="116"/>
+    </row>
+    <row customHeight="1" ht="7.5" r="25" spans="1:17"/>
     <row r="26" spans="1:17">
-      <c r="A26" s="90" t="s">
+      <c r="A26" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="92"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="104"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="93" t="s">
+      <c r="A27" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="101" t="s">
+      <c r="C27" s="142"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="103"/>
-    </row>
-    <row r="28" spans="1:17" ht="14.25" thickBot="1">
-      <c r="A28" s="94"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="74" t="s">
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+      <c r="N27" s="148"/>
+      <c r="O27" s="148"/>
+      <c r="P27" s="148"/>
+      <c r="Q27" s="149"/>
+    </row>
+    <row ht="14.25" r="28" spans="1:17" thickBot="1">
+      <c r="A28" s="140"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="75"/>
-      <c r="G28" s="74" t="s">
+      <c r="F28" s="88"/>
+      <c r="G28" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="76"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="74" t="s">
+      <c r="H28" s="87"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="75"/>
-    </row>
-    <row r="29" spans="1:17" ht="14.25" thickTop="1">
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+    </row>
+    <row ht="14.25" r="29" spans="1:17" thickTop="1">
       <c r="A29" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="104" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="105"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="108"/>
-      <c r="G29" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="109"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="108"/>
+        <v>77</v>
+      </c>
+      <c r="B29" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="97"/>
+      <c r="G29" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="96"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="96"/>
+      <c r="O29" s="96"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24"/>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="88"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="138"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="120"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="121"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="67">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:Q30"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="E27:Q27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:Q28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:Q18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:Q17"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:Q23"/>
+    <mergeCell ref="G19:Q19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:Q13"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="J29:Q29"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:Q5"/>
@@ -5559,65 +6181,14 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:Q11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:Q13"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:Q23"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:Q18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:Q17"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:Q30"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:Q24"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="E27:Q27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:Q28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:I29"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="180" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="180" fitToHeight="0" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -5625,169 +6196,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
       <selection activeCell="AV6" sqref="AV6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="3.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="3.140625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="47" customWidth="1"/>
-    <col min="7" max="8" width="3.140625" style="57" customWidth="1"/>
-    <col min="9" max="13" width="3.140625" style="47" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" style="47" customWidth="1"/>
-    <col min="15" max="32" width="3.140625" style="47" customWidth="1"/>
-    <col min="33" max="33" width="3" style="47" customWidth="1"/>
-    <col min="34" max="44" width="3.140625" style="47" customWidth="1"/>
-    <col min="45" max="45" width="3.5703125" style="47" customWidth="1"/>
-    <col min="46" max="46" width="3.5703125" style="47"/>
-    <col min="47" max="47" width="11.42578125" style="47" customWidth="1"/>
-    <col min="48" max="16384" width="3.5703125" style="47"/>
+    <col min="1" max="4" customWidth="true" style="47" width="3.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="57" width="3.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="47" width="3.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="57" width="3.140625" collapsed="true"/>
+    <col min="9" max="13" customWidth="true" style="47" width="3.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="47" width="3.42578125" collapsed="true"/>
+    <col min="15" max="32" customWidth="true" style="47" width="3.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="47" width="3.0" collapsed="true"/>
+    <col min="34" max="44" customWidth="true" style="47" width="3.140625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="47" width="3.5703125" collapsed="true"/>
+    <col min="46" max="46" style="47" width="3.5703125" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" style="47" width="11.42578125" collapsed="true"/>
+    <col min="48" max="16384" style="47" width="3.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" customHeight="1">
-      <c r="A1" s="144" t="s">
+    <row customHeight="1" ht="15.75" r="1" spans="1:50">
+      <c r="A1" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="156" t="s">
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="162" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="162"/>
-      <c r="O1" s="144" t="s">
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="153" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="156" t="s">
+      <c r="P1" s="154"/>
+      <c r="Q1" s="154"/>
+      <c r="R1" s="154"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="154"/>
+      <c r="U1" s="154"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="157"/>
-      <c r="Y1" s="157"/>
-      <c r="Z1" s="157"/>
-      <c r="AA1" s="157"/>
-      <c r="AB1" s="157"/>
-      <c r="AC1" s="157"/>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
       <c r="AF1" s="45" t="s">
         <v>35</v>
       </c>
       <c r="AG1" s="46"/>
-      <c r="AH1" s="150" t="s">
+      <c r="AH1" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="150"/>
-      <c r="AJ1" s="143">
+      <c r="AI1" s="169"/>
+      <c r="AJ1" s="164">
         <v>43130</v>
       </c>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="150" t="s">
+      <c r="AK1" s="164"/>
+      <c r="AL1" s="164"/>
+      <c r="AM1" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="150"/>
-      <c r="AO1" s="153" t="s">
+      <c r="AN1" s="169"/>
+      <c r="AO1" s="172" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="154"/>
-      <c r="AQ1" s="154"/>
-      <c r="AR1" s="142" t="s">
+      <c r="AP1" s="173"/>
+      <c r="AQ1" s="173"/>
+      <c r="AR1" s="163" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="142"/>
-    </row>
-    <row r="2" spans="1:50" ht="27" customHeight="1">
-      <c r="A2" s="144" t="s">
+      <c r="AS1" s="163"/>
+    </row>
+    <row customHeight="1" ht="27" r="2" spans="1:50">
+      <c r="A2" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="159"/>
-      <c r="H2" s="159"/>
-      <c r="I2" s="159"/>
-      <c r="J2" s="159"/>
-      <c r="K2" s="159"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="144" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="153" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="145"/>
-      <c r="O2" s="161" t="s">
+      <c r="N2" s="155"/>
+      <c r="O2" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="144" t="s">
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="145"/>
-      <c r="W2" s="146" t="s">
-        <v>78</v>
-      </c>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="148"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="165" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="167"/>
       <c r="AF2" s="45" t="s">
         <v>30</v>
       </c>
       <c r="AG2" s="46">
         <v>1</v>
       </c>
-      <c r="AH2" s="150" t="s">
+      <c r="AH2" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="150"/>
-      <c r="AJ2" s="149" t="s">
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="168" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="150" t="s">
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="150"/>
-      <c r="AO2" s="151" t="s">
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="AP2" s="152"/>
-      <c r="AQ2" s="152"/>
-      <c r="AR2" s="142"/>
-      <c r="AS2" s="142"/>
-    </row>
-    <row r="3" spans="1:50" ht="15.75" customHeight="1">
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="163"/>
+      <c r="AS2" s="163"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" spans="1:50">
       <c r="A3" s="48"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -5829,18 +6400,18 @@
       <c r="AM3" s="50"/>
       <c r="AS3" s="51"/>
       <c r="AT3" s="16" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="AU3" s="16" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="AV3" s="16" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="AW3" s="16"/>
       <c r="AX3" s="16"/>
     </row>
-    <row r="4" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="4" spans="1:50">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -5885,15 +6456,15 @@
         <v>1</v>
       </c>
       <c r="AU4" s="16" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="AV4" s="16" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AW4" s="16"/>
       <c r="AX4" s="16"/>
     </row>
-    <row r="5" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="5" spans="1:50">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -5938,15 +6509,15 @@
         <v>2</v>
       </c>
       <c r="AU5" s="16" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AV5" s="16" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
     </row>
-    <row r="6" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="6" spans="1:50">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -5993,7 +6564,7 @@
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
     </row>
-    <row r="7" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="7" spans="1:50">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -6040,7 +6611,7 @@
       <c r="AW7" s="16"/>
       <c r="AX7" s="16"/>
     </row>
-    <row r="8" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="8" spans="1:50">
       <c r="A8" s="48"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -6082,7 +6653,7 @@
       <c r="AM8" s="49"/>
       <c r="AS8" s="52"/>
     </row>
-    <row r="9" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="9" spans="1:50">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -6124,7 +6695,7 @@
       <c r="AM9" s="49"/>
       <c r="AS9" s="52"/>
     </row>
-    <row r="10" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="10" spans="1:50">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -6166,7 +6737,7 @@
       <c r="AM10" s="49"/>
       <c r="AS10" s="52"/>
     </row>
-    <row r="11" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="11" spans="1:50">
       <c r="A11" s="48"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -6208,7 +6779,7 @@
       <c r="AM11" s="49"/>
       <c r="AS11" s="52"/>
     </row>
-    <row r="12" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="12" spans="1:50">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -6250,7 +6821,7 @@
       <c r="AM12" s="49"/>
       <c r="AS12" s="52"/>
     </row>
-    <row r="13" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="13" spans="1:50">
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -6292,7 +6863,7 @@
       <c r="AM13" s="49"/>
       <c r="AS13" s="52"/>
     </row>
-    <row r="14" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="14" spans="1:50">
       <c r="A14" s="48"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -6334,7 +6905,7 @@
       <c r="AM14" s="49"/>
       <c r="AS14" s="52"/>
     </row>
-    <row r="15" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="15" spans="1:50">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -6375,7 +6946,7 @@
       <c r="AM15" s="49"/>
       <c r="AS15" s="52"/>
     </row>
-    <row r="16" spans="1:50" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="16" spans="1:50">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -6417,7 +6988,7 @@
       <c r="AM16" s="49"/>
       <c r="AS16" s="52"/>
     </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="17" spans="1:45">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -6459,7 +7030,7 @@
       <c r="AM17" s="49"/>
       <c r="AS17" s="52"/>
     </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="18" spans="1:45">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -6501,7 +7072,7 @@
       <c r="AM18" s="49"/>
       <c r="AS18" s="52"/>
     </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="19" spans="1:45">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -6543,7 +7114,7 @@
       <c r="AM19" s="49"/>
       <c r="AS19" s="52"/>
     </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="20" spans="1:45">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -6585,7 +7156,7 @@
       <c r="AM20" s="49"/>
       <c r="AS20" s="52"/>
     </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="21" spans="1:45">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -6627,7 +7198,7 @@
       <c r="AM21" s="49"/>
       <c r="AS21" s="52"/>
     </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="22" spans="1:45">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -6669,7 +7240,7 @@
       <c r="AM22" s="49"/>
       <c r="AS22" s="52"/>
     </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="23" spans="1:45">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -6711,7 +7282,7 @@
       <c r="AM23" s="49"/>
       <c r="AS23" s="52"/>
     </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="24" spans="1:45">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -6753,7 +7324,7 @@
       <c r="AM24" s="49"/>
       <c r="AS24" s="52"/>
     </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="25" spans="1:45">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -6795,7 +7366,7 @@
       <c r="AM25" s="49"/>
       <c r="AS25" s="52"/>
     </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="26" spans="1:45">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -6837,7 +7408,7 @@
       <c r="AM26" s="49"/>
       <c r="AS26" s="52"/>
     </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="27" spans="1:45">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -6879,7 +7450,7 @@
       <c r="AM27" s="49"/>
       <c r="AS27" s="52"/>
     </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="28" spans="1:45">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
@@ -6921,7 +7492,7 @@
       <c r="AM28" s="49"/>
       <c r="AS28" s="52"/>
     </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="29" spans="1:45">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -6963,7 +7534,7 @@
       <c r="AM29" s="49"/>
       <c r="AS29" s="52"/>
     </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="30" spans="1:45">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49"/>
@@ -7005,7 +7576,7 @@
       <c r="AM30" s="49"/>
       <c r="AS30" s="52"/>
     </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="31" spans="1:45">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -7047,7 +7618,7 @@
       <c r="AM31" s="49"/>
       <c r="AS31" s="52"/>
     </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="32" spans="1:45">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -7089,7 +7660,7 @@
       <c r="AM32" s="49"/>
       <c r="AS32" s="52"/>
     </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="33" spans="1:45">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -7131,7 +7702,7 @@
       <c r="AM33" s="49"/>
       <c r="AS33" s="52"/>
     </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="34" spans="1:45">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
@@ -7173,7 +7744,7 @@
       <c r="AM34" s="49"/>
       <c r="AS34" s="52"/>
     </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="35" spans="1:45">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -7215,7 +7786,7 @@
       <c r="AM35" s="49"/>
       <c r="AS35" s="52"/>
     </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="36" spans="1:45">
       <c r="A36" s="53"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -7265,12 +7836,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:N1"/>
     <mergeCell ref="AR1:AS2"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="U2:V2"/>
@@ -7284,17 +7849,23 @@
     <mergeCell ref="O1:V1"/>
     <mergeCell ref="W1:AE1"/>
     <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:N1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="75" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="75" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="36" max="44" man="1"/>
+    <brk id="36" man="1" max="44"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -7302,29 +7873,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A5" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
       <selection activeCell="A5" sqref="A5:AS35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="3.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="3.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" style="16" customWidth="1"/>
-    <col min="7" max="8" width="3.140625" style="17" customWidth="1"/>
-    <col min="9" max="30" width="3.140625" style="16" customWidth="1"/>
-    <col min="31" max="31" width="2.42578125" style="16" customWidth="1"/>
-    <col min="32" max="42" width="3.140625" style="16" customWidth="1"/>
-    <col min="43" max="43" width="2.140625" style="16" customWidth="1"/>
-    <col min="44" max="44" width="3.140625" style="16" customWidth="1"/>
-    <col min="45" max="45" width="4" style="16" customWidth="1"/>
-    <col min="46" max="16384" width="3.5703125" style="16"/>
+    <col min="1" max="4" customWidth="true" style="16" width="3.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="17" width="3.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="16" width="3.140625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" style="17" width="3.140625" collapsed="true"/>
+    <col min="9" max="30" customWidth="true" style="16" width="3.140625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="16" width="2.42578125" collapsed="true"/>
+    <col min="32" max="42" customWidth="true" style="16" width="3.140625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" style="16" width="2.140625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="16" width="3.140625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="16" width="4.0" collapsed="true"/>
+    <col min="46" max="16384" style="16" width="3.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" customHeight="1">
+    <row customHeight="1" ht="15.75" r="1" spans="1:45">
       <c r="A1" s="179" t="s">
         <v>23</v>
       </c>
@@ -7368,30 +7939,30 @@
         <v>35</v>
       </c>
       <c r="AG1" s="44"/>
-      <c r="AH1" s="165" t="s">
+      <c r="AH1" s="175" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="164">
+      <c r="AI1" s="175"/>
+      <c r="AJ1" s="174">
         <v>43143</v>
       </c>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="165" t="s">
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="175" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="166" t="s">
+      <c r="AN1" s="175"/>
+      <c r="AO1" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" s="167"/>
-      <c r="AQ1" s="167"/>
+      <c r="AP1" s="177"/>
+      <c r="AQ1" s="177"/>
       <c r="AR1" s="178" t="s">
         <v>41</v>
       </c>
       <c r="AS1" s="178"/>
     </row>
-    <row r="2" spans="1:45" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="2" spans="1:45">
       <c r="A2" s="179" t="s">
         <v>29</v>
       </c>
@@ -7400,7 +7971,7 @@
       <c r="D2" s="180"/>
       <c r="E2" s="181"/>
       <c r="F2" s="182" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G2" s="183"/>
       <c r="H2" s="183"/>
@@ -7425,7 +7996,7 @@
       </c>
       <c r="V2" s="181"/>
       <c r="W2" s="188" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="X2" s="189"/>
       <c r="Y2" s="189"/>
@@ -7441,1918 +8012,1925 @@
       <c r="AG2" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="AH2" s="165" t="s">
+      <c r="AH2" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="165"/>
-      <c r="AJ2" s="164" t="s">
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="164"/>
-      <c r="AL2" s="164"/>
-      <c r="AM2" s="165" t="s">
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="165"/>
-      <c r="AO2" s="166" t="s">
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="AP2" s="167"/>
-      <c r="AQ2" s="167"/>
+      <c r="AP2" s="177"/>
+      <c r="AQ2" s="177"/>
       <c r="AR2" s="178"/>
       <c r="AS2" s="178"/>
     </row>
-    <row r="3" spans="1:45" ht="3.75" customHeight="1"/>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A4" s="168" t="s">
+    <row customHeight="1" ht="3.75" r="3" spans="1:45"/>
+    <row customHeight="1" ht="15.75" r="4" spans="1:45">
+      <c r="A4" s="195" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="168"/>
-      <c r="C4" s="168"/>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-      <c r="O4" s="168"/>
-      <c r="P4" s="168"/>
-      <c r="Q4" s="168"/>
-      <c r="R4" s="168"/>
-      <c r="S4" s="168"/>
-      <c r="T4" s="168"/>
-      <c r="U4" s="168"/>
-      <c r="V4" s="168"/>
-      <c r="W4" s="168"/>
-      <c r="X4" s="168"/>
-      <c r="Y4" s="168"/>
-      <c r="Z4" s="168"/>
-      <c r="AA4" s="168"/>
-      <c r="AB4" s="168"/>
-      <c r="AC4" s="168"/>
-      <c r="AD4" s="168"/>
-      <c r="AE4" s="168"/>
-      <c r="AF4" s="168"/>
-      <c r="AG4" s="168"/>
-      <c r="AH4" s="168"/>
-      <c r="AI4" s="168"/>
-      <c r="AJ4" s="168"/>
-      <c r="AK4" s="168"/>
-      <c r="AL4" s="168"/>
-      <c r="AM4" s="168"/>
-      <c r="AN4" s="168"/>
-      <c r="AO4" s="168"/>
-      <c r="AP4" s="168"/>
-      <c r="AQ4" s="168"/>
-      <c r="AR4" s="168"/>
-      <c r="AS4" s="168"/>
-    </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A5" s="169" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
-      <c r="AI5" s="170"/>
-      <c r="AJ5" s="170"/>
-      <c r="AK5" s="170"/>
-      <c r="AL5" s="170"/>
-      <c r="AM5" s="170"/>
-      <c r="AN5" s="170"/>
-      <c r="AO5" s="170"/>
-      <c r="AP5" s="170"/>
-      <c r="AQ5" s="170"/>
-      <c r="AR5" s="170"/>
-      <c r="AS5" s="171"/>
-    </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A6" s="172"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="173"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="173"/>
-      <c r="L6" s="173"/>
-      <c r="M6" s="173"/>
-      <c r="N6" s="173"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="173"/>
-      <c r="Q6" s="173"/>
-      <c r="R6" s="173"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="173"/>
-      <c r="V6" s="173"/>
-      <c r="W6" s="173"/>
-      <c r="X6" s="173"/>
-      <c r="Y6" s="173"/>
-      <c r="Z6" s="173"/>
-      <c r="AA6" s="173"/>
-      <c r="AB6" s="173"/>
-      <c r="AC6" s="173"/>
-      <c r="AD6" s="173"/>
-      <c r="AE6" s="173"/>
-      <c r="AF6" s="173"/>
-      <c r="AG6" s="173"/>
-      <c r="AH6" s="173"/>
-      <c r="AI6" s="173"/>
-      <c r="AJ6" s="173"/>
-      <c r="AK6" s="173"/>
-      <c r="AL6" s="173"/>
-      <c r="AM6" s="173"/>
-      <c r="AN6" s="173"/>
-      <c r="AO6" s="173"/>
-      <c r="AP6" s="173"/>
-      <c r="AQ6" s="173"/>
-      <c r="AR6" s="173"/>
-      <c r="AS6" s="174"/>
-    </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A7" s="172"/>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="173"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="173"/>
-      <c r="H7" s="173"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="173"/>
-      <c r="AF7" s="173"/>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="173"/>
-      <c r="AJ7" s="173"/>
-      <c r="AK7" s="173"/>
-      <c r="AL7" s="173"/>
-      <c r="AM7" s="173"/>
-      <c r="AN7" s="173"/>
-      <c r="AO7" s="173"/>
-      <c r="AP7" s="173"/>
-      <c r="AQ7" s="173"/>
-      <c r="AR7" s="173"/>
-      <c r="AS7" s="174"/>
-    </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A8" s="172"/>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="173"/>
-      <c r="G8" s="173"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="173"/>
-      <c r="L8" s="173"/>
-      <c r="M8" s="173"/>
-      <c r="N8" s="173"/>
-      <c r="O8" s="173"/>
-      <c r="P8" s="173"/>
-      <c r="Q8" s="173"/>
-      <c r="R8" s="173"/>
-      <c r="S8" s="173"/>
-      <c r="T8" s="173"/>
-      <c r="U8" s="173"/>
-      <c r="V8" s="173"/>
-      <c r="W8" s="173"/>
-      <c r="X8" s="173"/>
-      <c r="Y8" s="173"/>
-      <c r="Z8" s="173"/>
-      <c r="AA8" s="173"/>
-      <c r="AB8" s="173"/>
-      <c r="AC8" s="173"/>
-      <c r="AD8" s="173"/>
-      <c r="AE8" s="173"/>
-      <c r="AF8" s="173"/>
-      <c r="AG8" s="173"/>
-      <c r="AH8" s="173"/>
-      <c r="AI8" s="173"/>
-      <c r="AJ8" s="173"/>
-      <c r="AK8" s="173"/>
-      <c r="AL8" s="173"/>
-      <c r="AM8" s="173"/>
-      <c r="AN8" s="173"/>
-      <c r="AO8" s="173"/>
-      <c r="AP8" s="173"/>
-      <c r="AQ8" s="173"/>
-      <c r="AR8" s="173"/>
-      <c r="AS8" s="174"/>
-    </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A9" s="172"/>
-      <c r="B9" s="173"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="173"/>
-      <c r="E9" s="173"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="173"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="173"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="173"/>
-      <c r="Q9" s="173"/>
-      <c r="R9" s="173"/>
-      <c r="S9" s="173"/>
-      <c r="T9" s="173"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="173"/>
-      <c r="X9" s="173"/>
-      <c r="Y9" s="173"/>
-      <c r="Z9" s="173"/>
-      <c r="AA9" s="173"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="173"/>
-      <c r="AD9" s="173"/>
-      <c r="AE9" s="173"/>
-      <c r="AF9" s="173"/>
-      <c r="AG9" s="173"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="173"/>
-      <c r="AJ9" s="173"/>
-      <c r="AK9" s="173"/>
-      <c r="AL9" s="173"/>
-      <c r="AM9" s="173"/>
-      <c r="AN9" s="173"/>
-      <c r="AO9" s="173"/>
-      <c r="AP9" s="173"/>
-      <c r="AQ9" s="173"/>
-      <c r="AR9" s="173"/>
-      <c r="AS9" s="174"/>
-    </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A10" s="172"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="173"/>
-      <c r="L10" s="173"/>
-      <c r="M10" s="173"/>
-      <c r="N10" s="173"/>
-      <c r="O10" s="173"/>
-      <c r="P10" s="173"/>
-      <c r="Q10" s="173"/>
-      <c r="R10" s="173"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="173"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="173"/>
-      <c r="W10" s="173"/>
-      <c r="X10" s="173"/>
-      <c r="Y10" s="173"/>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
-      <c r="AD10" s="173"/>
-      <c r="AE10" s="173"/>
-      <c r="AF10" s="173"/>
-      <c r="AG10" s="173"/>
-      <c r="AH10" s="173"/>
-      <c r="AI10" s="173"/>
-      <c r="AJ10" s="173"/>
-      <c r="AK10" s="173"/>
-      <c r="AL10" s="173"/>
-      <c r="AM10" s="173"/>
-      <c r="AN10" s="173"/>
-      <c r="AO10" s="173"/>
-      <c r="AP10" s="173"/>
-      <c r="AQ10" s="173"/>
-      <c r="AR10" s="173"/>
-      <c r="AS10" s="174"/>
-    </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A11" s="172"/>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="173"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="173"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="173"/>
-      <c r="L11" s="173"/>
-      <c r="M11" s="173"/>
-      <c r="N11" s="173"/>
-      <c r="O11" s="173"/>
-      <c r="P11" s="173"/>
-      <c r="Q11" s="173"/>
-      <c r="R11" s="173"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="173"/>
-      <c r="U11" s="173"/>
-      <c r="V11" s="173"/>
-      <c r="W11" s="173"/>
-      <c r="X11" s="173"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="173"/>
-      <c r="AA11" s="173"/>
-      <c r="AB11" s="173"/>
-      <c r="AC11" s="173"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="173"/>
-      <c r="AF11" s="173"/>
-      <c r="AG11" s="173"/>
-      <c r="AH11" s="173"/>
-      <c r="AI11" s="173"/>
-      <c r="AJ11" s="173"/>
-      <c r="AK11" s="173"/>
-      <c r="AL11" s="173"/>
-      <c r="AM11" s="173"/>
-      <c r="AN11" s="173"/>
-      <c r="AO11" s="173"/>
-      <c r="AP11" s="173"/>
-      <c r="AQ11" s="173"/>
-      <c r="AR11" s="173"/>
-      <c r="AS11" s="174"/>
-    </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A12" s="172"/>
-      <c r="B12" s="173"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="173"/>
-      <c r="E12" s="173"/>
-      <c r="F12" s="173"/>
-      <c r="G12" s="173"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="173"/>
-      <c r="L12" s="173"/>
-      <c r="M12" s="173"/>
-      <c r="N12" s="173"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="173"/>
-      <c r="Q12" s="173"/>
-      <c r="R12" s="173"/>
-      <c r="S12" s="173"/>
-      <c r="T12" s="173"/>
-      <c r="U12" s="173"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="173"/>
-      <c r="X12" s="173"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
-      <c r="AD12" s="173"/>
-      <c r="AE12" s="173"/>
-      <c r="AF12" s="173"/>
-      <c r="AG12" s="173"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="173"/>
-      <c r="AJ12" s="173"/>
-      <c r="AK12" s="173"/>
-      <c r="AL12" s="173"/>
-      <c r="AM12" s="173"/>
-      <c r="AN12" s="173"/>
-      <c r="AO12" s="173"/>
-      <c r="AP12" s="173"/>
-      <c r="AQ12" s="173"/>
-      <c r="AR12" s="173"/>
-      <c r="AS12" s="174"/>
-    </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A13" s="172"/>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="173"/>
-      <c r="AH13" s="173"/>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="173"/>
-      <c r="AK13" s="173"/>
-      <c r="AL13" s="173"/>
-      <c r="AM13" s="173"/>
-      <c r="AN13" s="173"/>
-      <c r="AO13" s="173"/>
-      <c r="AP13" s="173"/>
-      <c r="AQ13" s="173"/>
-      <c r="AR13" s="173"/>
-      <c r="AS13" s="174"/>
-    </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="173"/>
-      <c r="E14" s="173"/>
-      <c r="F14" s="173"/>
-      <c r="G14" s="173"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="173"/>
-      <c r="L14" s="173"/>
-      <c r="M14" s="173"/>
-      <c r="N14" s="173"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="173"/>
-      <c r="Q14" s="173"/>
-      <c r="R14" s="173"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="173"/>
-      <c r="U14" s="173"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="173"/>
-      <c r="X14" s="173"/>
-      <c r="Y14" s="173"/>
-      <c r="Z14" s="173"/>
-      <c r="AA14" s="173"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="173"/>
-      <c r="AD14" s="173"/>
-      <c r="AE14" s="173"/>
-      <c r="AF14" s="173"/>
-      <c r="AG14" s="173"/>
-      <c r="AH14" s="173"/>
-      <c r="AI14" s="173"/>
-      <c r="AJ14" s="173"/>
-      <c r="AK14" s="173"/>
-      <c r="AL14" s="173"/>
-      <c r="AM14" s="173"/>
-      <c r="AN14" s="173"/>
-      <c r="AO14" s="173"/>
-      <c r="AP14" s="173"/>
-      <c r="AQ14" s="173"/>
-      <c r="AR14" s="173"/>
-      <c r="AS14" s="174"/>
-    </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A15" s="172"/>
-      <c r="B15" s="173"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="173"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="173"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="173"/>
-      <c r="L15" s="173"/>
-      <c r="M15" s="173"/>
-      <c r="N15" s="173"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="173"/>
-      <c r="Q15" s="173"/>
-      <c r="R15" s="173"/>
-      <c r="S15" s="173"/>
-      <c r="T15" s="173"/>
-      <c r="U15" s="173"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="173"/>
-      <c r="X15" s="173"/>
-      <c r="Y15" s="173"/>
-      <c r="Z15" s="173"/>
-      <c r="AA15" s="173"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="173"/>
-      <c r="AD15" s="173"/>
-      <c r="AE15" s="173"/>
-      <c r="AF15" s="173"/>
-      <c r="AG15" s="173"/>
-      <c r="AH15" s="173"/>
-      <c r="AI15" s="173"/>
-      <c r="AJ15" s="173"/>
-      <c r="AK15" s="173"/>
-      <c r="AL15" s="173"/>
-      <c r="AM15" s="173"/>
-      <c r="AN15" s="173"/>
-      <c r="AO15" s="173"/>
-      <c r="AP15" s="173"/>
-      <c r="AQ15" s="173"/>
-      <c r="AR15" s="173"/>
-      <c r="AS15" s="174"/>
-    </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A16" s="172"/>
-      <c r="B16" s="173"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="173"/>
-      <c r="E16" s="173"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="173"/>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="173"/>
-      <c r="O16" s="173"/>
-      <c r="P16" s="173"/>
-      <c r="Q16" s="173"/>
-      <c r="R16" s="173"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="173"/>
-      <c r="U16" s="173"/>
-      <c r="V16" s="173"/>
-      <c r="W16" s="173"/>
-      <c r="X16" s="173"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="173"/>
-      <c r="AA16" s="173"/>
-      <c r="AB16" s="173"/>
-      <c r="AC16" s="173"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="173"/>
-      <c r="AG16" s="173"/>
-      <c r="AH16" s="173"/>
-      <c r="AI16" s="173"/>
-      <c r="AJ16" s="173"/>
-      <c r="AK16" s="173"/>
-      <c r="AL16" s="173"/>
-      <c r="AM16" s="173"/>
-      <c r="AN16" s="173"/>
-      <c r="AO16" s="173"/>
-      <c r="AP16" s="173"/>
-      <c r="AQ16" s="173"/>
-      <c r="AR16" s="173"/>
-      <c r="AS16" s="174"/>
-    </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A17" s="172"/>
-      <c r="B17" s="173"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="173"/>
-      <c r="L17" s="173"/>
-      <c r="M17" s="173"/>
-      <c r="N17" s="173"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="173"/>
-      <c r="Q17" s="173"/>
-      <c r="R17" s="173"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="173"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="173"/>
-      <c r="X17" s="173"/>
-      <c r="Y17" s="173"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="173"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="173"/>
-      <c r="AD17" s="173"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="173"/>
-      <c r="AG17" s="173"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="173"/>
-      <c r="AJ17" s="173"/>
-      <c r="AK17" s="173"/>
-      <c r="AL17" s="173"/>
-      <c r="AM17" s="173"/>
-      <c r="AN17" s="173"/>
-      <c r="AO17" s="173"/>
-      <c r="AP17" s="173"/>
-      <c r="AQ17" s="173"/>
-      <c r="AR17" s="173"/>
-      <c r="AS17" s="174"/>
-    </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
-      <c r="L18" s="173"/>
-      <c r="M18" s="173"/>
-      <c r="N18" s="173"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="173"/>
-      <c r="Q18" s="173"/>
-      <c r="R18" s="173"/>
-      <c r="S18" s="173"/>
-      <c r="T18" s="173"/>
-      <c r="U18" s="173"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="173"/>
-      <c r="X18" s="173"/>
-      <c r="Y18" s="173"/>
-      <c r="Z18" s="173"/>
-      <c r="AA18" s="173"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="173"/>
-      <c r="AD18" s="173"/>
-      <c r="AE18" s="173"/>
-      <c r="AF18" s="173"/>
-      <c r="AG18" s="173"/>
-      <c r="AH18" s="173"/>
-      <c r="AI18" s="173"/>
-      <c r="AJ18" s="173"/>
-      <c r="AK18" s="173"/>
-      <c r="AL18" s="173"/>
-      <c r="AM18" s="173"/>
-      <c r="AN18" s="173"/>
-      <c r="AO18" s="173"/>
-      <c r="AP18" s="173"/>
-      <c r="AQ18" s="173"/>
-      <c r="AR18" s="173"/>
-      <c r="AS18" s="174"/>
-    </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A19" s="172"/>
-      <c r="B19" s="173"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="173"/>
-      <c r="E19" s="173"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="173"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="173"/>
-      <c r="L19" s="173"/>
-      <c r="M19" s="173"/>
-      <c r="N19" s="173"/>
-      <c r="O19" s="173"/>
-      <c r="P19" s="173"/>
-      <c r="Q19" s="173"/>
-      <c r="R19" s="173"/>
-      <c r="S19" s="173"/>
-      <c r="T19" s="173"/>
-      <c r="U19" s="173"/>
-      <c r="V19" s="173"/>
-      <c r="W19" s="173"/>
-      <c r="X19" s="173"/>
-      <c r="Y19" s="173"/>
-      <c r="Z19" s="173"/>
-      <c r="AA19" s="173"/>
-      <c r="AB19" s="173"/>
-      <c r="AC19" s="173"/>
-      <c r="AD19" s="173"/>
-      <c r="AE19" s="173"/>
-      <c r="AF19" s="173"/>
-      <c r="AG19" s="173"/>
-      <c r="AH19" s="173"/>
-      <c r="AI19" s="173"/>
-      <c r="AJ19" s="173"/>
-      <c r="AK19" s="173"/>
-      <c r="AL19" s="173"/>
-      <c r="AM19" s="173"/>
-      <c r="AN19" s="173"/>
-      <c r="AO19" s="173"/>
-      <c r="AP19" s="173"/>
-      <c r="AQ19" s="173"/>
-      <c r="AR19" s="173"/>
-      <c r="AS19" s="174"/>
-    </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A20" s="172"/>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="173"/>
-      <c r="L20" s="173"/>
-      <c r="M20" s="173"/>
-      <c r="N20" s="173"/>
-      <c r="O20" s="173"/>
-      <c r="P20" s="173"/>
-      <c r="Q20" s="173"/>
-      <c r="R20" s="173"/>
-      <c r="S20" s="173"/>
-      <c r="T20" s="173"/>
-      <c r="U20" s="173"/>
-      <c r="V20" s="173"/>
-      <c r="W20" s="173"/>
-      <c r="X20" s="173"/>
-      <c r="Y20" s="173"/>
-      <c r="Z20" s="173"/>
-      <c r="AA20" s="173"/>
-      <c r="AB20" s="173"/>
-      <c r="AC20" s="173"/>
-      <c r="AD20" s="173"/>
-      <c r="AE20" s="173"/>
-      <c r="AF20" s="173"/>
-      <c r="AG20" s="173"/>
-      <c r="AH20" s="173"/>
-      <c r="AI20" s="173"/>
-      <c r="AJ20" s="173"/>
-      <c r="AK20" s="173"/>
-      <c r="AL20" s="173"/>
-      <c r="AM20" s="173"/>
-      <c r="AN20" s="173"/>
-      <c r="AO20" s="173"/>
-      <c r="AP20" s="173"/>
-      <c r="AQ20" s="173"/>
-      <c r="AR20" s="173"/>
-      <c r="AS20" s="174"/>
-    </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A21" s="172"/>
-      <c r="B21" s="173"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="173"/>
-      <c r="M21" s="173"/>
-      <c r="N21" s="173"/>
-      <c r="O21" s="173"/>
-      <c r="P21" s="173"/>
-      <c r="Q21" s="173"/>
-      <c r="R21" s="173"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="173"/>
-      <c r="U21" s="173"/>
-      <c r="V21" s="173"/>
-      <c r="W21" s="173"/>
-      <c r="X21" s="173"/>
-      <c r="Y21" s="173"/>
-      <c r="Z21" s="173"/>
-      <c r="AA21" s="173"/>
-      <c r="AB21" s="173"/>
-      <c r="AC21" s="173"/>
-      <c r="AD21" s="173"/>
-      <c r="AE21" s="173"/>
-      <c r="AF21" s="173"/>
-      <c r="AG21" s="173"/>
-      <c r="AH21" s="173"/>
-      <c r="AI21" s="173"/>
-      <c r="AJ21" s="173"/>
-      <c r="AK21" s="173"/>
-      <c r="AL21" s="173"/>
-      <c r="AM21" s="173"/>
-      <c r="AN21" s="173"/>
-      <c r="AO21" s="173"/>
-      <c r="AP21" s="173"/>
-      <c r="AQ21" s="173"/>
-      <c r="AR21" s="173"/>
-      <c r="AS21" s="174"/>
-    </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="173"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="173"/>
-      <c r="G22" s="173"/>
-      <c r="H22" s="173"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="173"/>
-      <c r="L22" s="173"/>
-      <c r="M22" s="173"/>
-      <c r="N22" s="173"/>
-      <c r="O22" s="173"/>
-      <c r="P22" s="173"/>
-      <c r="Q22" s="173"/>
-      <c r="R22" s="173"/>
-      <c r="S22" s="173"/>
-      <c r="T22" s="173"/>
-      <c r="U22" s="173"/>
-      <c r="V22" s="173"/>
-      <c r="W22" s="173"/>
-      <c r="X22" s="173"/>
-      <c r="Y22" s="173"/>
-      <c r="Z22" s="173"/>
-      <c r="AA22" s="173"/>
-      <c r="AB22" s="173"/>
-      <c r="AC22" s="173"/>
-      <c r="AD22" s="173"/>
-      <c r="AE22" s="173"/>
-      <c r="AF22" s="173"/>
-      <c r="AG22" s="173"/>
-      <c r="AH22" s="173"/>
-      <c r="AI22" s="173"/>
-      <c r="AJ22" s="173"/>
-      <c r="AK22" s="173"/>
-      <c r="AL22" s="173"/>
-      <c r="AM22" s="173"/>
-      <c r="AN22" s="173"/>
-      <c r="AO22" s="173"/>
-      <c r="AP22" s="173"/>
-      <c r="AQ22" s="173"/>
-      <c r="AR22" s="173"/>
-      <c r="AS22" s="174"/>
-    </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="173"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="173"/>
-      <c r="AH23" s="173"/>
-      <c r="AI23" s="173"/>
-      <c r="AJ23" s="173"/>
-      <c r="AK23" s="173"/>
-      <c r="AL23" s="173"/>
-      <c r="AM23" s="173"/>
-      <c r="AN23" s="173"/>
-      <c r="AO23" s="173"/>
-      <c r="AP23" s="173"/>
-      <c r="AQ23" s="173"/>
-      <c r="AR23" s="173"/>
-      <c r="AS23" s="174"/>
-    </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A24" s="172"/>
-      <c r="B24" s="173"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="173"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="173"/>
-      <c r="M24" s="173"/>
-      <c r="N24" s="173"/>
-      <c r="O24" s="173"/>
-      <c r="P24" s="173"/>
-      <c r="Q24" s="173"/>
-      <c r="R24" s="173"/>
-      <c r="S24" s="173"/>
-      <c r="T24" s="173"/>
-      <c r="U24" s="173"/>
-      <c r="V24" s="173"/>
-      <c r="W24" s="173"/>
-      <c r="X24" s="173"/>
-      <c r="Y24" s="173"/>
-      <c r="Z24" s="173"/>
-      <c r="AA24" s="173"/>
-      <c r="AB24" s="173"/>
-      <c r="AC24" s="173"/>
-      <c r="AD24" s="173"/>
-      <c r="AE24" s="173"/>
-      <c r="AF24" s="173"/>
-      <c r="AG24" s="173"/>
-      <c r="AH24" s="173"/>
-      <c r="AI24" s="173"/>
-      <c r="AJ24" s="173"/>
-      <c r="AK24" s="173"/>
-      <c r="AL24" s="173"/>
-      <c r="AM24" s="173"/>
-      <c r="AN24" s="173"/>
-      <c r="AO24" s="173"/>
-      <c r="AP24" s="173"/>
-      <c r="AQ24" s="173"/>
-      <c r="AR24" s="173"/>
-      <c r="AS24" s="174"/>
-    </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="173"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="173"/>
-      <c r="G25" s="173"/>
-      <c r="H25" s="173"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="M25" s="173"/>
-      <c r="N25" s="173"/>
-      <c r="O25" s="173"/>
-      <c r="P25" s="173"/>
-      <c r="Q25" s="173"/>
-      <c r="R25" s="173"/>
-      <c r="S25" s="173"/>
-      <c r="T25" s="173"/>
-      <c r="U25" s="173"/>
-      <c r="V25" s="173"/>
-      <c r="W25" s="173"/>
-      <c r="X25" s="173"/>
-      <c r="Y25" s="173"/>
-      <c r="Z25" s="173"/>
-      <c r="AA25" s="173"/>
-      <c r="AB25" s="173"/>
-      <c r="AC25" s="173"/>
-      <c r="AD25" s="173"/>
-      <c r="AE25" s="173"/>
-      <c r="AF25" s="173"/>
-      <c r="AG25" s="173"/>
-      <c r="AH25" s="173"/>
-      <c r="AI25" s="173"/>
-      <c r="AJ25" s="173"/>
-      <c r="AK25" s="173"/>
-      <c r="AL25" s="173"/>
-      <c r="AM25" s="173"/>
-      <c r="AN25" s="173"/>
-      <c r="AO25" s="173"/>
-      <c r="AP25" s="173"/>
-      <c r="AQ25" s="173"/>
-      <c r="AR25" s="173"/>
-      <c r="AS25" s="174"/>
-    </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A26" s="172"/>
-      <c r="B26" s="173"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="173"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="173"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="173"/>
-      <c r="L26" s="173"/>
-      <c r="M26" s="173"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="173"/>
-      <c r="P26" s="173"/>
-      <c r="Q26" s="173"/>
-      <c r="R26" s="173"/>
-      <c r="S26" s="173"/>
-      <c r="T26" s="173"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="173"/>
-      <c r="W26" s="173"/>
-      <c r="X26" s="173"/>
-      <c r="Y26" s="173"/>
-      <c r="Z26" s="173"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-      <c r="AD26" s="173"/>
-      <c r="AE26" s="173"/>
-      <c r="AF26" s="173"/>
-      <c r="AG26" s="173"/>
-      <c r="AH26" s="173"/>
-      <c r="AI26" s="173"/>
-      <c r="AJ26" s="173"/>
-      <c r="AK26" s="173"/>
-      <c r="AL26" s="173"/>
-      <c r="AM26" s="173"/>
-      <c r="AN26" s="173"/>
-      <c r="AO26" s="173"/>
-      <c r="AP26" s="173"/>
-      <c r="AQ26" s="173"/>
-      <c r="AR26" s="173"/>
-      <c r="AS26" s="174"/>
-    </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A27" s="172"/>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="173"/>
-      <c r="R27" s="173"/>
-      <c r="S27" s="173"/>
-      <c r="T27" s="173"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="173"/>
-      <c r="X27" s="173"/>
-      <c r="Y27" s="173"/>
-      <c r="Z27" s="173"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-      <c r="AD27" s="173"/>
-      <c r="AE27" s="173"/>
-      <c r="AF27" s="173"/>
-      <c r="AG27" s="173"/>
-      <c r="AH27" s="173"/>
-      <c r="AI27" s="173"/>
-      <c r="AJ27" s="173"/>
-      <c r="AK27" s="173"/>
-      <c r="AL27" s="173"/>
-      <c r="AM27" s="173"/>
-      <c r="AN27" s="173"/>
-      <c r="AO27" s="173"/>
-      <c r="AP27" s="173"/>
-      <c r="AQ27" s="173"/>
-      <c r="AR27" s="173"/>
-      <c r="AS27" s="174"/>
-    </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="173"/>
-      <c r="L28" s="173"/>
-      <c r="M28" s="173"/>
-      <c r="N28" s="173"/>
-      <c r="O28" s="173"/>
-      <c r="P28" s="173"/>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="173"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="173"/>
-      <c r="X28" s="173"/>
-      <c r="Y28" s="173"/>
-      <c r="Z28" s="173"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-      <c r="AD28" s="173"/>
-      <c r="AE28" s="173"/>
-      <c r="AF28" s="173"/>
-      <c r="AG28" s="173"/>
-      <c r="AH28" s="173"/>
-      <c r="AI28" s="173"/>
-      <c r="AJ28" s="173"/>
-      <c r="AK28" s="173"/>
-      <c r="AL28" s="173"/>
-      <c r="AM28" s="173"/>
-      <c r="AN28" s="173"/>
-      <c r="AO28" s="173"/>
-      <c r="AP28" s="173"/>
-      <c r="AQ28" s="173"/>
-      <c r="AR28" s="173"/>
-      <c r="AS28" s="174"/>
-    </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
-      <c r="G29" s="173"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="173"/>
-      <c r="M29" s="173"/>
-      <c r="N29" s="173"/>
-      <c r="O29" s="173"/>
-      <c r="P29" s="173"/>
-      <c r="Q29" s="173"/>
-      <c r="R29" s="173"/>
-      <c r="S29" s="173"/>
-      <c r="T29" s="173"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="173"/>
-      <c r="X29" s="173"/>
-      <c r="Y29" s="173"/>
-      <c r="Z29" s="173"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-      <c r="AD29" s="173"/>
-      <c r="AE29" s="173"/>
-      <c r="AF29" s="173"/>
-      <c r="AG29" s="173"/>
-      <c r="AH29" s="173"/>
-      <c r="AI29" s="173"/>
-      <c r="AJ29" s="173"/>
-      <c r="AK29" s="173"/>
-      <c r="AL29" s="173"/>
-      <c r="AM29" s="173"/>
-      <c r="AN29" s="173"/>
-      <c r="AO29" s="173"/>
-      <c r="AP29" s="173"/>
-      <c r="AQ29" s="173"/>
-      <c r="AR29" s="173"/>
-      <c r="AS29" s="174"/>
-    </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A30" s="172"/>
-      <c r="B30" s="173"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="173"/>
-      <c r="L30" s="173"/>
-      <c r="M30" s="173"/>
-      <c r="N30" s="173"/>
-      <c r="O30" s="173"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="173"/>
-      <c r="R30" s="173"/>
-      <c r="S30" s="173"/>
-      <c r="T30" s="173"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="173"/>
-      <c r="W30" s="173"/>
-      <c r="X30" s="173"/>
-      <c r="Y30" s="173"/>
-      <c r="Z30" s="173"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-      <c r="AD30" s="173"/>
-      <c r="AE30" s="173"/>
-      <c r="AF30" s="173"/>
-      <c r="AG30" s="173"/>
-      <c r="AH30" s="173"/>
-      <c r="AI30" s="173"/>
-      <c r="AJ30" s="173"/>
-      <c r="AK30" s="173"/>
-      <c r="AL30" s="173"/>
-      <c r="AM30" s="173"/>
-      <c r="AN30" s="173"/>
-      <c r="AO30" s="173"/>
-      <c r="AP30" s="173"/>
-      <c r="AQ30" s="173"/>
-      <c r="AR30" s="173"/>
-      <c r="AS30" s="174"/>
-    </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A31" s="172"/>
-      <c r="B31" s="173"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="173"/>
-      <c r="G31" s="173"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="173"/>
-      <c r="L31" s="173"/>
-      <c r="M31" s="173"/>
-      <c r="N31" s="173"/>
-      <c r="O31" s="173"/>
-      <c r="P31" s="173"/>
-      <c r="Q31" s="173"/>
-      <c r="R31" s="173"/>
-      <c r="S31" s="173"/>
-      <c r="T31" s="173"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="173"/>
-      <c r="W31" s="173"/>
-      <c r="X31" s="173"/>
-      <c r="Y31" s="173"/>
-      <c r="Z31" s="173"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-      <c r="AD31" s="173"/>
-      <c r="AE31" s="173"/>
-      <c r="AF31" s="173"/>
-      <c r="AG31" s="173"/>
-      <c r="AH31" s="173"/>
-      <c r="AI31" s="173"/>
-      <c r="AJ31" s="173"/>
-      <c r="AK31" s="173"/>
-      <c r="AL31" s="173"/>
-      <c r="AM31" s="173"/>
-      <c r="AN31" s="173"/>
-      <c r="AO31" s="173"/>
-      <c r="AP31" s="173"/>
-      <c r="AQ31" s="173"/>
-      <c r="AR31" s="173"/>
-      <c r="AS31" s="174"/>
-    </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A32" s="172"/>
-      <c r="B32" s="173"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="173"/>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="173"/>
-      <c r="Q32" s="173"/>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="173"/>
-      <c r="V32" s="173"/>
-      <c r="W32" s="173"/>
-      <c r="X32" s="173"/>
-      <c r="Y32" s="173"/>
-      <c r="Z32" s="173"/>
-      <c r="AA32" s="173"/>
-      <c r="AB32" s="173"/>
-      <c r="AC32" s="173"/>
-      <c r="AD32" s="173"/>
-      <c r="AE32" s="173"/>
-      <c r="AF32" s="173"/>
-      <c r="AG32" s="173"/>
-      <c r="AH32" s="173"/>
-      <c r="AI32" s="173"/>
-      <c r="AJ32" s="173"/>
-      <c r="AK32" s="173"/>
-      <c r="AL32" s="173"/>
-      <c r="AM32" s="173"/>
-      <c r="AN32" s="173"/>
-      <c r="AO32" s="173"/>
-      <c r="AP32" s="173"/>
-      <c r="AQ32" s="173"/>
-      <c r="AR32" s="173"/>
-      <c r="AS32" s="174"/>
-    </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="173"/>
-      <c r="L33" s="173"/>
-      <c r="M33" s="173"/>
-      <c r="N33" s="173"/>
-      <c r="O33" s="173"/>
-      <c r="P33" s="173"/>
-      <c r="Q33" s="173"/>
-      <c r="R33" s="173"/>
-      <c r="S33" s="173"/>
-      <c r="T33" s="173"/>
-      <c r="U33" s="173"/>
-      <c r="V33" s="173"/>
-      <c r="W33" s="173"/>
-      <c r="X33" s="173"/>
-      <c r="Y33" s="173"/>
-      <c r="Z33" s="173"/>
-      <c r="AA33" s="173"/>
-      <c r="AB33" s="173"/>
-      <c r="AC33" s="173"/>
-      <c r="AD33" s="173"/>
-      <c r="AE33" s="173"/>
-      <c r="AF33" s="173"/>
-      <c r="AG33" s="173"/>
-      <c r="AH33" s="173"/>
-      <c r="AI33" s="173"/>
-      <c r="AJ33" s="173"/>
-      <c r="AK33" s="173"/>
-      <c r="AL33" s="173"/>
-      <c r="AM33" s="173"/>
-      <c r="AN33" s="173"/>
-      <c r="AO33" s="173"/>
-      <c r="AP33" s="173"/>
-      <c r="AQ33" s="173"/>
-      <c r="AR33" s="173"/>
-      <c r="AS33" s="174"/>
-    </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A34" s="172"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="173"/>
-      <c r="L34" s="173"/>
-      <c r="M34" s="173"/>
-      <c r="N34" s="173"/>
-      <c r="O34" s="173"/>
-      <c r="P34" s="173"/>
-      <c r="Q34" s="173"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="173"/>
-      <c r="T34" s="173"/>
-      <c r="U34" s="173"/>
-      <c r="V34" s="173"/>
-      <c r="W34" s="173"/>
-      <c r="X34" s="173"/>
-      <c r="Y34" s="173"/>
-      <c r="Z34" s="173"/>
-      <c r="AA34" s="173"/>
-      <c r="AB34" s="173"/>
-      <c r="AC34" s="173"/>
-      <c r="AD34" s="173"/>
-      <c r="AE34" s="173"/>
-      <c r="AF34" s="173"/>
-      <c r="AG34" s="173"/>
-      <c r="AH34" s="173"/>
-      <c r="AI34" s="173"/>
-      <c r="AJ34" s="173"/>
-      <c r="AK34" s="173"/>
-      <c r="AL34" s="173"/>
-      <c r="AM34" s="173"/>
-      <c r="AN34" s="173"/>
-      <c r="AO34" s="173"/>
-      <c r="AP34" s="173"/>
-      <c r="AQ34" s="173"/>
-      <c r="AR34" s="173"/>
-      <c r="AS34" s="174"/>
-    </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A35" s="175"/>
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="176"/>
-      <c r="K35" s="176"/>
-      <c r="L35" s="176"/>
-      <c r="M35" s="176"/>
-      <c r="N35" s="176"/>
-      <c r="O35" s="176"/>
-      <c r="P35" s="176"/>
-      <c r="Q35" s="176"/>
-      <c r="R35" s="176"/>
-      <c r="S35" s="176"/>
-      <c r="T35" s="176"/>
-      <c r="U35" s="176"/>
-      <c r="V35" s="176"/>
-      <c r="W35" s="176"/>
-      <c r="X35" s="176"/>
-      <c r="Y35" s="176"/>
-      <c r="Z35" s="176"/>
-      <c r="AA35" s="176"/>
-      <c r="AB35" s="176"/>
-      <c r="AC35" s="176"/>
-      <c r="AD35" s="176"/>
-      <c r="AE35" s="176"/>
-      <c r="AF35" s="176"/>
-      <c r="AG35" s="176"/>
-      <c r="AH35" s="176"/>
-      <c r="AI35" s="176"/>
-      <c r="AJ35" s="176"/>
-      <c r="AK35" s="176"/>
-      <c r="AL35" s="176"/>
-      <c r="AM35" s="176"/>
-      <c r="AN35" s="176"/>
-      <c r="AO35" s="176"/>
-      <c r="AP35" s="176"/>
-      <c r="AQ35" s="176"/>
-      <c r="AR35" s="176"/>
-      <c r="AS35" s="177"/>
-    </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A36" s="168" t="s">
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="195"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="195"/>
+      <c r="P4" s="195"/>
+      <c r="Q4" s="195"/>
+      <c r="R4" s="195"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="195"/>
+      <c r="U4" s="195"/>
+      <c r="V4" s="195"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="195"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="195"/>
+      <c r="AD4" s="195"/>
+      <c r="AE4" s="195"/>
+      <c r="AF4" s="195"/>
+      <c r="AG4" s="195"/>
+      <c r="AH4" s="195"/>
+      <c r="AI4" s="195"/>
+      <c r="AJ4" s="195"/>
+      <c r="AK4" s="195"/>
+      <c r="AL4" s="195"/>
+      <c r="AM4" s="195"/>
+      <c r="AN4" s="195"/>
+      <c r="AO4" s="195"/>
+      <c r="AP4" s="195"/>
+      <c r="AQ4" s="195"/>
+      <c r="AR4" s="195"/>
+      <c r="AS4" s="195"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" spans="1:45">
+      <c r="A5" s="196" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="197"/>
+      <c r="F5" s="197"/>
+      <c r="G5" s="197"/>
+      <c r="H5" s="197"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+      <c r="L5" s="197"/>
+      <c r="M5" s="197"/>
+      <c r="N5" s="197"/>
+      <c r="O5" s="197"/>
+      <c r="P5" s="197"/>
+      <c r="Q5" s="197"/>
+      <c r="R5" s="197"/>
+      <c r="S5" s="197"/>
+      <c r="T5" s="197"/>
+      <c r="U5" s="197"/>
+      <c r="V5" s="197"/>
+      <c r="W5" s="197"/>
+      <c r="X5" s="197"/>
+      <c r="Y5" s="197"/>
+      <c r="Z5" s="197"/>
+      <c r="AA5" s="197"/>
+      <c r="AB5" s="197"/>
+      <c r="AC5" s="197"/>
+      <c r="AD5" s="197"/>
+      <c r="AE5" s="197"/>
+      <c r="AF5" s="197"/>
+      <c r="AG5" s="197"/>
+      <c r="AH5" s="197"/>
+      <c r="AI5" s="197"/>
+      <c r="AJ5" s="197"/>
+      <c r="AK5" s="197"/>
+      <c r="AL5" s="197"/>
+      <c r="AM5" s="197"/>
+      <c r="AN5" s="197"/>
+      <c r="AO5" s="197"/>
+      <c r="AP5" s="197"/>
+      <c r="AQ5" s="197"/>
+      <c r="AR5" s="197"/>
+      <c r="AS5" s="198"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" spans="1:45">
+      <c r="A6" s="199"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="200"/>
+      <c r="I6" s="200"/>
+      <c r="J6" s="200"/>
+      <c r="K6" s="200"/>
+      <c r="L6" s="200"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+      <c r="T6" s="200"/>
+      <c r="U6" s="200"/>
+      <c r="V6" s="200"/>
+      <c r="W6" s="200"/>
+      <c r="X6" s="200"/>
+      <c r="Y6" s="200"/>
+      <c r="Z6" s="200"/>
+      <c r="AA6" s="200"/>
+      <c r="AB6" s="200"/>
+      <c r="AC6" s="200"/>
+      <c r="AD6" s="200"/>
+      <c r="AE6" s="200"/>
+      <c r="AF6" s="200"/>
+      <c r="AG6" s="200"/>
+      <c r="AH6" s="200"/>
+      <c r="AI6" s="200"/>
+      <c r="AJ6" s="200"/>
+      <c r="AK6" s="200"/>
+      <c r="AL6" s="200"/>
+      <c r="AM6" s="200"/>
+      <c r="AN6" s="200"/>
+      <c r="AO6" s="200"/>
+      <c r="AP6" s="200"/>
+      <c r="AQ6" s="200"/>
+      <c r="AR6" s="200"/>
+      <c r="AS6" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" spans="1:45">
+      <c r="A7" s="199"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="200"/>
+      <c r="AI7" s="200"/>
+      <c r="AJ7" s="200"/>
+      <c r="AK7" s="200"/>
+      <c r="AL7" s="200"/>
+      <c r="AM7" s="200"/>
+      <c r="AN7" s="200"/>
+      <c r="AO7" s="200"/>
+      <c r="AP7" s="200"/>
+      <c r="AQ7" s="200"/>
+      <c r="AR7" s="200"/>
+      <c r="AS7" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" spans="1:45">
+      <c r="A8" s="199"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="200"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="200"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="200"/>
+      <c r="AQ8" s="200"/>
+      <c r="AR8" s="200"/>
+      <c r="AS8" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" spans="1:45">
+      <c r="A9" s="199"/>
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="200"/>
+      <c r="L9" s="200"/>
+      <c r="M9" s="200"/>
+      <c r="N9" s="200"/>
+      <c r="O9" s="200"/>
+      <c r="P9" s="200"/>
+      <c r="Q9" s="200"/>
+      <c r="R9" s="200"/>
+      <c r="S9" s="200"/>
+      <c r="T9" s="200"/>
+      <c r="U9" s="200"/>
+      <c r="V9" s="200"/>
+      <c r="W9" s="200"/>
+      <c r="X9" s="200"/>
+      <c r="Y9" s="200"/>
+      <c r="Z9" s="200"/>
+      <c r="AA9" s="200"/>
+      <c r="AB9" s="200"/>
+      <c r="AC9" s="200"/>
+      <c r="AD9" s="200"/>
+      <c r="AE9" s="200"/>
+      <c r="AF9" s="200"/>
+      <c r="AG9" s="200"/>
+      <c r="AH9" s="200"/>
+      <c r="AI9" s="200"/>
+      <c r="AJ9" s="200"/>
+      <c r="AK9" s="200"/>
+      <c r="AL9" s="200"/>
+      <c r="AM9" s="200"/>
+      <c r="AN9" s="200"/>
+      <c r="AO9" s="200"/>
+      <c r="AP9" s="200"/>
+      <c r="AQ9" s="200"/>
+      <c r="AR9" s="200"/>
+      <c r="AS9" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" spans="1:45">
+      <c r="A10" s="199"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
+      <c r="L10" s="200"/>
+      <c r="M10" s="200"/>
+      <c r="N10" s="200"/>
+      <c r="O10" s="200"/>
+      <c r="P10" s="200"/>
+      <c r="Q10" s="200"/>
+      <c r="R10" s="200"/>
+      <c r="S10" s="200"/>
+      <c r="T10" s="200"/>
+      <c r="U10" s="200"/>
+      <c r="V10" s="200"/>
+      <c r="W10" s="200"/>
+      <c r="X10" s="200"/>
+      <c r="Y10" s="200"/>
+      <c r="Z10" s="200"/>
+      <c r="AA10" s="200"/>
+      <c r="AB10" s="200"/>
+      <c r="AC10" s="200"/>
+      <c r="AD10" s="200"/>
+      <c r="AE10" s="200"/>
+      <c r="AF10" s="200"/>
+      <c r="AG10" s="200"/>
+      <c r="AH10" s="200"/>
+      <c r="AI10" s="200"/>
+      <c r="AJ10" s="200"/>
+      <c r="AK10" s="200"/>
+      <c r="AL10" s="200"/>
+      <c r="AM10" s="200"/>
+      <c r="AN10" s="200"/>
+      <c r="AO10" s="200"/>
+      <c r="AP10" s="200"/>
+      <c r="AQ10" s="200"/>
+      <c r="AR10" s="200"/>
+      <c r="AS10" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" spans="1:45">
+      <c r="A11" s="199"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
+      <c r="L11" s="200"/>
+      <c r="M11" s="200"/>
+      <c r="N11" s="200"/>
+      <c r="O11" s="200"/>
+      <c r="P11" s="200"/>
+      <c r="Q11" s="200"/>
+      <c r="R11" s="200"/>
+      <c r="S11" s="200"/>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="200"/>
+      <c r="X11" s="200"/>
+      <c r="Y11" s="200"/>
+      <c r="Z11" s="200"/>
+      <c r="AA11" s="200"/>
+      <c r="AB11" s="200"/>
+      <c r="AC11" s="200"/>
+      <c r="AD11" s="200"/>
+      <c r="AE11" s="200"/>
+      <c r="AF11" s="200"/>
+      <c r="AG11" s="200"/>
+      <c r="AH11" s="200"/>
+      <c r="AI11" s="200"/>
+      <c r="AJ11" s="200"/>
+      <c r="AK11" s="200"/>
+      <c r="AL11" s="200"/>
+      <c r="AM11" s="200"/>
+      <c r="AN11" s="200"/>
+      <c r="AO11" s="200"/>
+      <c r="AP11" s="200"/>
+      <c r="AQ11" s="200"/>
+      <c r="AR11" s="200"/>
+      <c r="AS11" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" spans="1:45">
+      <c r="A12" s="199"/>
+      <c r="B12" s="200"/>
+      <c r="C12" s="200"/>
+      <c r="D12" s="200"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="200"/>
+      <c r="L12" s="200"/>
+      <c r="M12" s="200"/>
+      <c r="N12" s="200"/>
+      <c r="O12" s="200"/>
+      <c r="P12" s="200"/>
+      <c r="Q12" s="200"/>
+      <c r="R12" s="200"/>
+      <c r="S12" s="200"/>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="200"/>
+      <c r="X12" s="200"/>
+      <c r="Y12" s="200"/>
+      <c r="Z12" s="200"/>
+      <c r="AA12" s="200"/>
+      <c r="AB12" s="200"/>
+      <c r="AC12" s="200"/>
+      <c r="AD12" s="200"/>
+      <c r="AE12" s="200"/>
+      <c r="AF12" s="200"/>
+      <c r="AG12" s="200"/>
+      <c r="AH12" s="200"/>
+      <c r="AI12" s="200"/>
+      <c r="AJ12" s="200"/>
+      <c r="AK12" s="200"/>
+      <c r="AL12" s="200"/>
+      <c r="AM12" s="200"/>
+      <c r="AN12" s="200"/>
+      <c r="AO12" s="200"/>
+      <c r="AP12" s="200"/>
+      <c r="AQ12" s="200"/>
+      <c r="AR12" s="200"/>
+      <c r="AS12" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="13" spans="1:45">
+      <c r="A13" s="199"/>
+      <c r="B13" s="200"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
+      <c r="L13" s="200"/>
+      <c r="M13" s="200"/>
+      <c r="N13" s="200"/>
+      <c r="O13" s="200"/>
+      <c r="P13" s="200"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="200"/>
+      <c r="X13" s="200"/>
+      <c r="Y13" s="200"/>
+      <c r="Z13" s="200"/>
+      <c r="AA13" s="200"/>
+      <c r="AB13" s="200"/>
+      <c r="AC13" s="200"/>
+      <c r="AD13" s="200"/>
+      <c r="AE13" s="200"/>
+      <c r="AF13" s="200"/>
+      <c r="AG13" s="200"/>
+      <c r="AH13" s="200"/>
+      <c r="AI13" s="200"/>
+      <c r="AJ13" s="200"/>
+      <c r="AK13" s="200"/>
+      <c r="AL13" s="200"/>
+      <c r="AM13" s="200"/>
+      <c r="AN13" s="200"/>
+      <c r="AO13" s="200"/>
+      <c r="AP13" s="200"/>
+      <c r="AQ13" s="200"/>
+      <c r="AR13" s="200"/>
+      <c r="AS13" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="14" spans="1:45">
+      <c r="A14" s="199"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="200"/>
+      <c r="N14" s="200"/>
+      <c r="O14" s="200"/>
+      <c r="P14" s="200"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="200"/>
+      <c r="X14" s="200"/>
+      <c r="Y14" s="200"/>
+      <c r="Z14" s="200"/>
+      <c r="AA14" s="200"/>
+      <c r="AB14" s="200"/>
+      <c r="AC14" s="200"/>
+      <c r="AD14" s="200"/>
+      <c r="AE14" s="200"/>
+      <c r="AF14" s="200"/>
+      <c r="AG14" s="200"/>
+      <c r="AH14" s="200"/>
+      <c r="AI14" s="200"/>
+      <c r="AJ14" s="200"/>
+      <c r="AK14" s="200"/>
+      <c r="AL14" s="200"/>
+      <c r="AM14" s="200"/>
+      <c r="AN14" s="200"/>
+      <c r="AO14" s="200"/>
+      <c r="AP14" s="200"/>
+      <c r="AQ14" s="200"/>
+      <c r="AR14" s="200"/>
+      <c r="AS14" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" spans="1:45">
+      <c r="A15" s="199"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
+      <c r="L15" s="200"/>
+      <c r="M15" s="200"/>
+      <c r="N15" s="200"/>
+      <c r="O15" s="200"/>
+      <c r="P15" s="200"/>
+      <c r="Q15" s="200"/>
+      <c r="R15" s="200"/>
+      <c r="S15" s="200"/>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="200"/>
+      <c r="X15" s="200"/>
+      <c r="Y15" s="200"/>
+      <c r="Z15" s="200"/>
+      <c r="AA15" s="200"/>
+      <c r="AB15" s="200"/>
+      <c r="AC15" s="200"/>
+      <c r="AD15" s="200"/>
+      <c r="AE15" s="200"/>
+      <c r="AF15" s="200"/>
+      <c r="AG15" s="200"/>
+      <c r="AH15" s="200"/>
+      <c r="AI15" s="200"/>
+      <c r="AJ15" s="200"/>
+      <c r="AK15" s="200"/>
+      <c r="AL15" s="200"/>
+      <c r="AM15" s="200"/>
+      <c r="AN15" s="200"/>
+      <c r="AO15" s="200"/>
+      <c r="AP15" s="200"/>
+      <c r="AQ15" s="200"/>
+      <c r="AR15" s="200"/>
+      <c r="AS15" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" spans="1:45">
+      <c r="A16" s="199"/>
+      <c r="B16" s="200"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
+      <c r="L16" s="200"/>
+      <c r="M16" s="200"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="200"/>
+      <c r="P16" s="200"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="200"/>
+      <c r="S16" s="200"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="200"/>
+      <c r="X16" s="200"/>
+      <c r="Y16" s="200"/>
+      <c r="Z16" s="200"/>
+      <c r="AA16" s="200"/>
+      <c r="AB16" s="200"/>
+      <c r="AC16" s="200"/>
+      <c r="AD16" s="200"/>
+      <c r="AE16" s="200"/>
+      <c r="AF16" s="200"/>
+      <c r="AG16" s="200"/>
+      <c r="AH16" s="200"/>
+      <c r="AI16" s="200"/>
+      <c r="AJ16" s="200"/>
+      <c r="AK16" s="200"/>
+      <c r="AL16" s="200"/>
+      <c r="AM16" s="200"/>
+      <c r="AN16" s="200"/>
+      <c r="AO16" s="200"/>
+      <c r="AP16" s="200"/>
+      <c r="AQ16" s="200"/>
+      <c r="AR16" s="200"/>
+      <c r="AS16" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" spans="1:45">
+      <c r="A17" s="199"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="200"/>
+      <c r="O17" s="200"/>
+      <c r="P17" s="200"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
+      <c r="S17" s="200"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="200"/>
+      <c r="X17" s="200"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="200"/>
+      <c r="AA17" s="200"/>
+      <c r="AB17" s="200"/>
+      <c r="AC17" s="200"/>
+      <c r="AD17" s="200"/>
+      <c r="AE17" s="200"/>
+      <c r="AF17" s="200"/>
+      <c r="AG17" s="200"/>
+      <c r="AH17" s="200"/>
+      <c r="AI17" s="200"/>
+      <c r="AJ17" s="200"/>
+      <c r="AK17" s="200"/>
+      <c r="AL17" s="200"/>
+      <c r="AM17" s="200"/>
+      <c r="AN17" s="200"/>
+      <c r="AO17" s="200"/>
+      <c r="AP17" s="200"/>
+      <c r="AQ17" s="200"/>
+      <c r="AR17" s="200"/>
+      <c r="AS17" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" spans="1:45">
+      <c r="A18" s="199"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="200"/>
+      <c r="R18" s="200"/>
+      <c r="S18" s="200"/>
+      <c r="T18" s="200"/>
+      <c r="U18" s="200"/>
+      <c r="V18" s="200"/>
+      <c r="W18" s="200"/>
+      <c r="X18" s="200"/>
+      <c r="Y18" s="200"/>
+      <c r="Z18" s="200"/>
+      <c r="AA18" s="200"/>
+      <c r="AB18" s="200"/>
+      <c r="AC18" s="200"/>
+      <c r="AD18" s="200"/>
+      <c r="AE18" s="200"/>
+      <c r="AF18" s="200"/>
+      <c r="AG18" s="200"/>
+      <c r="AH18" s="200"/>
+      <c r="AI18" s="200"/>
+      <c r="AJ18" s="200"/>
+      <c r="AK18" s="200"/>
+      <c r="AL18" s="200"/>
+      <c r="AM18" s="200"/>
+      <c r="AN18" s="200"/>
+      <c r="AO18" s="200"/>
+      <c r="AP18" s="200"/>
+      <c r="AQ18" s="200"/>
+      <c r="AR18" s="200"/>
+      <c r="AS18" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" spans="1:45">
+      <c r="A19" s="199"/>
+      <c r="B19" s="200"/>
+      <c r="C19" s="200"/>
+      <c r="D19" s="200"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="200"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="200"/>
+      <c r="O19" s="200"/>
+      <c r="P19" s="200"/>
+      <c r="Q19" s="200"/>
+      <c r="R19" s="200"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="200"/>
+      <c r="U19" s="200"/>
+      <c r="V19" s="200"/>
+      <c r="W19" s="200"/>
+      <c r="X19" s="200"/>
+      <c r="Y19" s="200"/>
+      <c r="Z19" s="200"/>
+      <c r="AA19" s="200"/>
+      <c r="AB19" s="200"/>
+      <c r="AC19" s="200"/>
+      <c r="AD19" s="200"/>
+      <c r="AE19" s="200"/>
+      <c r="AF19" s="200"/>
+      <c r="AG19" s="200"/>
+      <c r="AH19" s="200"/>
+      <c r="AI19" s="200"/>
+      <c r="AJ19" s="200"/>
+      <c r="AK19" s="200"/>
+      <c r="AL19" s="200"/>
+      <c r="AM19" s="200"/>
+      <c r="AN19" s="200"/>
+      <c r="AO19" s="200"/>
+      <c r="AP19" s="200"/>
+      <c r="AQ19" s="200"/>
+      <c r="AR19" s="200"/>
+      <c r="AS19" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" spans="1:45">
+      <c r="A20" s="199"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="200"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="200"/>
+      <c r="W20" s="200"/>
+      <c r="X20" s="200"/>
+      <c r="Y20" s="200"/>
+      <c r="Z20" s="200"/>
+      <c r="AA20" s="200"/>
+      <c r="AB20" s="200"/>
+      <c r="AC20" s="200"/>
+      <c r="AD20" s="200"/>
+      <c r="AE20" s="200"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="200"/>
+      <c r="AH20" s="200"/>
+      <c r="AI20" s="200"/>
+      <c r="AJ20" s="200"/>
+      <c r="AK20" s="200"/>
+      <c r="AL20" s="200"/>
+      <c r="AM20" s="200"/>
+      <c r="AN20" s="200"/>
+      <c r="AO20" s="200"/>
+      <c r="AP20" s="200"/>
+      <c r="AQ20" s="200"/>
+      <c r="AR20" s="200"/>
+      <c r="AS20" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" spans="1:45">
+      <c r="A21" s="199"/>
+      <c r="B21" s="200"/>
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="200"/>
+      <c r="L21" s="200"/>
+      <c r="M21" s="200"/>
+      <c r="N21" s="200"/>
+      <c r="O21" s="200"/>
+      <c r="P21" s="200"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200"/>
+      <c r="U21" s="200"/>
+      <c r="V21" s="200"/>
+      <c r="W21" s="200"/>
+      <c r="X21" s="200"/>
+      <c r="Y21" s="200"/>
+      <c r="Z21" s="200"/>
+      <c r="AA21" s="200"/>
+      <c r="AB21" s="200"/>
+      <c r="AC21" s="200"/>
+      <c r="AD21" s="200"/>
+      <c r="AE21" s="200"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="200"/>
+      <c r="AH21" s="200"/>
+      <c r="AI21" s="200"/>
+      <c r="AJ21" s="200"/>
+      <c r="AK21" s="200"/>
+      <c r="AL21" s="200"/>
+      <c r="AM21" s="200"/>
+      <c r="AN21" s="200"/>
+      <c r="AO21" s="200"/>
+      <c r="AP21" s="200"/>
+      <c r="AQ21" s="200"/>
+      <c r="AR21" s="200"/>
+      <c r="AS21" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="22" spans="1:45">
+      <c r="A22" s="199"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="200"/>
+      <c r="M22" s="200"/>
+      <c r="N22" s="200"/>
+      <c r="O22" s="200"/>
+      <c r="P22" s="200"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200"/>
+      <c r="U22" s="200"/>
+      <c r="V22" s="200"/>
+      <c r="W22" s="200"/>
+      <c r="X22" s="200"/>
+      <c r="Y22" s="200"/>
+      <c r="Z22" s="200"/>
+      <c r="AA22" s="200"/>
+      <c r="AB22" s="200"/>
+      <c r="AC22" s="200"/>
+      <c r="AD22" s="200"/>
+      <c r="AE22" s="200"/>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="200"/>
+      <c r="AH22" s="200"/>
+      <c r="AI22" s="200"/>
+      <c r="AJ22" s="200"/>
+      <c r="AK22" s="200"/>
+      <c r="AL22" s="200"/>
+      <c r="AM22" s="200"/>
+      <c r="AN22" s="200"/>
+      <c r="AO22" s="200"/>
+      <c r="AP22" s="200"/>
+      <c r="AQ22" s="200"/>
+      <c r="AR22" s="200"/>
+      <c r="AS22" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" spans="1:45">
+      <c r="A23" s="199"/>
+      <c r="B23" s="200"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="200"/>
+      <c r="L23" s="200"/>
+      <c r="M23" s="200"/>
+      <c r="N23" s="200"/>
+      <c r="O23" s="200"/>
+      <c r="P23" s="200"/>
+      <c r="Q23" s="200"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200"/>
+      <c r="U23" s="200"/>
+      <c r="V23" s="200"/>
+      <c r="W23" s="200"/>
+      <c r="X23" s="200"/>
+      <c r="Y23" s="200"/>
+      <c r="Z23" s="200"/>
+      <c r="AA23" s="200"/>
+      <c r="AB23" s="200"/>
+      <c r="AC23" s="200"/>
+      <c r="AD23" s="200"/>
+      <c r="AE23" s="200"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="200"/>
+      <c r="AH23" s="200"/>
+      <c r="AI23" s="200"/>
+      <c r="AJ23" s="200"/>
+      <c r="AK23" s="200"/>
+      <c r="AL23" s="200"/>
+      <c r="AM23" s="200"/>
+      <c r="AN23" s="200"/>
+      <c r="AO23" s="200"/>
+      <c r="AP23" s="200"/>
+      <c r="AQ23" s="200"/>
+      <c r="AR23" s="200"/>
+      <c r="AS23" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="24" spans="1:45">
+      <c r="A24" s="199"/>
+      <c r="B24" s="200"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="200"/>
+      <c r="L24" s="200"/>
+      <c r="M24" s="200"/>
+      <c r="N24" s="200"/>
+      <c r="O24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200"/>
+      <c r="U24" s="200"/>
+      <c r="V24" s="200"/>
+      <c r="W24" s="200"/>
+      <c r="X24" s="200"/>
+      <c r="Y24" s="200"/>
+      <c r="Z24" s="200"/>
+      <c r="AA24" s="200"/>
+      <c r="AB24" s="200"/>
+      <c r="AC24" s="200"/>
+      <c r="AD24" s="200"/>
+      <c r="AE24" s="200"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="200"/>
+      <c r="AH24" s="200"/>
+      <c r="AI24" s="200"/>
+      <c r="AJ24" s="200"/>
+      <c r="AK24" s="200"/>
+      <c r="AL24" s="200"/>
+      <c r="AM24" s="200"/>
+      <c r="AN24" s="200"/>
+      <c r="AO24" s="200"/>
+      <c r="AP24" s="200"/>
+      <c r="AQ24" s="200"/>
+      <c r="AR24" s="200"/>
+      <c r="AS24" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="25" spans="1:45">
+      <c r="A25" s="199"/>
+      <c r="B25" s="200"/>
+      <c r="C25" s="200"/>
+      <c r="D25" s="200"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="200"/>
+      <c r="L25" s="200"/>
+      <c r="M25" s="200"/>
+      <c r="N25" s="200"/>
+      <c r="O25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="200"/>
+      <c r="R25" s="200"/>
+      <c r="S25" s="200"/>
+      <c r="T25" s="200"/>
+      <c r="U25" s="200"/>
+      <c r="V25" s="200"/>
+      <c r="W25" s="200"/>
+      <c r="X25" s="200"/>
+      <c r="Y25" s="200"/>
+      <c r="Z25" s="200"/>
+      <c r="AA25" s="200"/>
+      <c r="AB25" s="200"/>
+      <c r="AC25" s="200"/>
+      <c r="AD25" s="200"/>
+      <c r="AE25" s="200"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="200"/>
+      <c r="AH25" s="200"/>
+      <c r="AI25" s="200"/>
+      <c r="AJ25" s="200"/>
+      <c r="AK25" s="200"/>
+      <c r="AL25" s="200"/>
+      <c r="AM25" s="200"/>
+      <c r="AN25" s="200"/>
+      <c r="AO25" s="200"/>
+      <c r="AP25" s="200"/>
+      <c r="AQ25" s="200"/>
+      <c r="AR25" s="200"/>
+      <c r="AS25" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="26" spans="1:45">
+      <c r="A26" s="199"/>
+      <c r="B26" s="200"/>
+      <c r="C26" s="200"/>
+      <c r="D26" s="200"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="200"/>
+      <c r="M26" s="200"/>
+      <c r="N26" s="200"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="200"/>
+      <c r="R26" s="200"/>
+      <c r="S26" s="200"/>
+      <c r="T26" s="200"/>
+      <c r="U26" s="200"/>
+      <c r="V26" s="200"/>
+      <c r="W26" s="200"/>
+      <c r="X26" s="200"/>
+      <c r="Y26" s="200"/>
+      <c r="Z26" s="200"/>
+      <c r="AA26" s="200"/>
+      <c r="AB26" s="200"/>
+      <c r="AC26" s="200"/>
+      <c r="AD26" s="200"/>
+      <c r="AE26" s="200"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="200"/>
+      <c r="AH26" s="200"/>
+      <c r="AI26" s="200"/>
+      <c r="AJ26" s="200"/>
+      <c r="AK26" s="200"/>
+      <c r="AL26" s="200"/>
+      <c r="AM26" s="200"/>
+      <c r="AN26" s="200"/>
+      <c r="AO26" s="200"/>
+      <c r="AP26" s="200"/>
+      <c r="AQ26" s="200"/>
+      <c r="AR26" s="200"/>
+      <c r="AS26" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" spans="1:45">
+      <c r="A27" s="199"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="200"/>
+      <c r="E27" s="200"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="200"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="200"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="200"/>
+      <c r="L27" s="200"/>
+      <c r="M27" s="200"/>
+      <c r="N27" s="200"/>
+      <c r="O27" s="200"/>
+      <c r="P27" s="200"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="200"/>
+      <c r="T27" s="200"/>
+      <c r="U27" s="200"/>
+      <c r="V27" s="200"/>
+      <c r="W27" s="200"/>
+      <c r="X27" s="200"/>
+      <c r="Y27" s="200"/>
+      <c r="Z27" s="200"/>
+      <c r="AA27" s="200"/>
+      <c r="AB27" s="200"/>
+      <c r="AC27" s="200"/>
+      <c r="AD27" s="200"/>
+      <c r="AE27" s="200"/>
+      <c r="AF27" s="200"/>
+      <c r="AG27" s="200"/>
+      <c r="AH27" s="200"/>
+      <c r="AI27" s="200"/>
+      <c r="AJ27" s="200"/>
+      <c r="AK27" s="200"/>
+      <c r="AL27" s="200"/>
+      <c r="AM27" s="200"/>
+      <c r="AN27" s="200"/>
+      <c r="AO27" s="200"/>
+      <c r="AP27" s="200"/>
+      <c r="AQ27" s="200"/>
+      <c r="AR27" s="200"/>
+      <c r="AS27" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="28" spans="1:45">
+      <c r="A28" s="199"/>
+      <c r="B28" s="200"/>
+      <c r="C28" s="200"/>
+      <c r="D28" s="200"/>
+      <c r="E28" s="200"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="200"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="200"/>
+      <c r="L28" s="200"/>
+      <c r="M28" s="200"/>
+      <c r="N28" s="200"/>
+      <c r="O28" s="200"/>
+      <c r="P28" s="200"/>
+      <c r="Q28" s="200"/>
+      <c r="R28" s="200"/>
+      <c r="S28" s="200"/>
+      <c r="T28" s="200"/>
+      <c r="U28" s="200"/>
+      <c r="V28" s="200"/>
+      <c r="W28" s="200"/>
+      <c r="X28" s="200"/>
+      <c r="Y28" s="200"/>
+      <c r="Z28" s="200"/>
+      <c r="AA28" s="200"/>
+      <c r="AB28" s="200"/>
+      <c r="AC28" s="200"/>
+      <c r="AD28" s="200"/>
+      <c r="AE28" s="200"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="200"/>
+      <c r="AH28" s="200"/>
+      <c r="AI28" s="200"/>
+      <c r="AJ28" s="200"/>
+      <c r="AK28" s="200"/>
+      <c r="AL28" s="200"/>
+      <c r="AM28" s="200"/>
+      <c r="AN28" s="200"/>
+      <c r="AO28" s="200"/>
+      <c r="AP28" s="200"/>
+      <c r="AQ28" s="200"/>
+      <c r="AR28" s="200"/>
+      <c r="AS28" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="29" spans="1:45">
+      <c r="A29" s="199"/>
+      <c r="B29" s="200"/>
+      <c r="C29" s="200"/>
+      <c r="D29" s="200"/>
+      <c r="E29" s="200"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="200"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="200"/>
+      <c r="L29" s="200"/>
+      <c r="M29" s="200"/>
+      <c r="N29" s="200"/>
+      <c r="O29" s="200"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="200"/>
+      <c r="R29" s="200"/>
+      <c r="S29" s="200"/>
+      <c r="T29" s="200"/>
+      <c r="U29" s="200"/>
+      <c r="V29" s="200"/>
+      <c r="W29" s="200"/>
+      <c r="X29" s="200"/>
+      <c r="Y29" s="200"/>
+      <c r="Z29" s="200"/>
+      <c r="AA29" s="200"/>
+      <c r="AB29" s="200"/>
+      <c r="AC29" s="200"/>
+      <c r="AD29" s="200"/>
+      <c r="AE29" s="200"/>
+      <c r="AF29" s="200"/>
+      <c r="AG29" s="200"/>
+      <c r="AH29" s="200"/>
+      <c r="AI29" s="200"/>
+      <c r="AJ29" s="200"/>
+      <c r="AK29" s="200"/>
+      <c r="AL29" s="200"/>
+      <c r="AM29" s="200"/>
+      <c r="AN29" s="200"/>
+      <c r="AO29" s="200"/>
+      <c r="AP29" s="200"/>
+      <c r="AQ29" s="200"/>
+      <c r="AR29" s="200"/>
+      <c r="AS29" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="30" spans="1:45">
+      <c r="A30" s="199"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="200"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="200"/>
+      <c r="L30" s="200"/>
+      <c r="M30" s="200"/>
+      <c r="N30" s="200"/>
+      <c r="O30" s="200"/>
+      <c r="P30" s="200"/>
+      <c r="Q30" s="200"/>
+      <c r="R30" s="200"/>
+      <c r="S30" s="200"/>
+      <c r="T30" s="200"/>
+      <c r="U30" s="200"/>
+      <c r="V30" s="200"/>
+      <c r="W30" s="200"/>
+      <c r="X30" s="200"/>
+      <c r="Y30" s="200"/>
+      <c r="Z30" s="200"/>
+      <c r="AA30" s="200"/>
+      <c r="AB30" s="200"/>
+      <c r="AC30" s="200"/>
+      <c r="AD30" s="200"/>
+      <c r="AE30" s="200"/>
+      <c r="AF30" s="200"/>
+      <c r="AG30" s="200"/>
+      <c r="AH30" s="200"/>
+      <c r="AI30" s="200"/>
+      <c r="AJ30" s="200"/>
+      <c r="AK30" s="200"/>
+      <c r="AL30" s="200"/>
+      <c r="AM30" s="200"/>
+      <c r="AN30" s="200"/>
+      <c r="AO30" s="200"/>
+      <c r="AP30" s="200"/>
+      <c r="AQ30" s="200"/>
+      <c r="AR30" s="200"/>
+      <c r="AS30" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="31" spans="1:45">
+      <c r="A31" s="199"/>
+      <c r="B31" s="200"/>
+      <c r="C31" s="200"/>
+      <c r="D31" s="200"/>
+      <c r="E31" s="200"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="200"/>
+      <c r="L31" s="200"/>
+      <c r="M31" s="200"/>
+      <c r="N31" s="200"/>
+      <c r="O31" s="200"/>
+      <c r="P31" s="200"/>
+      <c r="Q31" s="200"/>
+      <c r="R31" s="200"/>
+      <c r="S31" s="200"/>
+      <c r="T31" s="200"/>
+      <c r="U31" s="200"/>
+      <c r="V31" s="200"/>
+      <c r="W31" s="200"/>
+      <c r="X31" s="200"/>
+      <c r="Y31" s="200"/>
+      <c r="Z31" s="200"/>
+      <c r="AA31" s="200"/>
+      <c r="AB31" s="200"/>
+      <c r="AC31" s="200"/>
+      <c r="AD31" s="200"/>
+      <c r="AE31" s="200"/>
+      <c r="AF31" s="200"/>
+      <c r="AG31" s="200"/>
+      <c r="AH31" s="200"/>
+      <c r="AI31" s="200"/>
+      <c r="AJ31" s="200"/>
+      <c r="AK31" s="200"/>
+      <c r="AL31" s="200"/>
+      <c r="AM31" s="200"/>
+      <c r="AN31" s="200"/>
+      <c r="AO31" s="200"/>
+      <c r="AP31" s="200"/>
+      <c r="AQ31" s="200"/>
+      <c r="AR31" s="200"/>
+      <c r="AS31" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="32" spans="1:45">
+      <c r="A32" s="199"/>
+      <c r="B32" s="200"/>
+      <c r="C32" s="200"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="200"/>
+      <c r="L32" s="200"/>
+      <c r="M32" s="200"/>
+      <c r="N32" s="200"/>
+      <c r="O32" s="200"/>
+      <c r="P32" s="200"/>
+      <c r="Q32" s="200"/>
+      <c r="R32" s="200"/>
+      <c r="S32" s="200"/>
+      <c r="T32" s="200"/>
+      <c r="U32" s="200"/>
+      <c r="V32" s="200"/>
+      <c r="W32" s="200"/>
+      <c r="X32" s="200"/>
+      <c r="Y32" s="200"/>
+      <c r="Z32" s="200"/>
+      <c r="AA32" s="200"/>
+      <c r="AB32" s="200"/>
+      <c r="AC32" s="200"/>
+      <c r="AD32" s="200"/>
+      <c r="AE32" s="200"/>
+      <c r="AF32" s="200"/>
+      <c r="AG32" s="200"/>
+      <c r="AH32" s="200"/>
+      <c r="AI32" s="200"/>
+      <c r="AJ32" s="200"/>
+      <c r="AK32" s="200"/>
+      <c r="AL32" s="200"/>
+      <c r="AM32" s="200"/>
+      <c r="AN32" s="200"/>
+      <c r="AO32" s="200"/>
+      <c r="AP32" s="200"/>
+      <c r="AQ32" s="200"/>
+      <c r="AR32" s="200"/>
+      <c r="AS32" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" spans="1:45">
+      <c r="A33" s="199"/>
+      <c r="B33" s="200"/>
+      <c r="C33" s="200"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="200"/>
+      <c r="L33" s="200"/>
+      <c r="M33" s="200"/>
+      <c r="N33" s="200"/>
+      <c r="O33" s="200"/>
+      <c r="P33" s="200"/>
+      <c r="Q33" s="200"/>
+      <c r="R33" s="200"/>
+      <c r="S33" s="200"/>
+      <c r="T33" s="200"/>
+      <c r="U33" s="200"/>
+      <c r="V33" s="200"/>
+      <c r="W33" s="200"/>
+      <c r="X33" s="200"/>
+      <c r="Y33" s="200"/>
+      <c r="Z33" s="200"/>
+      <c r="AA33" s="200"/>
+      <c r="AB33" s="200"/>
+      <c r="AC33" s="200"/>
+      <c r="AD33" s="200"/>
+      <c r="AE33" s="200"/>
+      <c r="AF33" s="200"/>
+      <c r="AG33" s="200"/>
+      <c r="AH33" s="200"/>
+      <c r="AI33" s="200"/>
+      <c r="AJ33" s="200"/>
+      <c r="AK33" s="200"/>
+      <c r="AL33" s="200"/>
+      <c r="AM33" s="200"/>
+      <c r="AN33" s="200"/>
+      <c r="AO33" s="200"/>
+      <c r="AP33" s="200"/>
+      <c r="AQ33" s="200"/>
+      <c r="AR33" s="200"/>
+      <c r="AS33" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="34" spans="1:45">
+      <c r="A34" s="199"/>
+      <c r="B34" s="200"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="200"/>
+      <c r="L34" s="200"/>
+      <c r="M34" s="200"/>
+      <c r="N34" s="200"/>
+      <c r="O34" s="200"/>
+      <c r="P34" s="200"/>
+      <c r="Q34" s="200"/>
+      <c r="R34" s="200"/>
+      <c r="S34" s="200"/>
+      <c r="T34" s="200"/>
+      <c r="U34" s="200"/>
+      <c r="V34" s="200"/>
+      <c r="W34" s="200"/>
+      <c r="X34" s="200"/>
+      <c r="Y34" s="200"/>
+      <c r="Z34" s="200"/>
+      <c r="AA34" s="200"/>
+      <c r="AB34" s="200"/>
+      <c r="AC34" s="200"/>
+      <c r="AD34" s="200"/>
+      <c r="AE34" s="200"/>
+      <c r="AF34" s="200"/>
+      <c r="AG34" s="200"/>
+      <c r="AH34" s="200"/>
+      <c r="AI34" s="200"/>
+      <c r="AJ34" s="200"/>
+      <c r="AK34" s="200"/>
+      <c r="AL34" s="200"/>
+      <c r="AM34" s="200"/>
+      <c r="AN34" s="200"/>
+      <c r="AO34" s="200"/>
+      <c r="AP34" s="200"/>
+      <c r="AQ34" s="200"/>
+      <c r="AR34" s="200"/>
+      <c r="AS34" s="201"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="35" spans="1:45">
+      <c r="A35" s="202"/>
+      <c r="B35" s="203"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="203"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="203"/>
+      <c r="L35" s="203"/>
+      <c r="M35" s="203"/>
+      <c r="N35" s="203"/>
+      <c r="O35" s="203"/>
+      <c r="P35" s="203"/>
+      <c r="Q35" s="203"/>
+      <c r="R35" s="203"/>
+      <c r="S35" s="203"/>
+      <c r="T35" s="203"/>
+      <c r="U35" s="203"/>
+      <c r="V35" s="203"/>
+      <c r="W35" s="203"/>
+      <c r="X35" s="203"/>
+      <c r="Y35" s="203"/>
+      <c r="Z35" s="203"/>
+      <c r="AA35" s="203"/>
+      <c r="AB35" s="203"/>
+      <c r="AC35" s="203"/>
+      <c r="AD35" s="203"/>
+      <c r="AE35" s="203"/>
+      <c r="AF35" s="203"/>
+      <c r="AG35" s="203"/>
+      <c r="AH35" s="203"/>
+      <c r="AI35" s="203"/>
+      <c r="AJ35" s="203"/>
+      <c r="AK35" s="203"/>
+      <c r="AL35" s="203"/>
+      <c r="AM35" s="203"/>
+      <c r="AN35" s="203"/>
+      <c r="AO35" s="203"/>
+      <c r="AP35" s="203"/>
+      <c r="AQ35" s="203"/>
+      <c r="AR35" s="203"/>
+      <c r="AS35" s="204"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="36" spans="1:45">
+      <c r="A36" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="168"/>
-      <c r="N36" s="168"/>
-      <c r="O36" s="168"/>
-      <c r="P36" s="168"/>
-      <c r="Q36" s="168"/>
-      <c r="R36" s="168"/>
-      <c r="S36" s="168"/>
-      <c r="T36" s="168"/>
-      <c r="U36" s="168"/>
-      <c r="V36" s="168"/>
-      <c r="W36" s="168"/>
-      <c r="X36" s="168"/>
-      <c r="Y36" s="168"/>
-      <c r="Z36" s="168"/>
-      <c r="AA36" s="168"/>
-      <c r="AB36" s="168"/>
-      <c r="AC36" s="168"/>
-      <c r="AD36" s="168"/>
-      <c r="AE36" s="168"/>
-      <c r="AF36" s="168"/>
-      <c r="AG36" s="168"/>
-      <c r="AH36" s="168"/>
-      <c r="AI36" s="168"/>
-      <c r="AJ36" s="168"/>
-      <c r="AK36" s="168"/>
-      <c r="AL36" s="168"/>
-      <c r="AM36" s="168"/>
-      <c r="AN36" s="168"/>
-      <c r="AO36" s="168"/>
-      <c r="AP36" s="168"/>
-      <c r="AQ36" s="168"/>
-      <c r="AR36" s="168"/>
-      <c r="AS36" s="168"/>
-    </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A37" s="163"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="163"/>
-      <c r="F37" s="163"/>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
-      <c r="J37" s="163"/>
-      <c r="K37" s="163"/>
-      <c r="L37" s="163"/>
-      <c r="M37" s="163"/>
-      <c r="N37" s="163"/>
-      <c r="O37" s="163"/>
-      <c r="P37" s="163"/>
-      <c r="Q37" s="163"/>
-      <c r="R37" s="163"/>
-      <c r="S37" s="163"/>
-      <c r="T37" s="163"/>
-      <c r="U37" s="163"/>
-      <c r="V37" s="163"/>
-      <c r="W37" s="163"/>
-      <c r="X37" s="163"/>
-      <c r="Y37" s="163"/>
-      <c r="Z37" s="163"/>
-      <c r="AA37" s="163"/>
-      <c r="AB37" s="163"/>
-      <c r="AC37" s="163"/>
-      <c r="AD37" s="163"/>
-      <c r="AE37" s="163"/>
-      <c r="AF37" s="163"/>
-      <c r="AG37" s="163"/>
-      <c r="AH37" s="163"/>
-      <c r="AI37" s="163"/>
-      <c r="AJ37" s="163"/>
-      <c r="AK37" s="163"/>
-      <c r="AL37" s="163"/>
-      <c r="AM37" s="163"/>
-      <c r="AN37" s="163"/>
-      <c r="AO37" s="163"/>
-      <c r="AP37" s="163"/>
-      <c r="AQ37" s="163"/>
-      <c r="AR37" s="163"/>
-      <c r="AS37" s="163"/>
-    </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A38" s="163"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="163"/>
-      <c r="K38" s="163"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="163"/>
-      <c r="O38" s="163"/>
-      <c r="P38" s="163"/>
-      <c r="Q38" s="163"/>
-      <c r="R38" s="163"/>
-      <c r="S38" s="163"/>
-      <c r="T38" s="163"/>
-      <c r="U38" s="163"/>
-      <c r="V38" s="163"/>
-      <c r="W38" s="163"/>
-      <c r="X38" s="163"/>
-      <c r="Y38" s="163"/>
-      <c r="Z38" s="163"/>
-      <c r="AA38" s="163"/>
-      <c r="AB38" s="163"/>
-      <c r="AC38" s="163"/>
-      <c r="AD38" s="163"/>
-      <c r="AE38" s="163"/>
-      <c r="AF38" s="163"/>
-      <c r="AG38" s="163"/>
-      <c r="AH38" s="163"/>
-      <c r="AI38" s="163"/>
-      <c r="AJ38" s="163"/>
-      <c r="AK38" s="163"/>
-      <c r="AL38" s="163"/>
-      <c r="AM38" s="163"/>
-      <c r="AN38" s="163"/>
-      <c r="AO38" s="163"/>
-      <c r="AP38" s="163"/>
-      <c r="AQ38" s="163"/>
-      <c r="AR38" s="163"/>
-      <c r="AS38" s="163"/>
-    </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A39" s="163"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="163"/>
-      <c r="F39" s="163"/>
-      <c r="G39" s="163"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="163"/>
-      <c r="K39" s="163"/>
-      <c r="L39" s="163"/>
-      <c r="M39" s="163"/>
-      <c r="N39" s="163"/>
-      <c r="O39" s="163"/>
-      <c r="P39" s="163"/>
-      <c r="Q39" s="163"/>
-      <c r="R39" s="163"/>
-      <c r="S39" s="163"/>
-      <c r="T39" s="163"/>
-      <c r="U39" s="163"/>
-      <c r="V39" s="163"/>
-      <c r="W39" s="163"/>
-      <c r="X39" s="163"/>
-      <c r="Y39" s="163"/>
-      <c r="Z39" s="163"/>
-      <c r="AA39" s="163"/>
-      <c r="AB39" s="163"/>
-      <c r="AC39" s="163"/>
-      <c r="AD39" s="163"/>
-      <c r="AE39" s="163"/>
-      <c r="AF39" s="163"/>
-      <c r="AG39" s="163"/>
-      <c r="AH39" s="163"/>
-      <c r="AI39" s="163"/>
-      <c r="AJ39" s="163"/>
-      <c r="AK39" s="163"/>
-      <c r="AL39" s="163"/>
-      <c r="AM39" s="163"/>
-      <c r="AN39" s="163"/>
-      <c r="AO39" s="163"/>
-      <c r="AP39" s="163"/>
-      <c r="AQ39" s="163"/>
-      <c r="AR39" s="163"/>
-      <c r="AS39" s="163"/>
-    </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A40" s="163"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="163"/>
-      <c r="G40" s="163"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="163"/>
-      <c r="J40" s="163"/>
-      <c r="K40" s="163"/>
-      <c r="L40" s="163"/>
-      <c r="M40" s="163"/>
-      <c r="N40" s="163"/>
-      <c r="O40" s="163"/>
-      <c r="P40" s="163"/>
-      <c r="Q40" s="163"/>
-      <c r="R40" s="163"/>
-      <c r="S40" s="163"/>
-      <c r="T40" s="163"/>
-      <c r="U40" s="163"/>
-      <c r="V40" s="163"/>
-      <c r="W40" s="163"/>
-      <c r="X40" s="163"/>
-      <c r="Y40" s="163"/>
-      <c r="Z40" s="163"/>
-      <c r="AA40" s="163"/>
-      <c r="AB40" s="163"/>
-      <c r="AC40" s="163"/>
-      <c r="AD40" s="163"/>
-      <c r="AE40" s="163"/>
-      <c r="AF40" s="163"/>
-      <c r="AG40" s="163"/>
-      <c r="AH40" s="163"/>
-      <c r="AI40" s="163"/>
-      <c r="AJ40" s="163"/>
-      <c r="AK40" s="163"/>
-      <c r="AL40" s="163"/>
-      <c r="AM40" s="163"/>
-      <c r="AN40" s="163"/>
-      <c r="AO40" s="163"/>
-      <c r="AP40" s="163"/>
-      <c r="AQ40" s="163"/>
-      <c r="AR40" s="163"/>
-      <c r="AS40" s="163"/>
-    </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A41" s="163"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="163"/>
-      <c r="F41" s="163"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="163"/>
-      <c r="J41" s="163"/>
-      <c r="K41" s="163"/>
-      <c r="L41" s="163"/>
-      <c r="M41" s="163"/>
-      <c r="N41" s="163"/>
-      <c r="O41" s="163"/>
-      <c r="P41" s="163"/>
-      <c r="Q41" s="163"/>
-      <c r="R41" s="163"/>
-      <c r="S41" s="163"/>
-      <c r="T41" s="163"/>
-      <c r="U41" s="163"/>
-      <c r="V41" s="163"/>
-      <c r="W41" s="163"/>
-      <c r="X41" s="163"/>
-      <c r="Y41" s="163"/>
-      <c r="Z41" s="163"/>
-      <c r="AA41" s="163"/>
-      <c r="AB41" s="163"/>
-      <c r="AC41" s="163"/>
-      <c r="AD41" s="163"/>
-      <c r="AE41" s="163"/>
-      <c r="AF41" s="163"/>
-      <c r="AG41" s="163"/>
-      <c r="AH41" s="163"/>
-      <c r="AI41" s="163"/>
-      <c r="AJ41" s="163"/>
-      <c r="AK41" s="163"/>
-      <c r="AL41" s="163"/>
-      <c r="AM41" s="163"/>
-      <c r="AN41" s="163"/>
-      <c r="AO41" s="163"/>
-      <c r="AP41" s="163"/>
-      <c r="AQ41" s="163"/>
-      <c r="AR41" s="163"/>
-      <c r="AS41" s="163"/>
-    </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A42" s="163"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="163"/>
-      <c r="F42" s="163"/>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="163"/>
-      <c r="L42" s="163"/>
-      <c r="M42" s="163"/>
-      <c r="N42" s="163"/>
-      <c r="O42" s="163"/>
-      <c r="P42" s="163"/>
-      <c r="Q42" s="163"/>
-      <c r="R42" s="163"/>
-      <c r="S42" s="163"/>
-      <c r="T42" s="163"/>
-      <c r="U42" s="163"/>
-      <c r="V42" s="163"/>
-      <c r="W42" s="163"/>
-      <c r="X42" s="163"/>
-      <c r="Y42" s="163"/>
-      <c r="Z42" s="163"/>
-      <c r="AA42" s="163"/>
-      <c r="AB42" s="163"/>
-      <c r="AC42" s="163"/>
-      <c r="AD42" s="163"/>
-      <c r="AE42" s="163"/>
-      <c r="AF42" s="163"/>
-      <c r="AG42" s="163"/>
-      <c r="AH42" s="163"/>
-      <c r="AI42" s="163"/>
-      <c r="AJ42" s="163"/>
-      <c r="AK42" s="163"/>
-      <c r="AL42" s="163"/>
-      <c r="AM42" s="163"/>
-      <c r="AN42" s="163"/>
-      <c r="AO42" s="163"/>
-      <c r="AP42" s="163"/>
-      <c r="AQ42" s="163"/>
-      <c r="AR42" s="163"/>
-      <c r="AS42" s="163"/>
-    </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1">
-      <c r="A43" s="163"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="163"/>
-      <c r="F43" s="163"/>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="163"/>
-      <c r="L43" s="163"/>
-      <c r="M43" s="163"/>
-      <c r="N43" s="163"/>
-      <c r="O43" s="163"/>
-      <c r="P43" s="163"/>
-      <c r="Q43" s="163"/>
-      <c r="R43" s="163"/>
-      <c r="S43" s="163"/>
-      <c r="T43" s="163"/>
-      <c r="U43" s="163"/>
-      <c r="V43" s="163"/>
-      <c r="W43" s="163"/>
-      <c r="X43" s="163"/>
-      <c r="Y43" s="163"/>
-      <c r="Z43" s="163"/>
-      <c r="AA43" s="163"/>
-      <c r="AB43" s="163"/>
-      <c r="AC43" s="163"/>
-      <c r="AD43" s="163"/>
-      <c r="AE43" s="163"/>
-      <c r="AF43" s="163"/>
-      <c r="AG43" s="163"/>
-      <c r="AH43" s="163"/>
-      <c r="AI43" s="163"/>
-      <c r="AJ43" s="163"/>
-      <c r="AK43" s="163"/>
-      <c r="AL43" s="163"/>
-      <c r="AM43" s="163"/>
-      <c r="AN43" s="163"/>
-      <c r="AO43" s="163"/>
-      <c r="AP43" s="163"/>
-      <c r="AQ43" s="163"/>
-      <c r="AR43" s="163"/>
-      <c r="AS43" s="163"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="195"/>
+      <c r="M36" s="195"/>
+      <c r="N36" s="195"/>
+      <c r="O36" s="195"/>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="195"/>
+      <c r="R36" s="195"/>
+      <c r="S36" s="195"/>
+      <c r="T36" s="195"/>
+      <c r="U36" s="195"/>
+      <c r="V36" s="195"/>
+      <c r="W36" s="195"/>
+      <c r="X36" s="195"/>
+      <c r="Y36" s="195"/>
+      <c r="Z36" s="195"/>
+      <c r="AA36" s="195"/>
+      <c r="AB36" s="195"/>
+      <c r="AC36" s="195"/>
+      <c r="AD36" s="195"/>
+      <c r="AE36" s="195"/>
+      <c r="AF36" s="195"/>
+      <c r="AG36" s="195"/>
+      <c r="AH36" s="195"/>
+      <c r="AI36" s="195"/>
+      <c r="AJ36" s="195"/>
+      <c r="AK36" s="195"/>
+      <c r="AL36" s="195"/>
+      <c r="AM36" s="195"/>
+      <c r="AN36" s="195"/>
+      <c r="AO36" s="195"/>
+      <c r="AP36" s="195"/>
+      <c r="AQ36" s="195"/>
+      <c r="AR36" s="195"/>
+      <c r="AS36" s="195"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="37" spans="1:45">
+      <c r="A37" s="194"/>
+      <c r="B37" s="194"/>
+      <c r="C37" s="194"/>
+      <c r="D37" s="194"/>
+      <c r="E37" s="194"/>
+      <c r="F37" s="194"/>
+      <c r="G37" s="194"/>
+      <c r="H37" s="194"/>
+      <c r="I37" s="194"/>
+      <c r="J37" s="194"/>
+      <c r="K37" s="194"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="194"/>
+      <c r="O37" s="194"/>
+      <c r="P37" s="194"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="194"/>
+      <c r="T37" s="194"/>
+      <c r="U37" s="194"/>
+      <c r="V37" s="194"/>
+      <c r="W37" s="194"/>
+      <c r="X37" s="194"/>
+      <c r="Y37" s="194"/>
+      <c r="Z37" s="194"/>
+      <c r="AA37" s="194"/>
+      <c r="AB37" s="194"/>
+      <c r="AC37" s="194"/>
+      <c r="AD37" s="194"/>
+      <c r="AE37" s="194"/>
+      <c r="AF37" s="194"/>
+      <c r="AG37" s="194"/>
+      <c r="AH37" s="194"/>
+      <c r="AI37" s="194"/>
+      <c r="AJ37" s="194"/>
+      <c r="AK37" s="194"/>
+      <c r="AL37" s="194"/>
+      <c r="AM37" s="194"/>
+      <c r="AN37" s="194"/>
+      <c r="AO37" s="194"/>
+      <c r="AP37" s="194"/>
+      <c r="AQ37" s="194"/>
+      <c r="AR37" s="194"/>
+      <c r="AS37" s="194"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="38" spans="1:45">
+      <c r="A38" s="194"/>
+      <c r="B38" s="194"/>
+      <c r="C38" s="194"/>
+      <c r="D38" s="194"/>
+      <c r="E38" s="194"/>
+      <c r="F38" s="194"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="194"/>
+      <c r="I38" s="194"/>
+      <c r="J38" s="194"/>
+      <c r="K38" s="194"/>
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="194"/>
+      <c r="O38" s="194"/>
+      <c r="P38" s="194"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="194"/>
+      <c r="S38" s="194"/>
+      <c r="T38" s="194"/>
+      <c r="U38" s="194"/>
+      <c r="V38" s="194"/>
+      <c r="W38" s="194"/>
+      <c r="X38" s="194"/>
+      <c r="Y38" s="194"/>
+      <c r="Z38" s="194"/>
+      <c r="AA38" s="194"/>
+      <c r="AB38" s="194"/>
+      <c r="AC38" s="194"/>
+      <c r="AD38" s="194"/>
+      <c r="AE38" s="194"/>
+      <c r="AF38" s="194"/>
+      <c r="AG38" s="194"/>
+      <c r="AH38" s="194"/>
+      <c r="AI38" s="194"/>
+      <c r="AJ38" s="194"/>
+      <c r="AK38" s="194"/>
+      <c r="AL38" s="194"/>
+      <c r="AM38" s="194"/>
+      <c r="AN38" s="194"/>
+      <c r="AO38" s="194"/>
+      <c r="AP38" s="194"/>
+      <c r="AQ38" s="194"/>
+      <c r="AR38" s="194"/>
+      <c r="AS38" s="194"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="39" spans="1:45">
+      <c r="A39" s="194"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="194"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="194"/>
+      <c r="G39" s="194"/>
+      <c r="H39" s="194"/>
+      <c r="I39" s="194"/>
+      <c r="J39" s="194"/>
+      <c r="K39" s="194"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="194"/>
+      <c r="O39" s="194"/>
+      <c r="P39" s="194"/>
+      <c r="Q39" s="194"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="194"/>
+      <c r="T39" s="194"/>
+      <c r="U39" s="194"/>
+      <c r="V39" s="194"/>
+      <c r="W39" s="194"/>
+      <c r="X39" s="194"/>
+      <c r="Y39" s="194"/>
+      <c r="Z39" s="194"/>
+      <c r="AA39" s="194"/>
+      <c r="AB39" s="194"/>
+      <c r="AC39" s="194"/>
+      <c r="AD39" s="194"/>
+      <c r="AE39" s="194"/>
+      <c r="AF39" s="194"/>
+      <c r="AG39" s="194"/>
+      <c r="AH39" s="194"/>
+      <c r="AI39" s="194"/>
+      <c r="AJ39" s="194"/>
+      <c r="AK39" s="194"/>
+      <c r="AL39" s="194"/>
+      <c r="AM39" s="194"/>
+      <c r="AN39" s="194"/>
+      <c r="AO39" s="194"/>
+      <c r="AP39" s="194"/>
+      <c r="AQ39" s="194"/>
+      <c r="AR39" s="194"/>
+      <c r="AS39" s="194"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="40" spans="1:45">
+      <c r="A40" s="194"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
+      <c r="I40" s="194"/>
+      <c r="J40" s="194"/>
+      <c r="K40" s="194"/>
+      <c r="L40" s="194"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="194"/>
+      <c r="O40" s="194"/>
+      <c r="P40" s="194"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="194"/>
+      <c r="S40" s="194"/>
+      <c r="T40" s="194"/>
+      <c r="U40" s="194"/>
+      <c r="V40" s="194"/>
+      <c r="W40" s="194"/>
+      <c r="X40" s="194"/>
+      <c r="Y40" s="194"/>
+      <c r="Z40" s="194"/>
+      <c r="AA40" s="194"/>
+      <c r="AB40" s="194"/>
+      <c r="AC40" s="194"/>
+      <c r="AD40" s="194"/>
+      <c r="AE40" s="194"/>
+      <c r="AF40" s="194"/>
+      <c r="AG40" s="194"/>
+      <c r="AH40" s="194"/>
+      <c r="AI40" s="194"/>
+      <c r="AJ40" s="194"/>
+      <c r="AK40" s="194"/>
+      <c r="AL40" s="194"/>
+      <c r="AM40" s="194"/>
+      <c r="AN40" s="194"/>
+      <c r="AO40" s="194"/>
+      <c r="AP40" s="194"/>
+      <c r="AQ40" s="194"/>
+      <c r="AR40" s="194"/>
+      <c r="AS40" s="194"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="41" spans="1:45">
+      <c r="A41" s="194"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="194"/>
+      <c r="P41" s="194"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="194"/>
+      <c r="S41" s="194"/>
+      <c r="T41" s="194"/>
+      <c r="U41" s="194"/>
+      <c r="V41" s="194"/>
+      <c r="W41" s="194"/>
+      <c r="X41" s="194"/>
+      <c r="Y41" s="194"/>
+      <c r="Z41" s="194"/>
+      <c r="AA41" s="194"/>
+      <c r="AB41" s="194"/>
+      <c r="AC41" s="194"/>
+      <c r="AD41" s="194"/>
+      <c r="AE41" s="194"/>
+      <c r="AF41" s="194"/>
+      <c r="AG41" s="194"/>
+      <c r="AH41" s="194"/>
+      <c r="AI41" s="194"/>
+      <c r="AJ41" s="194"/>
+      <c r="AK41" s="194"/>
+      <c r="AL41" s="194"/>
+      <c r="AM41" s="194"/>
+      <c r="AN41" s="194"/>
+      <c r="AO41" s="194"/>
+      <c r="AP41" s="194"/>
+      <c r="AQ41" s="194"/>
+      <c r="AR41" s="194"/>
+      <c r="AS41" s="194"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="42" spans="1:45">
+      <c r="A42" s="194"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="194"/>
+      <c r="J42" s="194"/>
+      <c r="K42" s="194"/>
+      <c r="L42" s="194"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="194"/>
+      <c r="O42" s="194"/>
+      <c r="P42" s="194"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="194"/>
+      <c r="S42" s="194"/>
+      <c r="T42" s="194"/>
+      <c r="U42" s="194"/>
+      <c r="V42" s="194"/>
+      <c r="W42" s="194"/>
+      <c r="X42" s="194"/>
+      <c r="Y42" s="194"/>
+      <c r="Z42" s="194"/>
+      <c r="AA42" s="194"/>
+      <c r="AB42" s="194"/>
+      <c r="AC42" s="194"/>
+      <c r="AD42" s="194"/>
+      <c r="AE42" s="194"/>
+      <c r="AF42" s="194"/>
+      <c r="AG42" s="194"/>
+      <c r="AH42" s="194"/>
+      <c r="AI42" s="194"/>
+      <c r="AJ42" s="194"/>
+      <c r="AK42" s="194"/>
+      <c r="AL42" s="194"/>
+      <c r="AM42" s="194"/>
+      <c r="AN42" s="194"/>
+      <c r="AO42" s="194"/>
+      <c r="AP42" s="194"/>
+      <c r="AQ42" s="194"/>
+      <c r="AR42" s="194"/>
+      <c r="AS42" s="194"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="43" spans="1:45">
+      <c r="A43" s="194"/>
+      <c r="B43" s="194"/>
+      <c r="C43" s="194"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
+      <c r="J43" s="194"/>
+      <c r="K43" s="194"/>
+      <c r="L43" s="194"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="194"/>
+      <c r="O43" s="194"/>
+      <c r="P43" s="194"/>
+      <c r="Q43" s="194"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="194"/>
+      <c r="T43" s="194"/>
+      <c r="U43" s="194"/>
+      <c r="V43" s="194"/>
+      <c r="W43" s="194"/>
+      <c r="X43" s="194"/>
+      <c r="Y43" s="194"/>
+      <c r="Z43" s="194"/>
+      <c r="AA43" s="194"/>
+      <c r="AB43" s="194"/>
+      <c r="AC43" s="194"/>
+      <c r="AD43" s="194"/>
+      <c r="AE43" s="194"/>
+      <c r="AF43" s="194"/>
+      <c r="AG43" s="194"/>
+      <c r="AH43" s="194"/>
+      <c r="AI43" s="194"/>
+      <c r="AJ43" s="194"/>
+      <c r="AK43" s="194"/>
+      <c r="AL43" s="194"/>
+      <c r="AM43" s="194"/>
+      <c r="AN43" s="194"/>
+      <c r="AO43" s="194"/>
+      <c r="AP43" s="194"/>
+      <c r="AQ43" s="194"/>
+      <c r="AR43" s="194"/>
+      <c r="AS43" s="194"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection autoFilter="0" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" pivotTables="0" sort="0"/>
   <dataConsolidate/>
   <mergeCells count="23">
+    <mergeCell ref="A37:AS43"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="A4:AS4"/>
+    <mergeCell ref="A36:AS36"/>
+    <mergeCell ref="A5:AS35"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
@@ -9369,21 +9947,14 @@
     <mergeCell ref="O1:V1"/>
     <mergeCell ref="W1:AE1"/>
     <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="A37:AS43"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="A4:AS4"/>
-    <mergeCell ref="A36:AS36"/>
-    <mergeCell ref="A5:AS35"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
-  <pageSetup paperSize="9" scale="93" firstPageNumber="75" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
+  <pageSetup cellComments="asDisplayed" firstPageNumber="75" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
+    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>

--- a/Coding/SlimksSDDGennerator/template.xlsx
+++ b/Coding/SlimksSDDGennerator/template.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226" filterPrivacy="1" showInkAnnotation="0"/>
+  <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView tabRatio="939" windowHeight="11745" windowWidth="19200" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11745" tabRatio="939"/>
   </bookViews>
   <sheets>
-    <sheet name="KSC-S-23_1 プログラム一覧表" r:id="rId1" sheetId="121"/>
-    <sheet name="KSC-S-23_2 メソッド（関数）仕様(1枚目)" r:id="rId2" sheetId="122"/>
-    <sheet name="KSC-S-23_3メソッドロジック図(1枚目)" r:id="rId3" sheetId="119"/>
-    <sheet name="KSC-S-23_3メソッドロジック説明(1枚目)" r:id="rId4" sheetId="120"/>
+    <sheet name="KSC-S-23_1 プログラム一覧表" sheetId="121" r:id="rId1"/>
+    <sheet name="KSC-S-23_2 メソッド（関数）仕様(0枚目)" sheetId="122" r:id="rId2"/>
+    <sheet name="KSC-S-23_3メソッドロジック図(0枚目)" sheetId="119" r:id="rId3"/>
+    <sheet name="KSC-S-23_3メソッドロジック説明(0枚目)" sheetId="120" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">'KSC-S-23_1 プログラム一覧表'!$A$1:$P$19</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Area">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$A$1:$Q$30</definedName>
-    <definedName localSheetId="2" name="_xlnm.Print_Area">'KSC-S-23_3メソッドロジック図(1枚目)'!$A$1:$AS$51</definedName>
-    <definedName localSheetId="3" name="_xlnm.Print_Area">'KSC-S-23_3メソッドロジック説明(1枚目)'!$A$1:$AS$50</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Titles">'KSC-S-23_1 プログラム一覧表'!$1:$4</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Titles">'KSC-S-23_2 メソッド（関数）仕様(1枚目)'!$1:$6</definedName>
-    <definedName localSheetId="2" name="_xlnm.Print_Titles">'KSC-S-23_3メソッドロジック図(1枚目)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KSC-S-23_1 プログラム一覧表'!$A$1:$P$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'KSC-S-23_2 メソッド（関数）仕様(0枚目)'!$A$1:$Q$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'KSC-S-23_3メソッドロジック図(0枚目)'!$A$1:$AS$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'KSC-S-23_3メソッドロジック説明(0枚目)'!$A$1:$AS$50</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'KSC-S-23_1 プログラム一覧表'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'KSC-S-23_2 メソッド（関数）仕様(0枚目)'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'KSC-S-23_3メソッドロジック図(0枚目)'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -31,7 +31,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A23" shapeId="0">
+    <comment ref="A23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A26" shapeId="0">
+    <comment ref="A26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G28" shapeId="0">
+    <comment ref="G28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment authorId="0" ref="J28" shapeId="0">
+    <comment ref="J28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,191 +179,191 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="108">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>説明</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>前提条件</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ゼンテイ</t>
     </rPh>
-    <rPh eb="4" sb="2">
+    <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>引数</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>引数名</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ヒキスウ</t>
     </rPh>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>メイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>型</t>
-    <rPh eb="1" sb="0">
+    <rPh sb="0" eb="1">
       <t>カタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">初期値 </t>
-    <rPh eb="3" sb="0">
+    <rPh sb="0" eb="3">
       <t>ショキチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>返り値</t>
-    <rPh eb="1" sb="0">
+    <rPh sb="0" eb="1">
       <t>カエ</t>
     </rPh>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>チ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>例外処理</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>レイガイ</t>
     </rPh>
-    <rPh eb="4" sb="2">
+    <rPh sb="2" eb="4">
       <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>発生条件および説明</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ハッセイ</t>
     </rPh>
-    <rPh eb="4" sb="2">
+    <rPh sb="2" eb="4">
       <t>ジョウケン</t>
     </rPh>
-    <rPh eb="9" sb="7">
+    <rPh sb="7" eb="9">
       <t>セツメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Exceptionの内容</t>
-    <rPh eb="12" sb="10">
+    <rPh sb="10" eb="12">
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応方法</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>タイオウ</t>
     </rPh>
-    <rPh eb="4" sb="2">
+    <rPh sb="2" eb="4">
       <t>ホウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プログラム名</t>
-    <rPh eb="6" sb="5">
+    <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>実装形態</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ジッソウ</t>
     </rPh>
-    <rPh eb="4" sb="2">
+    <rPh sb="2" eb="4">
       <t>ケイタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>分類</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図ID</t>
-    <rPh eb="1" sb="0">
+    <rPh sb="0" eb="1">
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>図名</t>
-    <rPh eb="1" sb="0">
+    <rPh sb="0" eb="1">
       <t>ズ</t>
     </rPh>
-    <rPh eb="2" sb="1">
+    <rPh sb="1" eb="2">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>凡例</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ハンレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>物理名</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ブツリ</t>
     </rPh>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>対応クラス</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パッケージ名</t>
-    <rPh eb="6" sb="5">
+    <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>クラス名</t>
-    <rPh eb="4" sb="3">
+    <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メソッド名</t>
-    <rPh eb="5" sb="4">
+    <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -373,10 +373,10 @@
   </si>
   <si>
     <t>システム名／サブシステム名</t>
-    <rPh eb="5" sb="4">
+    <rPh sb="4" eb="5">
       <t>メイ</t>
     </rPh>
-    <rPh eb="13" sb="12">
+    <rPh sb="12" eb="13">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -389,10 +389,10 @@
   </si>
   <si>
     <t>作成者</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -403,7 +403,7 @@
   </si>
   <si>
     <t>ドキュメント名</t>
-    <rPh eb="7" sb="6">
+    <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -416,10 +416,10 @@
   </si>
   <si>
     <t>更新者</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>コウシン</t>
     </rPh>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -434,21 +434,21 @@
   </si>
   <si>
     <t>初版</t>
-    <rPh eb="2" sb="0">
+    <rPh sb="0" eb="2">
       <t>ショハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作成日</t>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>作成者</t>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -458,14 +458,14 @@
   </si>
   <si>
     <t>更新日</t>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>更新者</t>
-    <rPh eb="3" sb="2">
+    <rPh sb="2" eb="3">
       <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -480,10 +480,10 @@
   </si>
   <si>
     <t>メソッド（関数）仕様</t>
-    <rPh eb="7" sb="5">
+    <rPh sb="5" eb="7">
       <t>カンスウ</t>
     </rPh>
-    <rPh eb="10" sb="8">
+    <rPh sb="8" eb="10">
       <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -561,9 +561,6 @@
     <t>java_KSSubstituteInputAF</t>
   </si>
   <si>
-    <t>jp.co.toshiba_sol.slim.ks.substitute.input</t>
-  </si>
-  <si>
     <t>exec</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>java_SubstituteInputValidationAC</t>
-  </si>
-  <si>
     <t>KSSubstituteInputAC.exec()関数</t>
     <phoneticPr fontId="10"/>
   </si>
@@ -623,9 +617,6 @@
   </si>
   <si>
     <t>selectedBukaCode</t>
-  </si>
-  <si>
-    <t>KSSubstituteInputValidationAC.java</t>
   </si>
   <si>
     <t>userBukaCode</t>
@@ -687,27 +678,6 @@
     </r>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>UT test Case ID</t>
-  </si>
-  <si>
-    <t>1-2-3-4-5-6-7-8-9-10-11-12-13</t>
-  </si>
-  <si>
-    <t>1-2-3-4-6-7-8-9-10-11-12-13</t>
-  </si>
-  <si>
-    <t>142, 145, 147</t>
-  </si>
-  <si>
-    <t>139, 149</t>
-  </si>
-  <si>
     <t>java_KSSubstituteInputAC</t>
   </si>
   <si>
@@ -769,6 +739,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>chao</t>
   </si>
 </sst>
 </file>
@@ -779,7 +752,7 @@
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="165" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -893,6 +866,15 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1264,893 +1246,659 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="4" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+  <cellXfs count="209">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="165" xfId="2">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="26" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="0" fontId="11" numFmtId="165" xfId="2">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="0" fontId="2" numFmtId="49" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="6" fillId="0" fontId="2" numFmtId="49" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="17" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" quotePrefix="1" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="2">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="21" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="22" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="23" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="24" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="25" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="14" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="14" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" quotePrefix="1" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="15" numFmtId="49" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="16" numFmtId="165" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="4" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="4" fillId="4" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="5" fillId="4" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="16" numFmtId="165" xfId="2">
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="4" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="16" numFmtId="165" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="15" numFmtId="49" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="14" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="3" fontId="14" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="3" fontId="14" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" quotePrefix="1" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="22" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="11" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="12" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="2">
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="7" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="8" fillId="4" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="通貨 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2163,7 +1911,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -2207,23 +1955,23 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
             <a:t>①</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" baseline="0" kumimoji="1" lang="en-US" sz="1000"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0"/>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" baseline="0" kumimoji="1" lang="ja-JP" sz="1000"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0"/>
             <a:t>ユーザーの情報と原価部課を取得</a:t>
           </a:r>
-          <a:endParaRPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="1000"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2272,11 +2020,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2287,7 +2035,7 @@
             <a:t>②</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" baseline="0" kumimoji="1" lang="ja-JP" sz="1000">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2298,7 +2046,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2322,7 +2070,7 @@
             <a:t>ActionForm</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2384,12 +2132,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>開始</a:t>
           </a:r>
         </a:p>
@@ -2440,12 +2188,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>終了</a:t>
           </a:r>
         </a:p>
@@ -2496,11 +2244,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2561,16 +2309,16 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" bIns="0" horzOverflow="clip" lIns="0" rIns="0" rtlCol="0" tIns="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="1100"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>④選択される部課コードが</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" smtClean="0" sz="1100">
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2581,7 +2329,7 @@
             <a:t>null</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2781,11 +2529,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2796,7 +2544,7 @@
             <a:t>⑤</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" baseline="0" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2904,11 +2652,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2920,7 +2668,7 @@
             <a:t>⑥</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" smtClean="0" sz="1100">
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2931,7 +2679,7 @@
             <a:t>KSSubstituteInputService</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2992,11 +2740,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3008,7 +2756,7 @@
             <a:t>⑦パラメーターマップを作成し、①で取得したユーザー</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" lang="en-US" smtClean="0" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3020,7 +2768,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3082,11 +2830,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3146,7 +2894,7 @@
             <a:t>() </a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3158,7 +2906,7 @@
             <a:t>関数を呼び出し、</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" baseline="0" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3220,11 +2968,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3236,7 +2984,7 @@
             <a:t>⑨</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3248,7 +2996,7 @@
             <a:t>パラメーターマップを作成し、③で選択の取得した部課コードとユーザー</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3260,7 +3008,7 @@
             <a:t>ID</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3348,13 +3096,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1" rot="10800000">
+        <a:xfrm rot="10800000" flipV="1">
           <a:off x="3000374" y="2709861"/>
           <a:ext cx="38100" cy="1271589"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd fmla="val 700000" name="adj1"/>
+            <a:gd name="adj1" fmla="val 700000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -3418,11 +3166,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3458,7 +3206,7 @@
             <a:t>.</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" smtClean="0" sz="1100">
+            <a:rPr lang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3481,7 +3229,7 @@
             <a:t>() </a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3493,7 +3241,7 @@
             <a:t>関数を呼び出し、</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" smtClean="0" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3554,11 +3302,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="ctr" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="1100">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -3606,7 +3354,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr lastClr="000000" val="windowText"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3627,84 +3375,84 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>⑫パラメータの</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>ActionMapping</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>から</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>ActionForward</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>を取得し、’</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>success</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>’を設定</a:t>
           </a:r>
@@ -3742,7 +3490,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:sysClr lastClr="000000" val="windowText"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3763,40 +3511,40 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>⑬⑫で生成した</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="ja-JP" kumimoji="1" lang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>ActionForward</a:t>
           </a:r>
           <a:r>
-            <a:rPr altLang="en-US" kumimoji="1" lang="ja-JP" sz="900">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:ea charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
-              <a:cs charset="-128" panose="020B0604030504040204" pitchFamily="50" typeface="メイリオ"/>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>を返却</a:t>
           </a:r>
@@ -4253,26 +4001,26 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip" wrap="none">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="900"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>有り</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900"/>
@@ -4306,26 +4054,26 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr b="0" g="0" r="0"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr anchor="t" horzOverflow="clip" rtlCol="0" vertOverflow="clip" wrap="none">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr altLang="en-US" lang="ja-JP" sz="900"/>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>無し</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="900"/>
@@ -4337,19 +4085,15 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4384,7 +4128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4419,7 +4163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4507,7 +4251,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -4516,13 +4260,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4532,7 +4276,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -4541,7 +4285,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4550,7 +4294,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -4560,12 +4304,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -4596,7 +4340,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -4615,7 +4359,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -4627,46 +4371,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="7" width="16.28515625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="7" width="10.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="7" width="3.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="7" width="28.5703125" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="7" width="7.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="7" width="10.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="7" width="6.85546875" collapsed="true"/>
-    <col min="17" max="16384" style="7" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="4.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="2.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16.28515625" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="10.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="3.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="28.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="2.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="4.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="6.85546875" style="7" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="76" t="s">
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="80"/>
-      <c r="H1" s="77"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="36" t="s">
         <v>53</v>
       </c>
@@ -4678,32 +4422,32 @@
         <v>26</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N1" s="25" t="s">
         <v>27</v>
       </c>
       <c r="O1" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" s="79" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="83"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="81"/>
       <c r="J2" s="26" t="s">
         <v>30</v>
       </c>
@@ -4722,9 +4466,9 @@
       <c r="O2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="82"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="6" r="3" s="2" spans="1:16">
+      <c r="P2" s="80"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="6" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4742,14 +4486,14 @@
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="13.5" r="4" s="14" spans="1:16" thickBot="1">
+    <row r="4" spans="1:16" s="14" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="85"/>
+      <c r="C4" s="83"/>
       <c r="D4" s="18" t="s">
         <v>12</v>
       </c>
@@ -4762,33 +4506,33 @@
       <c r="G4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="86" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="88"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="31.5" r="5" s="58" spans="1:16" thickTop="1">
-      <c r="A5" s="19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="205" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="66" t="s">
+      <c r="O4" s="85"/>
+      <c r="P4" s="86"/>
+    </row>
+    <row r="5" spans="1:16" s="58" customFormat="1" ht="31.5" customHeight="1" thickTop="1">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="204" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="205" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>63</v>
@@ -4796,33 +4540,33 @@
       <c r="G5" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="89"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="92" t="s">
+      <c r="H5" s="87"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="P5" s="94"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="32.25" r="6" s="59" spans="1:16">
-      <c r="A6" s="19" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B6" s="205" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="66" t="s">
-        <v>81</v>
+      <c r="O5" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="92"/>
+    </row>
+    <row r="6" spans="1:16" s="59" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="204" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="205" t="s">
+        <v>79</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="15" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>63</v>
@@ -4830,33 +4574,33 @@
       <c r="G6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="70" t="s">
+      <c r="H6" s="66"/>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="72"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40.5" r="7" s="60" spans="1:16">
-      <c r="A7" s="19" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B7" s="205" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="66" t="s">
-        <v>82</v>
+      <c r="O6" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="73"/>
+    </row>
+    <row r="7" spans="1:16" s="60" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="204" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="205" t="s">
+        <v>80</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>63</v>
@@ -4864,33 +4608,33 @@
       <c r="G7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70" t="s">
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="72"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="40.5" r="8" s="61" spans="1:16">
-      <c r="A8" s="19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B8" s="205" t="s">
+      <c r="O7" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="66" t="s">
-        <v>96</v>
+      <c r="P7" s="73"/>
+    </row>
+    <row r="8" spans="1:16" s="61" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A8" s="19">
+        <v>4</v>
+      </c>
+      <c r="B8" s="204" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="205" t="s">
+        <v>86</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>63</v>
@@ -4898,33 +4642,33 @@
       <c r="G8" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="67"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="70" t="s">
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="72"/>
-    </row>
-    <row customFormat="1" ht="33.75" r="9" s="62" spans="1:16">
-      <c r="A9" s="19" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B9" s="205" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="66" t="s">
+      <c r="O8" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" s="73"/>
+    </row>
+    <row r="9" spans="1:16" s="62" customFormat="1" ht="33.75">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="204" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="205" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="15" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>63</v>
@@ -4932,33 +4676,33 @@
       <c r="G9" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="67"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="70" t="s">
+      <c r="H9" s="68"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="72"/>
-    </row>
-    <row customFormat="1" ht="22.5" r="10" s="63" spans="1:16">
-      <c r="A10" s="19" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B10" s="205" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>68</v>
+      <c r="O9" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="73"/>
+    </row>
+    <row r="10" spans="1:16" s="63" customFormat="1" ht="22.5">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="204" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="205" t="s">
+        <v>67</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="15" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>63</v>
@@ -4966,33 +4710,33 @@
       <c r="G10" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="70" t="s">
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="72"/>
-    </row>
-    <row customFormat="1" ht="33.75" r="11" s="64" spans="1:16">
-      <c r="A11" s="19" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B11" s="205" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>97</v>
+      <c r="O10" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="73"/>
+    </row>
+    <row r="11" spans="1:16" s="64" customFormat="1" ht="33.75">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="204" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="205" t="s">
+        <v>87</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="15" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>63</v>
@@ -5000,31 +4744,31 @@
       <c r="G11" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="67"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="70" t="s">
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="O11" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P11" s="72"/>
-    </row>
-    <row customFormat="1" ht="33.75" r="12" s="65" spans="1:16">
-      <c r="A12" s="19" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B12" s="205" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="66"/>
+      <c r="O11" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" s="73"/>
+    </row>
+    <row r="12" spans="1:16" s="65" customFormat="1" ht="33.75">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="204" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="205"/>
       <c r="D12" s="27"/>
       <c r="E12" s="15" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>63</v>
@@ -5032,329 +4776,328 @@
       <c r="G12" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="67"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70" t="s">
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="P12" s="72"/>
-    </row>
-    <row ht="22.5" r="13" spans="1:16">
+      <c r="O12" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="73"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="19" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B13" s="206" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C13" s="206" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="O13" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="P13" s="72"/>
-    </row>
-    <row ht="22.5" r="14" spans="1:16">
+        <v>106</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="73"/>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="75" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="B14" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="208" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="J14" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="L14" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="O14" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="P14" s="72"/>
-    </row>
-    <row ht="22.5" r="15" spans="1:16">
+        <v>106</v>
+      </c>
+      <c r="H14" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N14" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="O14" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="73"/>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="B15" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="208" t="s">
+        <v>106</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="M15" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="N15" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" s="72"/>
-    </row>
-    <row ht="22.5" r="16" spans="1:16">
+        <v>106</v>
+      </c>
+      <c r="H15" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="M15" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="73"/>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="B16" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="208" t="s">
+        <v>106</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="M16" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="P16" s="72"/>
-    </row>
-    <row ht="22.5" r="17" spans="1:16">
+        <v>106</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="O16" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="73"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="75" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="B17" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="208" t="s">
+        <v>106</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="N17" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" s="72"/>
-    </row>
-    <row ht="22.5" r="18" spans="1:16">
+        <v>106</v>
+      </c>
+      <c r="H17" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="M17" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="73"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="73" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="75" t="s">
-        <v>116</v>
+        <v>106</v>
+      </c>
+      <c r="B18" s="207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="208" t="s">
+        <v>106</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="L18" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="M18" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="N18" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="O18" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="P18" s="72"/>
+        <v>106</v>
+      </c>
+      <c r="H18" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="I18" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="73"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="51">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N17:P17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="N7:P7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:P12"/>
@@ -5371,86 +5114,86 @@
     <mergeCell ref="H5:M5"/>
     <mergeCell ref="N5:P5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N17:P17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="N18:P18"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
-  <pageSetup cellComments="asDisplayed" firstPageNumber="180" fitToHeight="0" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
+  <pageSetup paperSize="9" scale="93" firstPageNumber="180" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
-      <selection activeCell="G10" sqref="G10:Q10"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="7" width="6.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="7" width="13.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="7" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="7" width="8.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="7" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="7" width="2.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="7" width="4.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="32" width="7.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="32" width="4.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="32" width="10.5703125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="7" width="7.140625" collapsed="true"/>
-    <col min="18" max="16384" style="7" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="4.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.42578125" style="7" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="4.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="2.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="4.5703125" style="7" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.5703125" style="32" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="4.5703125" style="32" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.5703125" style="32" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="7.140625" style="7" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="9" style="7" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="76" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="125" t="s">
+      <c r="F1" s="75"/>
+      <c r="G1" s="140" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="127"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="142"/>
       <c r="K1" s="37" t="s">
         <v>25</v>
       </c>
@@ -5468,31 +5211,31 @@
       <c r="P1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="79" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="83"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="127"/>
+      <c r="I2" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="142"/>
       <c r="K2" s="26" t="s">
         <v>30</v>
       </c>
@@ -5511,80 +5254,80 @@
       <c r="P2" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="82"/>
+      <c r="Q2" s="80"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="101"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="136"/>
       <c r="E3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="101"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="15.75" r="4" s="1" spans="1:17">
-      <c r="A4" s="76" t="s">
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="136"/>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100"/>
-      <c r="Q4" s="101"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="41.25" r="5" s="1" spans="1:17">
-      <c r="A5" s="76" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="135" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="137"/>
+      <c r="O4" s="137"/>
+      <c r="P4" s="137"/>
+      <c r="Q4" s="136"/>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="M5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="101"/>
-    </row>
-    <row customHeight="1" ht="6" r="6" spans="1:17">
+      <c r="B5" s="138"/>
+      <c r="C5" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="136"/>
+    </row>
+    <row r="6" spans="1:17" ht="6" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -5603,182 +5346,182 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="5"/>
     </row>
-    <row customHeight="1" ht="15" r="7" spans="1:17">
-      <c r="A7" s="102" t="s">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
+      <c r="A7" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="103"/>
-      <c r="K7" s="103"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="103"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="104"/>
-    </row>
-    <row ht="14.25" r="8" spans="1:17" thickBot="1">
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="102"/>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" thickBot="1">
       <c r="A8" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="105" t="s">
+      <c r="B8" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="106"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="105" t="s">
+      <c r="F8" s="128"/>
+      <c r="G8" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="106"/>
-    </row>
-    <row ht="14.25" r="9" spans="1:17" thickTop="1">
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="128"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.25" thickTop="1">
       <c r="A9" s="22">
         <v>1</v>
       </c>
-      <c r="B9" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="109"/>
+      <c r="B9" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="144"/>
       <c r="D9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="114"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="132" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="22">
         <v>2</v>
       </c>
-      <c r="B10" s="115" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="116"/>
+      <c r="B10" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="96"/>
       <c r="D10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="121"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="97" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="98"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="22">
         <v>3</v>
       </c>
-      <c r="B11" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="116"/>
+      <c r="B11" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="96"/>
       <c r="D11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="118"/>
-      <c r="G11" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="123"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="124"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="149" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="151"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="23"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="75"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="67"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="23"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="121"/>
-    </row>
-    <row customHeight="1" ht="6" r="14" spans="1:17">
+      <c r="E13" s="97"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="98"/>
+    </row>
+    <row r="14" spans="1:17" ht="6" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -5798,322 +5541,373 @@
       <c r="Q14" s="11"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="102" t="s">
+      <c r="A15" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="103"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="103"/>
-      <c r="Q15" s="104"/>
-    </row>
-    <row ht="14.25" r="16" spans="1:17" thickBot="1">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="102"/>
+    </row>
+    <row r="16" spans="1:17" ht="14.25" thickBot="1">
       <c r="A16" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="105" t="s">
+      <c r="C16" s="127"/>
+      <c r="D16" s="127"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="106"/>
-    </row>
-    <row customHeight="1" ht="27" r="17" spans="1:17" thickTop="1">
+      <c r="H16" s="127"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
+      <c r="L16" s="127"/>
+      <c r="M16" s="127"/>
+      <c r="N16" s="127"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="128"/>
+    </row>
+    <row r="17" spans="1:17" ht="27" customHeight="1" thickTop="1">
       <c r="A17" s="22">
         <v>1</v>
       </c>
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="112" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="113"/>
-      <c r="Q17" s="114"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="134"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="22"/>
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="130"/>
-      <c r="K18" s="130"/>
-      <c r="L18" s="130"/>
-      <c r="M18" s="130"/>
-      <c r="N18" s="130"/>
-      <c r="O18" s="130"/>
-      <c r="P18" s="130"/>
-      <c r="Q18" s="131"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="124"/>
+      <c r="N18" s="124"/>
+      <c r="O18" s="124"/>
+      <c r="P18" s="124"/>
+      <c r="Q18" s="125"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="22"/>
-      <c r="B19" s="132"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="130"/>
-      <c r="K19" s="130"/>
-      <c r="L19" s="130"/>
-      <c r="M19" s="130"/>
-      <c r="N19" s="130"/>
-      <c r="O19" s="130"/>
-      <c r="P19" s="130"/>
-      <c r="Q19" s="131"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
+      <c r="M19" s="124"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="124"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="125"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="22"/>
-      <c r="B20" s="132"/>
-      <c r="C20" s="133"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
-      <c r="K20" s="130"/>
-      <c r="L20" s="130"/>
-      <c r="M20" s="130"/>
-      <c r="N20" s="130"/>
-      <c r="O20" s="130"/>
-      <c r="P20" s="130"/>
-      <c r="Q20" s="131"/>
-    </row>
-    <row customHeight="1" ht="15" r="21" spans="1:17">
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
+      <c r="M20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="O20" s="124"/>
+      <c r="P20" s="124"/>
+      <c r="Q20" s="125"/>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="23"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="119"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="121"/>
-    </row>
-    <row customHeight="1" ht="6" r="22" spans="1:17"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="99"/>
+      <c r="Q21" s="98"/>
+    </row>
+    <row r="22" spans="1:17" ht="6" customHeight="1"/>
     <row r="23" spans="1:17">
-      <c r="A23" s="102" t="s">
+      <c r="A23" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="102" t="s">
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="103"/>
-      <c r="M23" s="103"/>
-      <c r="N23" s="103"/>
-      <c r="O23" s="103"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="104"/>
-    </row>
-    <row customHeight="1" ht="57" r="24" spans="1:17">
-      <c r="A24" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="115" t="s">
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="101"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="102"/>
+    </row>
+    <row r="24" spans="1:17" ht="57" customHeight="1">
+      <c r="A24" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="116"/>
-    </row>
-    <row customHeight="1" ht="7.5" r="25" spans="1:17"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="96"/>
+    </row>
+    <row r="25" spans="1:17" ht="7.5" customHeight="1"/>
     <row r="26" spans="1:17">
-      <c r="A26" s="102" t="s">
+      <c r="A26" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="104"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="101"/>
+      <c r="N26" s="101"/>
+      <c r="O26" s="101"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="102"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="139" t="s">
+      <c r="A27" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="141" t="s">
+      <c r="B27" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="142"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="147" t="s">
+      <c r="C27" s="106"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
-      <c r="K27" s="148"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="148"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="148"/>
-      <c r="P27" s="148"/>
-      <c r="Q27" s="149"/>
-    </row>
-    <row ht="14.25" r="28" spans="1:17" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="144"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="86" t="s">
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="112"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="113"/>
+    </row>
+    <row r="28" spans="1:17" ht="14.25" thickBot="1">
+      <c r="A28" s="104"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="88"/>
-      <c r="G28" s="86" t="s">
+      <c r="F28" s="86"/>
+      <c r="G28" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="86" t="s">
+      <c r="H28" s="85"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
-    </row>
-    <row ht="14.25" r="29" spans="1:17" thickTop="1">
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="86"/>
+    </row>
+    <row r="29" spans="1:17" ht="14.25" thickTop="1">
       <c r="A29" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="150" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="151"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="97"/>
-      <c r="G29" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="96"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="96"/>
-      <c r="L29" s="96"/>
-      <c r="M29" s="96"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="96"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
+        <v>76</v>
+      </c>
+      <c r="B29" s="114" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="118"/>
+      <c r="G29" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="119"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="119"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="118"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="24"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="119"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="119"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="120"/>
-      <c r="M30" s="120"/>
-      <c r="N30" s="120"/>
-      <c r="O30" s="120"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="121"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="98"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="67">
+    <mergeCell ref="J29:Q29"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:Q5"/>
+    <mergeCell ref="A7:Q7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:Q8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:Q9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:Q10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:Q11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:Q12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:Q13"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:Q23"/>
+    <mergeCell ref="G19:Q19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:Q20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:Q21"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:Q18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:Q17"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:I30"/>
@@ -6130,65 +5924,14 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:Q18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:Q16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:Q17"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:Q23"/>
-    <mergeCell ref="G19:Q19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:Q20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:Q21"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:Q12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:Q13"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J29:Q29"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:Q5"/>
-    <mergeCell ref="A7:Q7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:Q8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:Q9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:Q10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:Q11"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
-  <pageSetup cellComments="asDisplayed" firstPageNumber="180" fitToHeight="0" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
+  <pageSetup paperSize="9" scale="93" firstPageNumber="180" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -6196,169 +5939,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
-      <selection activeCell="AV6" sqref="AV6"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="3.5703125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" customWidth="true" style="47" width="3.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="57" width="3.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="47" width="3.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="57" width="3.140625" collapsed="true"/>
-    <col min="9" max="13" customWidth="true" style="47" width="3.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="47" width="3.42578125" collapsed="true"/>
-    <col min="15" max="32" customWidth="true" style="47" width="3.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="47" width="3.0" collapsed="true"/>
-    <col min="34" max="44" customWidth="true" style="47" width="3.140625" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" style="47" width="3.5703125" collapsed="true"/>
-    <col min="46" max="46" style="47" width="3.5703125" collapsed="true"/>
-    <col min="47" max="47" customWidth="true" style="47" width="11.42578125" collapsed="true"/>
-    <col min="48" max="16384" style="47" width="3.5703125" collapsed="true"/>
+    <col min="1" max="4" width="3.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="3.140625" style="57" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="3.140625" style="57" customWidth="1" collapsed="1"/>
+    <col min="9" max="13" width="3.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="3.42578125" style="47" customWidth="1" collapsed="1"/>
+    <col min="15" max="32" width="3.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="3" style="47" customWidth="1" collapsed="1"/>
+    <col min="34" max="44" width="3.140625" style="47" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="3.5703125" style="47" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="3.5703125" style="47" collapsed="1"/>
+    <col min="47" max="47" width="11.42578125" style="47" customWidth="1" collapsed="1"/>
+    <col min="48" max="16384" width="3.5703125" style="47" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" spans="1:50">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:50" ht="15.75" customHeight="1">
+      <c r="A1" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
       <c r="E1" s="155"/>
-      <c r="F1" s="162" t="s">
+      <c r="F1" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="160"/>
-      <c r="H1" s="160"/>
-      <c r="I1" s="160"/>
-      <c r="J1" s="160"/>
-      <c r="K1" s="160"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="160"/>
-      <c r="N1" s="161"/>
-      <c r="O1" s="153" t="s">
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="172"/>
+      <c r="O1" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="165"/>
+      <c r="T1" s="165"/>
+      <c r="U1" s="165"/>
       <c r="V1" s="155"/>
-      <c r="W1" s="162" t="s">
+      <c r="W1" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="160"/>
-      <c r="Y1" s="160"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="160"/>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="160"/>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
       <c r="AF1" s="45" t="s">
         <v>35</v>
       </c>
       <c r="AG1" s="46"/>
-      <c r="AH1" s="169" t="s">
+      <c r="AH1" s="160" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="169"/>
-      <c r="AJ1" s="164">
+      <c r="AI1" s="160"/>
+      <c r="AJ1" s="153">
         <v>43130</v>
       </c>
-      <c r="AK1" s="164"/>
-      <c r="AL1" s="164"/>
-      <c r="AM1" s="169" t="s">
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="169"/>
-      <c r="AO1" s="172" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP1" s="173"/>
-      <c r="AQ1" s="173"/>
-      <c r="AR1" s="163" t="s">
+      <c r="AN1" s="160"/>
+      <c r="AO1" s="163" t="s">
+        <v>104</v>
+      </c>
+      <c r="AP1" s="164"/>
+      <c r="AQ1" s="164"/>
+      <c r="AR1" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="AS1" s="163"/>
-    </row>
-    <row customHeight="1" ht="27" r="2" spans="1:50">
-      <c r="A2" s="153" t="s">
+      <c r="AS1" s="152"/>
+    </row>
+    <row r="2" spans="1:50" ht="27" customHeight="1">
+      <c r="A2" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="155"/>
-      <c r="F2" s="156" t="s">
+      <c r="F2" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="155"/>
+      <c r="O2" s="171" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="155"/>
+      <c r="W2" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="153" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="155"/>
-      <c r="O2" s="159" t="s">
-        <v>59</v>
-      </c>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="153" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="155"/>
-      <c r="W2" s="165" t="s">
-        <v>70</v>
-      </c>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="167"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="157"/>
+      <c r="AC2" s="157"/>
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="158"/>
       <c r="AF2" s="45" t="s">
         <v>30</v>
       </c>
       <c r="AG2" s="46">
         <v>1</v>
       </c>
-      <c r="AH2" s="169" t="s">
+      <c r="AH2" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="168" t="s">
+      <c r="AI2" s="160"/>
+      <c r="AJ2" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="AK2" s="168"/>
-      <c r="AL2" s="168"/>
-      <c r="AM2" s="169" t="s">
+      <c r="AK2" s="159"/>
+      <c r="AL2" s="159"/>
+      <c r="AM2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="169"/>
-      <c r="AO2" s="170" t="s">
+      <c r="AN2" s="160"/>
+      <c r="AO2" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="171"/>
-      <c r="AR2" s="163"/>
-      <c r="AS2" s="163"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" spans="1:50">
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="152"/>
+      <c r="AS2" s="152"/>
+    </row>
+    <row r="3" spans="1:50" ht="15.75" customHeight="1">
       <c r="A3" s="48"/>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
@@ -6399,19 +6142,13 @@
       <c r="AL3" s="49"/>
       <c r="AM3" s="50"/>
       <c r="AS3" s="51"/>
-      <c r="AT3" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU3" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV3" s="16" t="s">
-        <v>91</v>
-      </c>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
       <c r="AW3" s="16"/>
       <c r="AX3" s="16"/>
     </row>
-    <row customHeight="1" ht="15.75" r="4" spans="1:50">
+    <row r="4" spans="1:50" ht="15.75" customHeight="1">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -6452,19 +6189,13 @@
       <c r="AL4" s="49"/>
       <c r="AM4" s="49"/>
       <c r="AS4" s="52"/>
-      <c r="AT4" s="16">
-        <v>1</v>
-      </c>
-      <c r="AU4" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="AV4" s="16" t="s">
-        <v>95</v>
-      </c>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
       <c r="AW4" s="16"/>
       <c r="AX4" s="16"/>
     </row>
-    <row customHeight="1" ht="15.75" r="5" spans="1:50">
+    <row r="5" spans="1:50" ht="15.75" customHeight="1">
       <c r="A5" s="48"/>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -6505,19 +6236,13 @@
       <c r="AL5" s="49"/>
       <c r="AM5" s="49"/>
       <c r="AS5" s="52"/>
-      <c r="AT5" s="16">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV5" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
       <c r="AW5" s="16"/>
       <c r="AX5" s="16"/>
     </row>
-    <row customHeight="1" ht="15.75" r="6" spans="1:50">
+    <row r="6" spans="1:50" ht="15.75" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -6564,7 +6289,7 @@
       <c r="AW6" s="16"/>
       <c r="AX6" s="16"/>
     </row>
-    <row customHeight="1" ht="15.75" r="7" spans="1:50">
+    <row r="7" spans="1:50" ht="15.75" customHeight="1">
       <c r="A7" s="48"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
@@ -6611,7 +6336,7 @@
       <c r="AW7" s="16"/>
       <c r="AX7" s="16"/>
     </row>
-    <row customHeight="1" ht="15.75" r="8" spans="1:50">
+    <row r="8" spans="1:50" ht="15.75" customHeight="1">
       <c r="A8" s="48"/>
       <c r="B8" s="49"/>
       <c r="C8" s="49"/>
@@ -6653,7 +6378,7 @@
       <c r="AM8" s="49"/>
       <c r="AS8" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="9" spans="1:50">
+    <row r="9" spans="1:50" ht="15.75" customHeight="1">
       <c r="A9" s="48"/>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -6695,7 +6420,7 @@
       <c r="AM9" s="49"/>
       <c r="AS9" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="10" spans="1:50">
+    <row r="10" spans="1:50" ht="15.75" customHeight="1">
       <c r="A10" s="48"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
@@ -6737,7 +6462,7 @@
       <c r="AM10" s="49"/>
       <c r="AS10" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="11" spans="1:50">
+    <row r="11" spans="1:50" ht="15.75" customHeight="1">
       <c r="A11" s="48"/>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -6779,7 +6504,7 @@
       <c r="AM11" s="49"/>
       <c r="AS11" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="12" spans="1:50">
+    <row r="12" spans="1:50" ht="15.75" customHeight="1">
       <c r="A12" s="48"/>
       <c r="B12" s="49"/>
       <c r="C12" s="49"/>
@@ -6821,7 +6546,7 @@
       <c r="AM12" s="49"/>
       <c r="AS12" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="13" spans="1:50">
+    <row r="13" spans="1:50" ht="15.75" customHeight="1">
       <c r="A13" s="48"/>
       <c r="B13" s="49"/>
       <c r="C13" s="49"/>
@@ -6863,7 +6588,7 @@
       <c r="AM13" s="49"/>
       <c r="AS13" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="14" spans="1:50">
+    <row r="14" spans="1:50" ht="15.75" customHeight="1">
       <c r="A14" s="48"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -6905,7 +6630,7 @@
       <c r="AM14" s="49"/>
       <c r="AS14" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="15" spans="1:50">
+    <row r="15" spans="1:50" ht="15.75" customHeight="1">
       <c r="A15" s="48"/>
       <c r="B15" s="49"/>
       <c r="C15" s="49"/>
@@ -6946,7 +6671,7 @@
       <c r="AM15" s="49"/>
       <c r="AS15" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="16" spans="1:50">
+    <row r="16" spans="1:50" ht="15.75" customHeight="1">
       <c r="A16" s="48"/>
       <c r="B16" s="49"/>
       <c r="C16" s="49"/>
@@ -6988,7 +6713,7 @@
       <c r="AM16" s="49"/>
       <c r="AS16" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="17" spans="1:45">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1">
       <c r="A17" s="48"/>
       <c r="B17" s="49"/>
       <c r="C17" s="49"/>
@@ -7030,7 +6755,7 @@
       <c r="AM17" s="49"/>
       <c r="AS17" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="18" spans="1:45">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1">
       <c r="A18" s="48"/>
       <c r="B18" s="49"/>
       <c r="C18" s="49"/>
@@ -7072,7 +6797,7 @@
       <c r="AM18" s="49"/>
       <c r="AS18" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="19" spans="1:45">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1">
       <c r="A19" s="48"/>
       <c r="B19" s="49"/>
       <c r="C19" s="49"/>
@@ -7114,7 +6839,7 @@
       <c r="AM19" s="49"/>
       <c r="AS19" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="20" spans="1:45">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1">
       <c r="A20" s="48"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
@@ -7156,7 +6881,7 @@
       <c r="AM20" s="49"/>
       <c r="AS20" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="21" spans="1:45">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1">
       <c r="A21" s="48"/>
       <c r="B21" s="49"/>
       <c r="C21" s="49"/>
@@ -7198,7 +6923,7 @@
       <c r="AM21" s="49"/>
       <c r="AS21" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="22" spans="1:45">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1">
       <c r="A22" s="48"/>
       <c r="B22" s="49"/>
       <c r="C22" s="49"/>
@@ -7240,7 +6965,7 @@
       <c r="AM22" s="49"/>
       <c r="AS22" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="23" spans="1:45">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1">
       <c r="A23" s="48"/>
       <c r="B23" s="49"/>
       <c r="C23" s="49"/>
@@ -7282,7 +7007,7 @@
       <c r="AM23" s="49"/>
       <c r="AS23" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="24" spans="1:45">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1">
       <c r="A24" s="48"/>
       <c r="B24" s="49"/>
       <c r="C24" s="49"/>
@@ -7324,7 +7049,7 @@
       <c r="AM24" s="49"/>
       <c r="AS24" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="25" spans="1:45">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1">
       <c r="A25" s="48"/>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -7366,7 +7091,7 @@
       <c r="AM25" s="49"/>
       <c r="AS25" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="26" spans="1:45">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1">
       <c r="A26" s="48"/>
       <c r="B26" s="49"/>
       <c r="C26" s="49"/>
@@ -7408,7 +7133,7 @@
       <c r="AM26" s="49"/>
       <c r="AS26" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="27" spans="1:45">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="49"/>
       <c r="C27" s="49"/>
@@ -7450,7 +7175,7 @@
       <c r="AM27" s="49"/>
       <c r="AS27" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="28" spans="1:45">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1">
       <c r="A28" s="48"/>
       <c r="B28" s="49"/>
       <c r="C28" s="49"/>
@@ -7492,7 +7217,7 @@
       <c r="AM28" s="49"/>
       <c r="AS28" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="29" spans="1:45">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1">
       <c r="A29" s="48"/>
       <c r="B29" s="49"/>
       <c r="C29" s="49"/>
@@ -7534,7 +7259,7 @@
       <c r="AM29" s="49"/>
       <c r="AS29" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="30" spans="1:45">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1">
       <c r="A30" s="48"/>
       <c r="B30" s="49"/>
       <c r="C30" s="49"/>
@@ -7576,7 +7301,7 @@
       <c r="AM30" s="49"/>
       <c r="AS30" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="31" spans="1:45">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1">
       <c r="A31" s="48"/>
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
@@ -7618,7 +7343,7 @@
       <c r="AM31" s="49"/>
       <c r="AS31" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="32" spans="1:45">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -7660,7 +7385,7 @@
       <c r="AM32" s="49"/>
       <c r="AS32" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="33" spans="1:45">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1">
       <c r="A33" s="48"/>
       <c r="B33" s="49"/>
       <c r="C33" s="49"/>
@@ -7702,7 +7427,7 @@
       <c r="AM33" s="49"/>
       <c r="AS33" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="34" spans="1:45">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
@@ -7744,7 +7469,7 @@
       <c r="AM34" s="49"/>
       <c r="AS34" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="35" spans="1:45">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -7786,7 +7511,7 @@
       <c r="AM35" s="49"/>
       <c r="AS35" s="52"/>
     </row>
-    <row customHeight="1" ht="15.75" r="36" spans="1:45">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1">
       <c r="A36" s="53"/>
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
@@ -7836,6 +7561,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:N1"/>
     <mergeCell ref="AR1:AS2"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="U2:V2"/>
@@ -7849,23 +7580,17 @@
     <mergeCell ref="O1:V1"/>
     <mergeCell ref="W1:AE1"/>
     <mergeCell ref="AH1:AI1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:N1"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
-  <pageSetup cellComments="asDisplayed" firstPageNumber="75" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
+  <pageSetup paperSize="9" scale="93" firstPageNumber="75" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="36" man="1" max="44"/>
+    <brk id="36" max="44" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
@@ -7873,68 +7598,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS43"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" view="pageBreakPreview" workbookViewId="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100">
-      <selection activeCell="A5" sqref="A5:AS35"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="3.5703125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" customWidth="true" style="16" width="3.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="17" width="3.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="16" width="3.140625" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="17" width="3.140625" collapsed="true"/>
-    <col min="9" max="30" customWidth="true" style="16" width="3.140625" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="16" width="2.42578125" collapsed="true"/>
-    <col min="32" max="42" customWidth="true" style="16" width="3.140625" collapsed="true"/>
-    <col min="43" max="43" customWidth="true" style="16" width="2.140625" collapsed="true"/>
-    <col min="44" max="44" customWidth="true" style="16" width="3.140625" collapsed="true"/>
-    <col min="45" max="45" customWidth="true" style="16" width="4.0" collapsed="true"/>
-    <col min="46" max="16384" style="16" width="3.5703125" collapsed="true"/>
+    <col min="1" max="4" width="3.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="3.140625" style="17" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="3.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="3.140625" style="17" customWidth="1" collapsed="1"/>
+    <col min="9" max="30" width="3.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="2.42578125" style="16" customWidth="1" collapsed="1"/>
+    <col min="32" max="42" width="3.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="2.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="3.140625" style="16" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="4" style="16" customWidth="1" collapsed="1"/>
+    <col min="46" max="16384" width="3.5703125" style="16" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" spans="1:45">
-      <c r="A1" s="179" t="s">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A1" s="189" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="191" t="s">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="179" t="s">
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="181"/>
-      <c r="W1" s="191" t="s">
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="201" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="192"/>
-      <c r="AA1" s="192"/>
-      <c r="AB1" s="192"/>
-      <c r="AC1" s="192"/>
-      <c r="AD1" s="192"/>
-      <c r="AE1" s="192"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="202"/>
+      <c r="AA1" s="202"/>
+      <c r="AB1" s="202"/>
+      <c r="AC1" s="202"/>
+      <c r="AD1" s="202"/>
+      <c r="AE1" s="202"/>
       <c r="AF1" s="43" t="s">
         <v>35</v>
       </c>
@@ -7957,55 +7682,55 @@
       </c>
       <c r="AP1" s="177"/>
       <c r="AQ1" s="177"/>
-      <c r="AR1" s="178" t="s">
+      <c r="AR1" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="178"/>
-    </row>
-    <row customHeight="1" ht="27" r="2" spans="1:45">
-      <c r="A2" s="179" t="s">
+      <c r="AS1" s="188"/>
+    </row>
+    <row r="2" spans="1:45" ht="27" customHeight="1">
+      <c r="A2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="182" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="179" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="192" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="181"/>
-      <c r="O2" s="185" t="s">
+      <c r="N2" s="191"/>
+      <c r="O2" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="179" t="s">
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="196"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="181"/>
-      <c r="W2" s="188" t="s">
-        <v>80</v>
-      </c>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="190"/>
+      <c r="V2" s="191"/>
+      <c r="W2" s="198" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+      <c r="AA2" s="199"/>
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="199"/>
+      <c r="AD2" s="199"/>
+      <c r="AE2" s="200"/>
       <c r="AF2" s="43" t="s">
         <v>30</v>
       </c>
@@ -8030,1907 +7755,1900 @@
       </c>
       <c r="AP2" s="177"/>
       <c r="AQ2" s="177"/>
-      <c r="AR2" s="178"/>
-      <c r="AS2" s="178"/>
-    </row>
-    <row customHeight="1" ht="3.75" r="3" spans="1:45"/>
-    <row customHeight="1" ht="15.75" r="4" spans="1:45">
-      <c r="A4" s="195" t="s">
+      <c r="AR2" s="188"/>
+      <c r="AS2" s="188"/>
+    </row>
+    <row r="3" spans="1:45" ht="3.75" customHeight="1"/>
+    <row r="4" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A4" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="195"/>
-      <c r="C4" s="195"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="195"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="195"/>
-      <c r="I4" s="195"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="195"/>
-      <c r="L4" s="195"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="195"/>
-      <c r="P4" s="195"/>
-      <c r="Q4" s="195"/>
-      <c r="R4" s="195"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="195"/>
-      <c r="U4" s="195"/>
-      <c r="V4" s="195"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="195"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="195"/>
-      <c r="AA4" s="195"/>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="195"/>
-      <c r="AD4" s="195"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="195"/>
-      <c r="AG4" s="195"/>
-      <c r="AH4" s="195"/>
-      <c r="AI4" s="195"/>
-      <c r="AJ4" s="195"/>
-      <c r="AK4" s="195"/>
-      <c r="AL4" s="195"/>
-      <c r="AM4" s="195"/>
-      <c r="AN4" s="195"/>
-      <c r="AO4" s="195"/>
-      <c r="AP4" s="195"/>
-      <c r="AQ4" s="195"/>
-      <c r="AR4" s="195"/>
-      <c r="AS4" s="195"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" spans="1:45">
-      <c r="A5" s="196" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="197"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="197"/>
-      <c r="E5" s="197"/>
-      <c r="F5" s="197"/>
-      <c r="G5" s="197"/>
-      <c r="H5" s="197"/>
-      <c r="I5" s="197"/>
-      <c r="J5" s="197"/>
-      <c r="K5" s="197"/>
-      <c r="L5" s="197"/>
-      <c r="M5" s="197"/>
-      <c r="N5" s="197"/>
-      <c r="O5" s="197"/>
-      <c r="P5" s="197"/>
-      <c r="Q5" s="197"/>
-      <c r="R5" s="197"/>
-      <c r="S5" s="197"/>
-      <c r="T5" s="197"/>
-      <c r="U5" s="197"/>
-      <c r="V5" s="197"/>
-      <c r="W5" s="197"/>
-      <c r="X5" s="197"/>
-      <c r="Y5" s="197"/>
-      <c r="Z5" s="197"/>
-      <c r="AA5" s="197"/>
-      <c r="AB5" s="197"/>
-      <c r="AC5" s="197"/>
-      <c r="AD5" s="197"/>
-      <c r="AE5" s="197"/>
-      <c r="AF5" s="197"/>
-      <c r="AG5" s="197"/>
-      <c r="AH5" s="197"/>
-      <c r="AI5" s="197"/>
-      <c r="AJ5" s="197"/>
-      <c r="AK5" s="197"/>
-      <c r="AL5" s="197"/>
-      <c r="AM5" s="197"/>
-      <c r="AN5" s="197"/>
-      <c r="AO5" s="197"/>
-      <c r="AP5" s="197"/>
-      <c r="AQ5" s="197"/>
-      <c r="AR5" s="197"/>
-      <c r="AS5" s="198"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" spans="1:45">
-      <c r="A6" s="199"/>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="200"/>
-      <c r="I6" s="200"/>
-      <c r="J6" s="200"/>
-      <c r="K6" s="200"/>
-      <c r="L6" s="200"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
-      <c r="P6" s="200"/>
-      <c r="Q6" s="200"/>
-      <c r="R6" s="200"/>
-      <c r="S6" s="200"/>
-      <c r="T6" s="200"/>
-      <c r="U6" s="200"/>
-      <c r="V6" s="200"/>
-      <c r="W6" s="200"/>
-      <c r="X6" s="200"/>
-      <c r="Y6" s="200"/>
-      <c r="Z6" s="200"/>
-      <c r="AA6" s="200"/>
-      <c r="AB6" s="200"/>
-      <c r="AC6" s="200"/>
-      <c r="AD6" s="200"/>
-      <c r="AE6" s="200"/>
-      <c r="AF6" s="200"/>
-      <c r="AG6" s="200"/>
-      <c r="AH6" s="200"/>
-      <c r="AI6" s="200"/>
-      <c r="AJ6" s="200"/>
-      <c r="AK6" s="200"/>
-      <c r="AL6" s="200"/>
-      <c r="AM6" s="200"/>
-      <c r="AN6" s="200"/>
-      <c r="AO6" s="200"/>
-      <c r="AP6" s="200"/>
-      <c r="AQ6" s="200"/>
-      <c r="AR6" s="200"/>
-      <c r="AS6" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" spans="1:45">
-      <c r="A7" s="199"/>
-      <c r="B7" s="200"/>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="200"/>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="200"/>
-      <c r="AJ7" s="200"/>
-      <c r="AK7" s="200"/>
-      <c r="AL7" s="200"/>
-      <c r="AM7" s="200"/>
-      <c r="AN7" s="200"/>
-      <c r="AO7" s="200"/>
-      <c r="AP7" s="200"/>
-      <c r="AQ7" s="200"/>
-      <c r="AR7" s="200"/>
-      <c r="AS7" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" spans="1:45">
-      <c r="A8" s="199"/>
-      <c r="B8" s="200"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="200"/>
-      <c r="W8" s="200"/>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="200"/>
-      <c r="Z8" s="200"/>
-      <c r="AA8" s="200"/>
-      <c r="AB8" s="200"/>
-      <c r="AC8" s="200"/>
-      <c r="AD8" s="200"/>
-      <c r="AE8" s="200"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="200"/>
-      <c r="AJ8" s="200"/>
-      <c r="AK8" s="200"/>
-      <c r="AL8" s="200"/>
-      <c r="AM8" s="200"/>
-      <c r="AN8" s="200"/>
-      <c r="AO8" s="200"/>
-      <c r="AP8" s="200"/>
-      <c r="AQ8" s="200"/>
-      <c r="AR8" s="200"/>
-      <c r="AS8" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" spans="1:45">
-      <c r="A9" s="199"/>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="200"/>
-      <c r="Q9" s="200"/>
-      <c r="R9" s="200"/>
-      <c r="S9" s="200"/>
-      <c r="T9" s="200"/>
-      <c r="U9" s="200"/>
-      <c r="V9" s="200"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="200"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="200"/>
-      <c r="AE9" s="200"/>
-      <c r="AF9" s="200"/>
-      <c r="AG9" s="200"/>
-      <c r="AH9" s="200"/>
-      <c r="AI9" s="200"/>
-      <c r="AJ9" s="200"/>
-      <c r="AK9" s="200"/>
-      <c r="AL9" s="200"/>
-      <c r="AM9" s="200"/>
-      <c r="AN9" s="200"/>
-      <c r="AO9" s="200"/>
-      <c r="AP9" s="200"/>
-      <c r="AQ9" s="200"/>
-      <c r="AR9" s="200"/>
-      <c r="AS9" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="10" spans="1:45">
-      <c r="A10" s="199"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="200"/>
-      <c r="R10" s="200"/>
-      <c r="S10" s="200"/>
-      <c r="T10" s="200"/>
-      <c r="U10" s="200"/>
-      <c r="V10" s="200"/>
-      <c r="W10" s="200"/>
-      <c r="X10" s="200"/>
-      <c r="Y10" s="200"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="200"/>
-      <c r="AB10" s="200"/>
-      <c r="AC10" s="200"/>
-      <c r="AD10" s="200"/>
-      <c r="AE10" s="200"/>
-      <c r="AF10" s="200"/>
-      <c r="AG10" s="200"/>
-      <c r="AH10" s="200"/>
-      <c r="AI10" s="200"/>
-      <c r="AJ10" s="200"/>
-      <c r="AK10" s="200"/>
-      <c r="AL10" s="200"/>
-      <c r="AM10" s="200"/>
-      <c r="AN10" s="200"/>
-      <c r="AO10" s="200"/>
-      <c r="AP10" s="200"/>
-      <c r="AQ10" s="200"/>
-      <c r="AR10" s="200"/>
-      <c r="AS10" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" spans="1:45">
-      <c r="A11" s="199"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="200"/>
-      <c r="R11" s="200"/>
-      <c r="S11" s="200"/>
-      <c r="T11" s="200"/>
-      <c r="U11" s="200"/>
-      <c r="V11" s="200"/>
-      <c r="W11" s="200"/>
-      <c r="X11" s="200"/>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="200"/>
-      <c r="AE11" s="200"/>
-      <c r="AF11" s="200"/>
-      <c r="AG11" s="200"/>
-      <c r="AH11" s="200"/>
-      <c r="AI11" s="200"/>
-      <c r="AJ11" s="200"/>
-      <c r="AK11" s="200"/>
-      <c r="AL11" s="200"/>
-      <c r="AM11" s="200"/>
-      <c r="AN11" s="200"/>
-      <c r="AO11" s="200"/>
-      <c r="AP11" s="200"/>
-      <c r="AQ11" s="200"/>
-      <c r="AR11" s="200"/>
-      <c r="AS11" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" spans="1:45">
-      <c r="A12" s="199"/>
-      <c r="B12" s="200"/>
-      <c r="C12" s="200"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="200"/>
-      <c r="Q12" s="200"/>
-      <c r="R12" s="200"/>
-      <c r="S12" s="200"/>
-      <c r="T12" s="200"/>
-      <c r="U12" s="200"/>
-      <c r="V12" s="200"/>
-      <c r="W12" s="200"/>
-      <c r="X12" s="200"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
-      <c r="AA12" s="200"/>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="200"/>
-      <c r="AD12" s="200"/>
-      <c r="AE12" s="200"/>
-      <c r="AF12" s="200"/>
-      <c r="AG12" s="200"/>
-      <c r="AH12" s="200"/>
-      <c r="AI12" s="200"/>
-      <c r="AJ12" s="200"/>
-      <c r="AK12" s="200"/>
-      <c r="AL12" s="200"/>
-      <c r="AM12" s="200"/>
-      <c r="AN12" s="200"/>
-      <c r="AO12" s="200"/>
-      <c r="AP12" s="200"/>
-      <c r="AQ12" s="200"/>
-      <c r="AR12" s="200"/>
-      <c r="AS12" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" spans="1:45">
-      <c r="A13" s="199"/>
-      <c r="B13" s="200"/>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="200"/>
-      <c r="Q13" s="200"/>
-      <c r="R13" s="200"/>
-      <c r="S13" s="200"/>
-      <c r="T13" s="200"/>
-      <c r="U13" s="200"/>
-      <c r="V13" s="200"/>
-      <c r="W13" s="200"/>
-      <c r="X13" s="200"/>
-      <c r="Y13" s="200"/>
-      <c r="Z13" s="200"/>
-      <c r="AA13" s="200"/>
-      <c r="AB13" s="200"/>
-      <c r="AC13" s="200"/>
-      <c r="AD13" s="200"/>
-      <c r="AE13" s="200"/>
-      <c r="AF13" s="200"/>
-      <c r="AG13" s="200"/>
-      <c r="AH13" s="200"/>
-      <c r="AI13" s="200"/>
-      <c r="AJ13" s="200"/>
-      <c r="AK13" s="200"/>
-      <c r="AL13" s="200"/>
-      <c r="AM13" s="200"/>
-      <c r="AN13" s="200"/>
-      <c r="AO13" s="200"/>
-      <c r="AP13" s="200"/>
-      <c r="AQ13" s="200"/>
-      <c r="AR13" s="200"/>
-      <c r="AS13" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" spans="1:45">
-      <c r="A14" s="199"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="200"/>
-      <c r="Q14" s="200"/>
-      <c r="R14" s="200"/>
-      <c r="S14" s="200"/>
-      <c r="T14" s="200"/>
-      <c r="U14" s="200"/>
-      <c r="V14" s="200"/>
-      <c r="W14" s="200"/>
-      <c r="X14" s="200"/>
-      <c r="Y14" s="200"/>
-      <c r="Z14" s="200"/>
-      <c r="AA14" s="200"/>
-      <c r="AB14" s="200"/>
-      <c r="AC14" s="200"/>
-      <c r="AD14" s="200"/>
-      <c r="AE14" s="200"/>
-      <c r="AF14" s="200"/>
-      <c r="AG14" s="200"/>
-      <c r="AH14" s="200"/>
-      <c r="AI14" s="200"/>
-      <c r="AJ14" s="200"/>
-      <c r="AK14" s="200"/>
-      <c r="AL14" s="200"/>
-      <c r="AM14" s="200"/>
-      <c r="AN14" s="200"/>
-      <c r="AO14" s="200"/>
-      <c r="AP14" s="200"/>
-      <c r="AQ14" s="200"/>
-      <c r="AR14" s="200"/>
-      <c r="AS14" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" spans="1:45">
-      <c r="A15" s="199"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="200"/>
-      <c r="Q15" s="200"/>
-      <c r="R15" s="200"/>
-      <c r="S15" s="200"/>
-      <c r="T15" s="200"/>
-      <c r="U15" s="200"/>
-      <c r="V15" s="200"/>
-      <c r="W15" s="200"/>
-      <c r="X15" s="200"/>
-      <c r="Y15" s="200"/>
-      <c r="Z15" s="200"/>
-      <c r="AA15" s="200"/>
-      <c r="AB15" s="200"/>
-      <c r="AC15" s="200"/>
-      <c r="AD15" s="200"/>
-      <c r="AE15" s="200"/>
-      <c r="AF15" s="200"/>
-      <c r="AG15" s="200"/>
-      <c r="AH15" s="200"/>
-      <c r="AI15" s="200"/>
-      <c r="AJ15" s="200"/>
-      <c r="AK15" s="200"/>
-      <c r="AL15" s="200"/>
-      <c r="AM15" s="200"/>
-      <c r="AN15" s="200"/>
-      <c r="AO15" s="200"/>
-      <c r="AP15" s="200"/>
-      <c r="AQ15" s="200"/>
-      <c r="AR15" s="200"/>
-      <c r="AS15" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="16" spans="1:45">
-      <c r="A16" s="199"/>
-      <c r="B16" s="200"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="200"/>
-      <c r="P16" s="200"/>
-      <c r="Q16" s="200"/>
-      <c r="R16" s="200"/>
-      <c r="S16" s="200"/>
-      <c r="T16" s="200"/>
-      <c r="U16" s="200"/>
-      <c r="V16" s="200"/>
-      <c r="W16" s="200"/>
-      <c r="X16" s="200"/>
-      <c r="Y16" s="200"/>
-      <c r="Z16" s="200"/>
-      <c r="AA16" s="200"/>
-      <c r="AB16" s="200"/>
-      <c r="AC16" s="200"/>
-      <c r="AD16" s="200"/>
-      <c r="AE16" s="200"/>
-      <c r="AF16" s="200"/>
-      <c r="AG16" s="200"/>
-      <c r="AH16" s="200"/>
-      <c r="AI16" s="200"/>
-      <c r="AJ16" s="200"/>
-      <c r="AK16" s="200"/>
-      <c r="AL16" s="200"/>
-      <c r="AM16" s="200"/>
-      <c r="AN16" s="200"/>
-      <c r="AO16" s="200"/>
-      <c r="AP16" s="200"/>
-      <c r="AQ16" s="200"/>
-      <c r="AR16" s="200"/>
-      <c r="AS16" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" spans="1:45">
-      <c r="A17" s="199"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="200"/>
-      <c r="Q17" s="200"/>
-      <c r="R17" s="200"/>
-      <c r="S17" s="200"/>
-      <c r="T17" s="200"/>
-      <c r="U17" s="200"/>
-      <c r="V17" s="200"/>
-      <c r="W17" s="200"/>
-      <c r="X17" s="200"/>
-      <c r="Y17" s="200"/>
-      <c r="Z17" s="200"/>
-      <c r="AA17" s="200"/>
-      <c r="AB17" s="200"/>
-      <c r="AC17" s="200"/>
-      <c r="AD17" s="200"/>
-      <c r="AE17" s="200"/>
-      <c r="AF17" s="200"/>
-      <c r="AG17" s="200"/>
-      <c r="AH17" s="200"/>
-      <c r="AI17" s="200"/>
-      <c r="AJ17" s="200"/>
-      <c r="AK17" s="200"/>
-      <c r="AL17" s="200"/>
-      <c r="AM17" s="200"/>
-      <c r="AN17" s="200"/>
-      <c r="AO17" s="200"/>
-      <c r="AP17" s="200"/>
-      <c r="AQ17" s="200"/>
-      <c r="AR17" s="200"/>
-      <c r="AS17" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" spans="1:45">
-      <c r="A18" s="199"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="200"/>
-      <c r="R18" s="200"/>
-      <c r="S18" s="200"/>
-      <c r="T18" s="200"/>
-      <c r="U18" s="200"/>
-      <c r="V18" s="200"/>
-      <c r="W18" s="200"/>
-      <c r="X18" s="200"/>
-      <c r="Y18" s="200"/>
-      <c r="Z18" s="200"/>
-      <c r="AA18" s="200"/>
-      <c r="AB18" s="200"/>
-      <c r="AC18" s="200"/>
-      <c r="AD18" s="200"/>
-      <c r="AE18" s="200"/>
-      <c r="AF18" s="200"/>
-      <c r="AG18" s="200"/>
-      <c r="AH18" s="200"/>
-      <c r="AI18" s="200"/>
-      <c r="AJ18" s="200"/>
-      <c r="AK18" s="200"/>
-      <c r="AL18" s="200"/>
-      <c r="AM18" s="200"/>
-      <c r="AN18" s="200"/>
-      <c r="AO18" s="200"/>
-      <c r="AP18" s="200"/>
-      <c r="AQ18" s="200"/>
-      <c r="AR18" s="200"/>
-      <c r="AS18" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" spans="1:45">
-      <c r="A19" s="199"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="200"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="200"/>
-      <c r="R19" s="200"/>
-      <c r="S19" s="200"/>
-      <c r="T19" s="200"/>
-      <c r="U19" s="200"/>
-      <c r="V19" s="200"/>
-      <c r="W19" s="200"/>
-      <c r="X19" s="200"/>
-      <c r="Y19" s="200"/>
-      <c r="Z19" s="200"/>
-      <c r="AA19" s="200"/>
-      <c r="AB19" s="200"/>
-      <c r="AC19" s="200"/>
-      <c r="AD19" s="200"/>
-      <c r="AE19" s="200"/>
-      <c r="AF19" s="200"/>
-      <c r="AG19" s="200"/>
-      <c r="AH19" s="200"/>
-      <c r="AI19" s="200"/>
-      <c r="AJ19" s="200"/>
-      <c r="AK19" s="200"/>
-      <c r="AL19" s="200"/>
-      <c r="AM19" s="200"/>
-      <c r="AN19" s="200"/>
-      <c r="AO19" s="200"/>
-      <c r="AP19" s="200"/>
-      <c r="AQ19" s="200"/>
-      <c r="AR19" s="200"/>
-      <c r="AS19" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" spans="1:45">
-      <c r="A20" s="199"/>
-      <c r="B20" s="200"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="200"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="200"/>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="200"/>
-      <c r="R20" s="200"/>
-      <c r="S20" s="200"/>
-      <c r="T20" s="200"/>
-      <c r="U20" s="200"/>
-      <c r="V20" s="200"/>
-      <c r="W20" s="200"/>
-      <c r="X20" s="200"/>
-      <c r="Y20" s="200"/>
-      <c r="Z20" s="200"/>
-      <c r="AA20" s="200"/>
-      <c r="AB20" s="200"/>
-      <c r="AC20" s="200"/>
-      <c r="AD20" s="200"/>
-      <c r="AE20" s="200"/>
-      <c r="AF20" s="200"/>
-      <c r="AG20" s="200"/>
-      <c r="AH20" s="200"/>
-      <c r="AI20" s="200"/>
-      <c r="AJ20" s="200"/>
-      <c r="AK20" s="200"/>
-      <c r="AL20" s="200"/>
-      <c r="AM20" s="200"/>
-      <c r="AN20" s="200"/>
-      <c r="AO20" s="200"/>
-      <c r="AP20" s="200"/>
-      <c r="AQ20" s="200"/>
-      <c r="AR20" s="200"/>
-      <c r="AS20" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21" spans="1:45">
-      <c r="A21" s="199"/>
-      <c r="B21" s="200"/>
-      <c r="C21" s="200"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="200"/>
-      <c r="Q21" s="200"/>
-      <c r="R21" s="200"/>
-      <c r="S21" s="200"/>
-      <c r="T21" s="200"/>
-      <c r="U21" s="200"/>
-      <c r="V21" s="200"/>
-      <c r="W21" s="200"/>
-      <c r="X21" s="200"/>
-      <c r="Y21" s="200"/>
-      <c r="Z21" s="200"/>
-      <c r="AA21" s="200"/>
-      <c r="AB21" s="200"/>
-      <c r="AC21" s="200"/>
-      <c r="AD21" s="200"/>
-      <c r="AE21" s="200"/>
-      <c r="AF21" s="200"/>
-      <c r="AG21" s="200"/>
-      <c r="AH21" s="200"/>
-      <c r="AI21" s="200"/>
-      <c r="AJ21" s="200"/>
-      <c r="AK21" s="200"/>
-      <c r="AL21" s="200"/>
-      <c r="AM21" s="200"/>
-      <c r="AN21" s="200"/>
-      <c r="AO21" s="200"/>
-      <c r="AP21" s="200"/>
-      <c r="AQ21" s="200"/>
-      <c r="AR21" s="200"/>
-      <c r="AS21" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="22" spans="1:45">
-      <c r="A22" s="199"/>
-      <c r="B22" s="200"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="200"/>
-      <c r="M22" s="200"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="200"/>
-      <c r="P22" s="200"/>
-      <c r="Q22" s="200"/>
-      <c r="R22" s="200"/>
-      <c r="S22" s="200"/>
-      <c r="T22" s="200"/>
-      <c r="U22" s="200"/>
-      <c r="V22" s="200"/>
-      <c r="W22" s="200"/>
-      <c r="X22" s="200"/>
-      <c r="Y22" s="200"/>
-      <c r="Z22" s="200"/>
-      <c r="AA22" s="200"/>
-      <c r="AB22" s="200"/>
-      <c r="AC22" s="200"/>
-      <c r="AD22" s="200"/>
-      <c r="AE22" s="200"/>
-      <c r="AF22" s="200"/>
-      <c r="AG22" s="200"/>
-      <c r="AH22" s="200"/>
-      <c r="AI22" s="200"/>
-      <c r="AJ22" s="200"/>
-      <c r="AK22" s="200"/>
-      <c r="AL22" s="200"/>
-      <c r="AM22" s="200"/>
-      <c r="AN22" s="200"/>
-      <c r="AO22" s="200"/>
-      <c r="AP22" s="200"/>
-      <c r="AQ22" s="200"/>
-      <c r="AR22" s="200"/>
-      <c r="AS22" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" spans="1:45">
-      <c r="A23" s="199"/>
-      <c r="B23" s="200"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="200"/>
-      <c r="Q23" s="200"/>
-      <c r="R23" s="200"/>
-      <c r="S23" s="200"/>
-      <c r="T23" s="200"/>
-      <c r="U23" s="200"/>
-      <c r="V23" s="200"/>
-      <c r="W23" s="200"/>
-      <c r="X23" s="200"/>
-      <c r="Y23" s="200"/>
-      <c r="Z23" s="200"/>
-      <c r="AA23" s="200"/>
-      <c r="AB23" s="200"/>
-      <c r="AC23" s="200"/>
-      <c r="AD23" s="200"/>
-      <c r="AE23" s="200"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="200"/>
-      <c r="AI23" s="200"/>
-      <c r="AJ23" s="200"/>
-      <c r="AK23" s="200"/>
-      <c r="AL23" s="200"/>
-      <c r="AM23" s="200"/>
-      <c r="AN23" s="200"/>
-      <c r="AO23" s="200"/>
-      <c r="AP23" s="200"/>
-      <c r="AQ23" s="200"/>
-      <c r="AR23" s="200"/>
-      <c r="AS23" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="24" spans="1:45">
-      <c r="A24" s="199"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="200"/>
-      <c r="M24" s="200"/>
-      <c r="N24" s="200"/>
-      <c r="O24" s="200"/>
-      <c r="P24" s="200"/>
-      <c r="Q24" s="200"/>
-      <c r="R24" s="200"/>
-      <c r="S24" s="200"/>
-      <c r="T24" s="200"/>
-      <c r="U24" s="200"/>
-      <c r="V24" s="200"/>
-      <c r="W24" s="200"/>
-      <c r="X24" s="200"/>
-      <c r="Y24" s="200"/>
-      <c r="Z24" s="200"/>
-      <c r="AA24" s="200"/>
-      <c r="AB24" s="200"/>
-      <c r="AC24" s="200"/>
-      <c r="AD24" s="200"/>
-      <c r="AE24" s="200"/>
-      <c r="AF24" s="200"/>
-      <c r="AG24" s="200"/>
-      <c r="AH24" s="200"/>
-      <c r="AI24" s="200"/>
-      <c r="AJ24" s="200"/>
-      <c r="AK24" s="200"/>
-      <c r="AL24" s="200"/>
-      <c r="AM24" s="200"/>
-      <c r="AN24" s="200"/>
-      <c r="AO24" s="200"/>
-      <c r="AP24" s="200"/>
-      <c r="AQ24" s="200"/>
-      <c r="AR24" s="200"/>
-      <c r="AS24" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="25" spans="1:45">
-      <c r="A25" s="199"/>
-      <c r="B25" s="200"/>
-      <c r="C25" s="200"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="200"/>
-      <c r="M25" s="200"/>
-      <c r="N25" s="200"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="200"/>
-      <c r="Q25" s="200"/>
-      <c r="R25" s="200"/>
-      <c r="S25" s="200"/>
-      <c r="T25" s="200"/>
-      <c r="U25" s="200"/>
-      <c r="V25" s="200"/>
-      <c r="W25" s="200"/>
-      <c r="X25" s="200"/>
-      <c r="Y25" s="200"/>
-      <c r="Z25" s="200"/>
-      <c r="AA25" s="200"/>
-      <c r="AB25" s="200"/>
-      <c r="AC25" s="200"/>
-      <c r="AD25" s="200"/>
-      <c r="AE25" s="200"/>
-      <c r="AF25" s="200"/>
-      <c r="AG25" s="200"/>
-      <c r="AH25" s="200"/>
-      <c r="AI25" s="200"/>
-      <c r="AJ25" s="200"/>
-      <c r="AK25" s="200"/>
-      <c r="AL25" s="200"/>
-      <c r="AM25" s="200"/>
-      <c r="AN25" s="200"/>
-      <c r="AO25" s="200"/>
-      <c r="AP25" s="200"/>
-      <c r="AQ25" s="200"/>
-      <c r="AR25" s="200"/>
-      <c r="AS25" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="26" spans="1:45">
-      <c r="A26" s="199"/>
-      <c r="B26" s="200"/>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="200"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="200"/>
-      <c r="R26" s="200"/>
-      <c r="S26" s="200"/>
-      <c r="T26" s="200"/>
-      <c r="U26" s="200"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="200"/>
-      <c r="Y26" s="200"/>
-      <c r="Z26" s="200"/>
-      <c r="AA26" s="200"/>
-      <c r="AB26" s="200"/>
-      <c r="AC26" s="200"/>
-      <c r="AD26" s="200"/>
-      <c r="AE26" s="200"/>
-      <c r="AF26" s="200"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="200"/>
-      <c r="AI26" s="200"/>
-      <c r="AJ26" s="200"/>
-      <c r="AK26" s="200"/>
-      <c r="AL26" s="200"/>
-      <c r="AM26" s="200"/>
-      <c r="AN26" s="200"/>
-      <c r="AO26" s="200"/>
-      <c r="AP26" s="200"/>
-      <c r="AQ26" s="200"/>
-      <c r="AR26" s="200"/>
-      <c r="AS26" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" spans="1:45">
-      <c r="A27" s="199"/>
-      <c r="B27" s="200"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="200"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="200"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="200"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="200"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="200"/>
-      <c r="S27" s="200"/>
-      <c r="T27" s="200"/>
-      <c r="U27" s="200"/>
-      <c r="V27" s="200"/>
-      <c r="W27" s="200"/>
-      <c r="X27" s="200"/>
-      <c r="Y27" s="200"/>
-      <c r="Z27" s="200"/>
-      <c r="AA27" s="200"/>
-      <c r="AB27" s="200"/>
-      <c r="AC27" s="200"/>
-      <c r="AD27" s="200"/>
-      <c r="AE27" s="200"/>
-      <c r="AF27" s="200"/>
-      <c r="AG27" s="200"/>
-      <c r="AH27" s="200"/>
-      <c r="AI27" s="200"/>
-      <c r="AJ27" s="200"/>
-      <c r="AK27" s="200"/>
-      <c r="AL27" s="200"/>
-      <c r="AM27" s="200"/>
-      <c r="AN27" s="200"/>
-      <c r="AO27" s="200"/>
-      <c r="AP27" s="200"/>
-      <c r="AQ27" s="200"/>
-      <c r="AR27" s="200"/>
-      <c r="AS27" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="28" spans="1:45">
-      <c r="A28" s="199"/>
-      <c r="B28" s="200"/>
-      <c r="C28" s="200"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="200"/>
-      <c r="F28" s="200"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="200"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="200"/>
-      <c r="M28" s="200"/>
-      <c r="N28" s="200"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="200"/>
-      <c r="Q28" s="200"/>
-      <c r="R28" s="200"/>
-      <c r="S28" s="200"/>
-      <c r="T28" s="200"/>
-      <c r="U28" s="200"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="200"/>
-      <c r="Y28" s="200"/>
-      <c r="Z28" s="200"/>
-      <c r="AA28" s="200"/>
-      <c r="AB28" s="200"/>
-      <c r="AC28" s="200"/>
-      <c r="AD28" s="200"/>
-      <c r="AE28" s="200"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="200"/>
-      <c r="AI28" s="200"/>
-      <c r="AJ28" s="200"/>
-      <c r="AK28" s="200"/>
-      <c r="AL28" s="200"/>
-      <c r="AM28" s="200"/>
-      <c r="AN28" s="200"/>
-      <c r="AO28" s="200"/>
-      <c r="AP28" s="200"/>
-      <c r="AQ28" s="200"/>
-      <c r="AR28" s="200"/>
-      <c r="AS28" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="29" spans="1:45">
-      <c r="A29" s="199"/>
-      <c r="B29" s="200"/>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="200"/>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="200"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="200"/>
-      <c r="M29" s="200"/>
-      <c r="N29" s="200"/>
-      <c r="O29" s="200"/>
-      <c r="P29" s="200"/>
-      <c r="Q29" s="200"/>
-      <c r="R29" s="200"/>
-      <c r="S29" s="200"/>
-      <c r="T29" s="200"/>
-      <c r="U29" s="200"/>
-      <c r="V29" s="200"/>
-      <c r="W29" s="200"/>
-      <c r="X29" s="200"/>
-      <c r="Y29" s="200"/>
-      <c r="Z29" s="200"/>
-      <c r="AA29" s="200"/>
-      <c r="AB29" s="200"/>
-      <c r="AC29" s="200"/>
-      <c r="AD29" s="200"/>
-      <c r="AE29" s="200"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="200"/>
-      <c r="AI29" s="200"/>
-      <c r="AJ29" s="200"/>
-      <c r="AK29" s="200"/>
-      <c r="AL29" s="200"/>
-      <c r="AM29" s="200"/>
-      <c r="AN29" s="200"/>
-      <c r="AO29" s="200"/>
-      <c r="AP29" s="200"/>
-      <c r="AQ29" s="200"/>
-      <c r="AR29" s="200"/>
-      <c r="AS29" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="30" spans="1:45">
-      <c r="A30" s="199"/>
-      <c r="B30" s="200"/>
-      <c r="C30" s="200"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="200"/>
-      <c r="L30" s="200"/>
-      <c r="M30" s="200"/>
-      <c r="N30" s="200"/>
-      <c r="O30" s="200"/>
-      <c r="P30" s="200"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="200"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="200"/>
-      <c r="Y30" s="200"/>
-      <c r="Z30" s="200"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="200"/>
-      <c r="AC30" s="200"/>
-      <c r="AD30" s="200"/>
-      <c r="AE30" s="200"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="200"/>
-      <c r="AH30" s="200"/>
-      <c r="AI30" s="200"/>
-      <c r="AJ30" s="200"/>
-      <c r="AK30" s="200"/>
-      <c r="AL30" s="200"/>
-      <c r="AM30" s="200"/>
-      <c r="AN30" s="200"/>
-      <c r="AO30" s="200"/>
-      <c r="AP30" s="200"/>
-      <c r="AQ30" s="200"/>
-      <c r="AR30" s="200"/>
-      <c r="AS30" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="31" spans="1:45">
-      <c r="A31" s="199"/>
-      <c r="B31" s="200"/>
-      <c r="C31" s="200"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="200"/>
-      <c r="F31" s="200"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="200"/>
-      <c r="M31" s="200"/>
-      <c r="N31" s="200"/>
-      <c r="O31" s="200"/>
-      <c r="P31" s="200"/>
-      <c r="Q31" s="200"/>
-      <c r="R31" s="200"/>
-      <c r="S31" s="200"/>
-      <c r="T31" s="200"/>
-      <c r="U31" s="200"/>
-      <c r="V31" s="200"/>
-      <c r="W31" s="200"/>
-      <c r="X31" s="200"/>
-      <c r="Y31" s="200"/>
-      <c r="Z31" s="200"/>
-      <c r="AA31" s="200"/>
-      <c r="AB31" s="200"/>
-      <c r="AC31" s="200"/>
-      <c r="AD31" s="200"/>
-      <c r="AE31" s="200"/>
-      <c r="AF31" s="200"/>
-      <c r="AG31" s="200"/>
-      <c r="AH31" s="200"/>
-      <c r="AI31" s="200"/>
-      <c r="AJ31" s="200"/>
-      <c r="AK31" s="200"/>
-      <c r="AL31" s="200"/>
-      <c r="AM31" s="200"/>
-      <c r="AN31" s="200"/>
-      <c r="AO31" s="200"/>
-      <c r="AP31" s="200"/>
-      <c r="AQ31" s="200"/>
-      <c r="AR31" s="200"/>
-      <c r="AS31" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="32" spans="1:45">
-      <c r="A32" s="199"/>
-      <c r="B32" s="200"/>
-      <c r="C32" s="200"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="200"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="200"/>
-      <c r="N32" s="200"/>
-      <c r="O32" s="200"/>
-      <c r="P32" s="200"/>
-      <c r="Q32" s="200"/>
-      <c r="R32" s="200"/>
-      <c r="S32" s="200"/>
-      <c r="T32" s="200"/>
-      <c r="U32" s="200"/>
-      <c r="V32" s="200"/>
-      <c r="W32" s="200"/>
-      <c r="X32" s="200"/>
-      <c r="Y32" s="200"/>
-      <c r="Z32" s="200"/>
-      <c r="AA32" s="200"/>
-      <c r="AB32" s="200"/>
-      <c r="AC32" s="200"/>
-      <c r="AD32" s="200"/>
-      <c r="AE32" s="200"/>
-      <c r="AF32" s="200"/>
-      <c r="AG32" s="200"/>
-      <c r="AH32" s="200"/>
-      <c r="AI32" s="200"/>
-      <c r="AJ32" s="200"/>
-      <c r="AK32" s="200"/>
-      <c r="AL32" s="200"/>
-      <c r="AM32" s="200"/>
-      <c r="AN32" s="200"/>
-      <c r="AO32" s="200"/>
-      <c r="AP32" s="200"/>
-      <c r="AQ32" s="200"/>
-      <c r="AR32" s="200"/>
-      <c r="AS32" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" spans="1:45">
-      <c r="A33" s="199"/>
-      <c r="B33" s="200"/>
-      <c r="C33" s="200"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="200"/>
-      <c r="M33" s="200"/>
-      <c r="N33" s="200"/>
-      <c r="O33" s="200"/>
-      <c r="P33" s="200"/>
-      <c r="Q33" s="200"/>
-      <c r="R33" s="200"/>
-      <c r="S33" s="200"/>
-      <c r="T33" s="200"/>
-      <c r="U33" s="200"/>
-      <c r="V33" s="200"/>
-      <c r="W33" s="200"/>
-      <c r="X33" s="200"/>
-      <c r="Y33" s="200"/>
-      <c r="Z33" s="200"/>
-      <c r="AA33" s="200"/>
-      <c r="AB33" s="200"/>
-      <c r="AC33" s="200"/>
-      <c r="AD33" s="200"/>
-      <c r="AE33" s="200"/>
-      <c r="AF33" s="200"/>
-      <c r="AG33" s="200"/>
-      <c r="AH33" s="200"/>
-      <c r="AI33" s="200"/>
-      <c r="AJ33" s="200"/>
-      <c r="AK33" s="200"/>
-      <c r="AL33" s="200"/>
-      <c r="AM33" s="200"/>
-      <c r="AN33" s="200"/>
-      <c r="AO33" s="200"/>
-      <c r="AP33" s="200"/>
-      <c r="AQ33" s="200"/>
-      <c r="AR33" s="200"/>
-      <c r="AS33" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="34" spans="1:45">
-      <c r="A34" s="199"/>
-      <c r="B34" s="200"/>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="200"/>
-      <c r="L34" s="200"/>
-      <c r="M34" s="200"/>
-      <c r="N34" s="200"/>
-      <c r="O34" s="200"/>
-      <c r="P34" s="200"/>
-      <c r="Q34" s="200"/>
-      <c r="R34" s="200"/>
-      <c r="S34" s="200"/>
-      <c r="T34" s="200"/>
-      <c r="U34" s="200"/>
-      <c r="V34" s="200"/>
-      <c r="W34" s="200"/>
-      <c r="X34" s="200"/>
-      <c r="Y34" s="200"/>
-      <c r="Z34" s="200"/>
-      <c r="AA34" s="200"/>
-      <c r="AB34" s="200"/>
-      <c r="AC34" s="200"/>
-      <c r="AD34" s="200"/>
-      <c r="AE34" s="200"/>
-      <c r="AF34" s="200"/>
-      <c r="AG34" s="200"/>
-      <c r="AH34" s="200"/>
-      <c r="AI34" s="200"/>
-      <c r="AJ34" s="200"/>
-      <c r="AK34" s="200"/>
-      <c r="AL34" s="200"/>
-      <c r="AM34" s="200"/>
-      <c r="AN34" s="200"/>
-      <c r="AO34" s="200"/>
-      <c r="AP34" s="200"/>
-      <c r="AQ34" s="200"/>
-      <c r="AR34" s="200"/>
-      <c r="AS34" s="201"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="35" spans="1:45">
-      <c r="A35" s="202"/>
-      <c r="B35" s="203"/>
-      <c r="C35" s="203"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="203"/>
-      <c r="K35" s="203"/>
-      <c r="L35" s="203"/>
-      <c r="M35" s="203"/>
-      <c r="N35" s="203"/>
-      <c r="O35" s="203"/>
-      <c r="P35" s="203"/>
-      <c r="Q35" s="203"/>
-      <c r="R35" s="203"/>
-      <c r="S35" s="203"/>
-      <c r="T35" s="203"/>
-      <c r="U35" s="203"/>
-      <c r="V35" s="203"/>
-      <c r="W35" s="203"/>
-      <c r="X35" s="203"/>
-      <c r="Y35" s="203"/>
-      <c r="Z35" s="203"/>
-      <c r="AA35" s="203"/>
-      <c r="AB35" s="203"/>
-      <c r="AC35" s="203"/>
-      <c r="AD35" s="203"/>
-      <c r="AE35" s="203"/>
-      <c r="AF35" s="203"/>
-      <c r="AG35" s="203"/>
-      <c r="AH35" s="203"/>
-      <c r="AI35" s="203"/>
-      <c r="AJ35" s="203"/>
-      <c r="AK35" s="203"/>
-      <c r="AL35" s="203"/>
-      <c r="AM35" s="203"/>
-      <c r="AN35" s="203"/>
-      <c r="AO35" s="203"/>
-      <c r="AP35" s="203"/>
-      <c r="AQ35" s="203"/>
-      <c r="AR35" s="203"/>
-      <c r="AS35" s="204"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="36" spans="1:45">
-      <c r="A36" s="195" t="s">
+      <c r="B4" s="178"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+      <c r="L4" s="178"/>
+      <c r="M4" s="178"/>
+      <c r="N4" s="178"/>
+      <c r="O4" s="178"/>
+      <c r="P4" s="178"/>
+      <c r="Q4" s="178"/>
+      <c r="R4" s="178"/>
+      <c r="S4" s="178"/>
+      <c r="T4" s="178"/>
+      <c r="U4" s="178"/>
+      <c r="V4" s="178"/>
+      <c r="W4" s="178"/>
+      <c r="X4" s="178"/>
+      <c r="Y4" s="178"/>
+      <c r="Z4" s="178"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="178"/>
+      <c r="AC4" s="178"/>
+      <c r="AD4" s="178"/>
+      <c r="AE4" s="178"/>
+      <c r="AF4" s="178"/>
+      <c r="AG4" s="178"/>
+      <c r="AH4" s="178"/>
+      <c r="AI4" s="178"/>
+      <c r="AJ4" s="178"/>
+      <c r="AK4" s="178"/>
+      <c r="AL4" s="178"/>
+      <c r="AM4" s="178"/>
+      <c r="AN4" s="178"/>
+      <c r="AO4" s="178"/>
+      <c r="AP4" s="178"/>
+      <c r="AQ4" s="178"/>
+      <c r="AR4" s="178"/>
+      <c r="AS4" s="178"/>
+    </row>
+    <row r="5" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A5" s="179" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="180"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="180"/>
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="180"/>
+      <c r="Q5" s="180"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="180"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="180"/>
+      <c r="Y5" s="180"/>
+      <c r="Z5" s="180"/>
+      <c r="AA5" s="180"/>
+      <c r="AB5" s="180"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
+      <c r="AF5" s="180"/>
+      <c r="AG5" s="180"/>
+      <c r="AH5" s="180"/>
+      <c r="AI5" s="180"/>
+      <c r="AJ5" s="180"/>
+      <c r="AK5" s="180"/>
+      <c r="AL5" s="180"/>
+      <c r="AM5" s="180"/>
+      <c r="AN5" s="180"/>
+      <c r="AO5" s="180"/>
+      <c r="AP5" s="180"/>
+      <c r="AQ5" s="180"/>
+      <c r="AR5" s="180"/>
+      <c r="AS5" s="181"/>
+    </row>
+    <row r="6" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A6" s="182"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="183"/>
+      <c r="R6" s="183"/>
+      <c r="S6" s="183"/>
+      <c r="T6" s="183"/>
+      <c r="U6" s="183"/>
+      <c r="V6" s="183"/>
+      <c r="W6" s="183"/>
+      <c r="X6" s="183"/>
+      <c r="Y6" s="183"/>
+      <c r="Z6" s="183"/>
+      <c r="AA6" s="183"/>
+      <c r="AB6" s="183"/>
+      <c r="AC6" s="183"/>
+      <c r="AD6" s="183"/>
+      <c r="AE6" s="183"/>
+      <c r="AF6" s="183"/>
+      <c r="AG6" s="183"/>
+      <c r="AH6" s="183"/>
+      <c r="AI6" s="183"/>
+      <c r="AJ6" s="183"/>
+      <c r="AK6" s="183"/>
+      <c r="AL6" s="183"/>
+      <c r="AM6" s="183"/>
+      <c r="AN6" s="183"/>
+      <c r="AO6" s="183"/>
+      <c r="AP6" s="183"/>
+      <c r="AQ6" s="183"/>
+      <c r="AR6" s="183"/>
+      <c r="AS6" s="184"/>
+    </row>
+    <row r="7" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="183"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="183"/>
+      <c r="N7" s="183"/>
+      <c r="O7" s="183"/>
+      <c r="P7" s="183"/>
+      <c r="Q7" s="183"/>
+      <c r="R7" s="183"/>
+      <c r="S7" s="183"/>
+      <c r="T7" s="183"/>
+      <c r="U7" s="183"/>
+      <c r="V7" s="183"/>
+      <c r="W7" s="183"/>
+      <c r="X7" s="183"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="183"/>
+      <c r="AA7" s="183"/>
+      <c r="AB7" s="183"/>
+      <c r="AC7" s="183"/>
+      <c r="AD7" s="183"/>
+      <c r="AE7" s="183"/>
+      <c r="AF7" s="183"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="183"/>
+      <c r="AJ7" s="183"/>
+      <c r="AK7" s="183"/>
+      <c r="AL7" s="183"/>
+      <c r="AM7" s="183"/>
+      <c r="AN7" s="183"/>
+      <c r="AO7" s="183"/>
+      <c r="AP7" s="183"/>
+      <c r="AQ7" s="183"/>
+      <c r="AR7" s="183"/>
+      <c r="AS7" s="184"/>
+    </row>
+    <row r="8" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="183"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="183"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="183"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="183"/>
+      <c r="Y8" s="183"/>
+      <c r="Z8" s="183"/>
+      <c r="AA8" s="183"/>
+      <c r="AB8" s="183"/>
+      <c r="AC8" s="183"/>
+      <c r="AD8" s="183"/>
+      <c r="AE8" s="183"/>
+      <c r="AF8" s="183"/>
+      <c r="AG8" s="183"/>
+      <c r="AH8" s="183"/>
+      <c r="AI8" s="183"/>
+      <c r="AJ8" s="183"/>
+      <c r="AK8" s="183"/>
+      <c r="AL8" s="183"/>
+      <c r="AM8" s="183"/>
+      <c r="AN8" s="183"/>
+      <c r="AO8" s="183"/>
+      <c r="AP8" s="183"/>
+      <c r="AQ8" s="183"/>
+      <c r="AR8" s="183"/>
+      <c r="AS8" s="184"/>
+    </row>
+    <row r="9" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A9" s="182"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="183"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="183"/>
+      <c r="Y9" s="183"/>
+      <c r="Z9" s="183"/>
+      <c r="AA9" s="183"/>
+      <c r="AB9" s="183"/>
+      <c r="AC9" s="183"/>
+      <c r="AD9" s="183"/>
+      <c r="AE9" s="183"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="183"/>
+      <c r="AH9" s="183"/>
+      <c r="AI9" s="183"/>
+      <c r="AJ9" s="183"/>
+      <c r="AK9" s="183"/>
+      <c r="AL9" s="183"/>
+      <c r="AM9" s="183"/>
+      <c r="AN9" s="183"/>
+      <c r="AO9" s="183"/>
+      <c r="AP9" s="183"/>
+      <c r="AQ9" s="183"/>
+      <c r="AR9" s="183"/>
+      <c r="AS9" s="184"/>
+    </row>
+    <row r="10" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A10" s="182"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="183"/>
+      <c r="L10" s="183"/>
+      <c r="M10" s="183"/>
+      <c r="N10" s="183"/>
+      <c r="O10" s="183"/>
+      <c r="P10" s="183"/>
+      <c r="Q10" s="183"/>
+      <c r="R10" s="183"/>
+      <c r="S10" s="183"/>
+      <c r="T10" s="183"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="183"/>
+      <c r="AA10" s="183"/>
+      <c r="AB10" s="183"/>
+      <c r="AC10" s="183"/>
+      <c r="AD10" s="183"/>
+      <c r="AE10" s="183"/>
+      <c r="AF10" s="183"/>
+      <c r="AG10" s="183"/>
+      <c r="AH10" s="183"/>
+      <c r="AI10" s="183"/>
+      <c r="AJ10" s="183"/>
+      <c r="AK10" s="183"/>
+      <c r="AL10" s="183"/>
+      <c r="AM10" s="183"/>
+      <c r="AN10" s="183"/>
+      <c r="AO10" s="183"/>
+      <c r="AP10" s="183"/>
+      <c r="AQ10" s="183"/>
+      <c r="AR10" s="183"/>
+      <c r="AS10" s="184"/>
+    </row>
+    <row r="11" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A11" s="182"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="183"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="183"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="183"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="183"/>
+      <c r="V11" s="183"/>
+      <c r="W11" s="183"/>
+      <c r="X11" s="183"/>
+      <c r="Y11" s="183"/>
+      <c r="Z11" s="183"/>
+      <c r="AA11" s="183"/>
+      <c r="AB11" s="183"/>
+      <c r="AC11" s="183"/>
+      <c r="AD11" s="183"/>
+      <c r="AE11" s="183"/>
+      <c r="AF11" s="183"/>
+      <c r="AG11" s="183"/>
+      <c r="AH11" s="183"/>
+      <c r="AI11" s="183"/>
+      <c r="AJ11" s="183"/>
+      <c r="AK11" s="183"/>
+      <c r="AL11" s="183"/>
+      <c r="AM11" s="183"/>
+      <c r="AN11" s="183"/>
+      <c r="AO11" s="183"/>
+      <c r="AP11" s="183"/>
+      <c r="AQ11" s="183"/>
+      <c r="AR11" s="183"/>
+      <c r="AS11" s="184"/>
+    </row>
+    <row r="12" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A12" s="182"/>
+      <c r="B12" s="183"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="183"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="183"/>
+      <c r="M12" s="183"/>
+      <c r="N12" s="183"/>
+      <c r="O12" s="183"/>
+      <c r="P12" s="183"/>
+      <c r="Q12" s="183"/>
+      <c r="R12" s="183"/>
+      <c r="S12" s="183"/>
+      <c r="T12" s="183"/>
+      <c r="U12" s="183"/>
+      <c r="V12" s="183"/>
+      <c r="W12" s="183"/>
+      <c r="X12" s="183"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="183"/>
+      <c r="AA12" s="183"/>
+      <c r="AB12" s="183"/>
+      <c r="AC12" s="183"/>
+      <c r="AD12" s="183"/>
+      <c r="AE12" s="183"/>
+      <c r="AF12" s="183"/>
+      <c r="AG12" s="183"/>
+      <c r="AH12" s="183"/>
+      <c r="AI12" s="183"/>
+      <c r="AJ12" s="183"/>
+      <c r="AK12" s="183"/>
+      <c r="AL12" s="183"/>
+      <c r="AM12" s="183"/>
+      <c r="AN12" s="183"/>
+      <c r="AO12" s="183"/>
+      <c r="AP12" s="183"/>
+      <c r="AQ12" s="183"/>
+      <c r="AR12" s="183"/>
+      <c r="AS12" s="184"/>
+    </row>
+    <row r="13" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A13" s="182"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="183"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="183"/>
+      <c r="L13" s="183"/>
+      <c r="M13" s="183"/>
+      <c r="N13" s="183"/>
+      <c r="O13" s="183"/>
+      <c r="P13" s="183"/>
+      <c r="Q13" s="183"/>
+      <c r="R13" s="183"/>
+      <c r="S13" s="183"/>
+      <c r="T13" s="183"/>
+      <c r="U13" s="183"/>
+      <c r="V13" s="183"/>
+      <c r="W13" s="183"/>
+      <c r="X13" s="183"/>
+      <c r="Y13" s="183"/>
+      <c r="Z13" s="183"/>
+      <c r="AA13" s="183"/>
+      <c r="AB13" s="183"/>
+      <c r="AC13" s="183"/>
+      <c r="AD13" s="183"/>
+      <c r="AE13" s="183"/>
+      <c r="AF13" s="183"/>
+      <c r="AG13" s="183"/>
+      <c r="AH13" s="183"/>
+      <c r="AI13" s="183"/>
+      <c r="AJ13" s="183"/>
+      <c r="AK13" s="183"/>
+      <c r="AL13" s="183"/>
+      <c r="AM13" s="183"/>
+      <c r="AN13" s="183"/>
+      <c r="AO13" s="183"/>
+      <c r="AP13" s="183"/>
+      <c r="AQ13" s="183"/>
+      <c r="AR13" s="183"/>
+      <c r="AS13" s="184"/>
+    </row>
+    <row r="14" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A14" s="182"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="183"/>
+      <c r="N14" s="183"/>
+      <c r="O14" s="183"/>
+      <c r="P14" s="183"/>
+      <c r="Q14" s="183"/>
+      <c r="R14" s="183"/>
+      <c r="S14" s="183"/>
+      <c r="T14" s="183"/>
+      <c r="U14" s="183"/>
+      <c r="V14" s="183"/>
+      <c r="W14" s="183"/>
+      <c r="X14" s="183"/>
+      <c r="Y14" s="183"/>
+      <c r="Z14" s="183"/>
+      <c r="AA14" s="183"/>
+      <c r="AB14" s="183"/>
+      <c r="AC14" s="183"/>
+      <c r="AD14" s="183"/>
+      <c r="AE14" s="183"/>
+      <c r="AF14" s="183"/>
+      <c r="AG14" s="183"/>
+      <c r="AH14" s="183"/>
+      <c r="AI14" s="183"/>
+      <c r="AJ14" s="183"/>
+      <c r="AK14" s="183"/>
+      <c r="AL14" s="183"/>
+      <c r="AM14" s="183"/>
+      <c r="AN14" s="183"/>
+      <c r="AO14" s="183"/>
+      <c r="AP14" s="183"/>
+      <c r="AQ14" s="183"/>
+      <c r="AR14" s="183"/>
+      <c r="AS14" s="184"/>
+    </row>
+    <row r="15" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A15" s="182"/>
+      <c r="B15" s="183"/>
+      <c r="C15" s="183"/>
+      <c r="D15" s="183"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="183"/>
+      <c r="L15" s="183"/>
+      <c r="M15" s="183"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="183"/>
+      <c r="P15" s="183"/>
+      <c r="Q15" s="183"/>
+      <c r="R15" s="183"/>
+      <c r="S15" s="183"/>
+      <c r="T15" s="183"/>
+      <c r="U15" s="183"/>
+      <c r="V15" s="183"/>
+      <c r="W15" s="183"/>
+      <c r="X15" s="183"/>
+      <c r="Y15" s="183"/>
+      <c r="Z15" s="183"/>
+      <c r="AA15" s="183"/>
+      <c r="AB15" s="183"/>
+      <c r="AC15" s="183"/>
+      <c r="AD15" s="183"/>
+      <c r="AE15" s="183"/>
+      <c r="AF15" s="183"/>
+      <c r="AG15" s="183"/>
+      <c r="AH15" s="183"/>
+      <c r="AI15" s="183"/>
+      <c r="AJ15" s="183"/>
+      <c r="AK15" s="183"/>
+      <c r="AL15" s="183"/>
+      <c r="AM15" s="183"/>
+      <c r="AN15" s="183"/>
+      <c r="AO15" s="183"/>
+      <c r="AP15" s="183"/>
+      <c r="AQ15" s="183"/>
+      <c r="AR15" s="183"/>
+      <c r="AS15" s="184"/>
+    </row>
+    <row r="16" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="183"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="183"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="183"/>
+      <c r="L16" s="183"/>
+      <c r="M16" s="183"/>
+      <c r="N16" s="183"/>
+      <c r="O16" s="183"/>
+      <c r="P16" s="183"/>
+      <c r="Q16" s="183"/>
+      <c r="R16" s="183"/>
+      <c r="S16" s="183"/>
+      <c r="T16" s="183"/>
+      <c r="U16" s="183"/>
+      <c r="V16" s="183"/>
+      <c r="W16" s="183"/>
+      <c r="X16" s="183"/>
+      <c r="Y16" s="183"/>
+      <c r="Z16" s="183"/>
+      <c r="AA16" s="183"/>
+      <c r="AB16" s="183"/>
+      <c r="AC16" s="183"/>
+      <c r="AD16" s="183"/>
+      <c r="AE16" s="183"/>
+      <c r="AF16" s="183"/>
+      <c r="AG16" s="183"/>
+      <c r="AH16" s="183"/>
+      <c r="AI16" s="183"/>
+      <c r="AJ16" s="183"/>
+      <c r="AK16" s="183"/>
+      <c r="AL16" s="183"/>
+      <c r="AM16" s="183"/>
+      <c r="AN16" s="183"/>
+      <c r="AO16" s="183"/>
+      <c r="AP16" s="183"/>
+      <c r="AQ16" s="183"/>
+      <c r="AR16" s="183"/>
+      <c r="AS16" s="184"/>
+    </row>
+    <row r="17" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A17" s="182"/>
+      <c r="B17" s="183"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
+      <c r="W17" s="183"/>
+      <c r="X17" s="183"/>
+      <c r="Y17" s="183"/>
+      <c r="Z17" s="183"/>
+      <c r="AA17" s="183"/>
+      <c r="AB17" s="183"/>
+      <c r="AC17" s="183"/>
+      <c r="AD17" s="183"/>
+      <c r="AE17" s="183"/>
+      <c r="AF17" s="183"/>
+      <c r="AG17" s="183"/>
+      <c r="AH17" s="183"/>
+      <c r="AI17" s="183"/>
+      <c r="AJ17" s="183"/>
+      <c r="AK17" s="183"/>
+      <c r="AL17" s="183"/>
+      <c r="AM17" s="183"/>
+      <c r="AN17" s="183"/>
+      <c r="AO17" s="183"/>
+      <c r="AP17" s="183"/>
+      <c r="AQ17" s="183"/>
+      <c r="AR17" s="183"/>
+      <c r="AS17" s="184"/>
+    </row>
+    <row r="18" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A18" s="182"/>
+      <c r="B18" s="183"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="183"/>
+      <c r="L18" s="183"/>
+      <c r="M18" s="183"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="183"/>
+      <c r="P18" s="183"/>
+      <c r="Q18" s="183"/>
+      <c r="R18" s="183"/>
+      <c r="S18" s="183"/>
+      <c r="T18" s="183"/>
+      <c r="U18" s="183"/>
+      <c r="V18" s="183"/>
+      <c r="W18" s="183"/>
+      <c r="X18" s="183"/>
+      <c r="Y18" s="183"/>
+      <c r="Z18" s="183"/>
+      <c r="AA18" s="183"/>
+      <c r="AB18" s="183"/>
+      <c r="AC18" s="183"/>
+      <c r="AD18" s="183"/>
+      <c r="AE18" s="183"/>
+      <c r="AF18" s="183"/>
+      <c r="AG18" s="183"/>
+      <c r="AH18" s="183"/>
+      <c r="AI18" s="183"/>
+      <c r="AJ18" s="183"/>
+      <c r="AK18" s="183"/>
+      <c r="AL18" s="183"/>
+      <c r="AM18" s="183"/>
+      <c r="AN18" s="183"/>
+      <c r="AO18" s="183"/>
+      <c r="AP18" s="183"/>
+      <c r="AQ18" s="183"/>
+      <c r="AR18" s="183"/>
+      <c r="AS18" s="184"/>
+    </row>
+    <row r="19" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A19" s="182"/>
+      <c r="B19" s="183"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="183"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="183"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="183"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="183"/>
+      <c r="L19" s="183"/>
+      <c r="M19" s="183"/>
+      <c r="N19" s="183"/>
+      <c r="O19" s="183"/>
+      <c r="P19" s="183"/>
+      <c r="Q19" s="183"/>
+      <c r="R19" s="183"/>
+      <c r="S19" s="183"/>
+      <c r="T19" s="183"/>
+      <c r="U19" s="183"/>
+      <c r="V19" s="183"/>
+      <c r="W19" s="183"/>
+      <c r="X19" s="183"/>
+      <c r="Y19" s="183"/>
+      <c r="Z19" s="183"/>
+      <c r="AA19" s="183"/>
+      <c r="AB19" s="183"/>
+      <c r="AC19" s="183"/>
+      <c r="AD19" s="183"/>
+      <c r="AE19" s="183"/>
+      <c r="AF19" s="183"/>
+      <c r="AG19" s="183"/>
+      <c r="AH19" s="183"/>
+      <c r="AI19" s="183"/>
+      <c r="AJ19" s="183"/>
+      <c r="AK19" s="183"/>
+      <c r="AL19" s="183"/>
+      <c r="AM19" s="183"/>
+      <c r="AN19" s="183"/>
+      <c r="AO19" s="183"/>
+      <c r="AP19" s="183"/>
+      <c r="AQ19" s="183"/>
+      <c r="AR19" s="183"/>
+      <c r="AS19" s="184"/>
+    </row>
+    <row r="20" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A20" s="182"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="183"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="183"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="183"/>
+      <c r="O20" s="183"/>
+      <c r="P20" s="183"/>
+      <c r="Q20" s="183"/>
+      <c r="R20" s="183"/>
+      <c r="S20" s="183"/>
+      <c r="T20" s="183"/>
+      <c r="U20" s="183"/>
+      <c r="V20" s="183"/>
+      <c r="W20" s="183"/>
+      <c r="X20" s="183"/>
+      <c r="Y20" s="183"/>
+      <c r="Z20" s="183"/>
+      <c r="AA20" s="183"/>
+      <c r="AB20" s="183"/>
+      <c r="AC20" s="183"/>
+      <c r="AD20" s="183"/>
+      <c r="AE20" s="183"/>
+      <c r="AF20" s="183"/>
+      <c r="AG20" s="183"/>
+      <c r="AH20" s="183"/>
+      <c r="AI20" s="183"/>
+      <c r="AJ20" s="183"/>
+      <c r="AK20" s="183"/>
+      <c r="AL20" s="183"/>
+      <c r="AM20" s="183"/>
+      <c r="AN20" s="183"/>
+      <c r="AO20" s="183"/>
+      <c r="AP20" s="183"/>
+      <c r="AQ20" s="183"/>
+      <c r="AR20" s="183"/>
+      <c r="AS20" s="184"/>
+    </row>
+    <row r="21" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A21" s="182"/>
+      <c r="B21" s="183"/>
+      <c r="C21" s="183"/>
+      <c r="D21" s="183"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="183"/>
+      <c r="G21" s="183"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="183"/>
+      <c r="O21" s="183"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="183"/>
+      <c r="R21" s="183"/>
+      <c r="S21" s="183"/>
+      <c r="T21" s="183"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="183"/>
+      <c r="W21" s="183"/>
+      <c r="X21" s="183"/>
+      <c r="Y21" s="183"/>
+      <c r="Z21" s="183"/>
+      <c r="AA21" s="183"/>
+      <c r="AB21" s="183"/>
+      <c r="AC21" s="183"/>
+      <c r="AD21" s="183"/>
+      <c r="AE21" s="183"/>
+      <c r="AF21" s="183"/>
+      <c r="AG21" s="183"/>
+      <c r="AH21" s="183"/>
+      <c r="AI21" s="183"/>
+      <c r="AJ21" s="183"/>
+      <c r="AK21" s="183"/>
+      <c r="AL21" s="183"/>
+      <c r="AM21" s="183"/>
+      <c r="AN21" s="183"/>
+      <c r="AO21" s="183"/>
+      <c r="AP21" s="183"/>
+      <c r="AQ21" s="183"/>
+      <c r="AR21" s="183"/>
+      <c r="AS21" s="184"/>
+    </row>
+    <row r="22" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A22" s="182"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="183"/>
+      <c r="G22" s="183"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="183"/>
+      <c r="O22" s="183"/>
+      <c r="P22" s="183"/>
+      <c r="Q22" s="183"/>
+      <c r="R22" s="183"/>
+      <c r="S22" s="183"/>
+      <c r="T22" s="183"/>
+      <c r="U22" s="183"/>
+      <c r="V22" s="183"/>
+      <c r="W22" s="183"/>
+      <c r="X22" s="183"/>
+      <c r="Y22" s="183"/>
+      <c r="Z22" s="183"/>
+      <c r="AA22" s="183"/>
+      <c r="AB22" s="183"/>
+      <c r="AC22" s="183"/>
+      <c r="AD22" s="183"/>
+      <c r="AE22" s="183"/>
+      <c r="AF22" s="183"/>
+      <c r="AG22" s="183"/>
+      <c r="AH22" s="183"/>
+      <c r="AI22" s="183"/>
+      <c r="AJ22" s="183"/>
+      <c r="AK22" s="183"/>
+      <c r="AL22" s="183"/>
+      <c r="AM22" s="183"/>
+      <c r="AN22" s="183"/>
+      <c r="AO22" s="183"/>
+      <c r="AP22" s="183"/>
+      <c r="AQ22" s="183"/>
+      <c r="AR22" s="183"/>
+      <c r="AS22" s="184"/>
+    </row>
+    <row r="23" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A23" s="182"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="183"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="183"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="183"/>
+      <c r="O23" s="183"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="183"/>
+      <c r="R23" s="183"/>
+      <c r="S23" s="183"/>
+      <c r="T23" s="183"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="183"/>
+      <c r="W23" s="183"/>
+      <c r="X23" s="183"/>
+      <c r="Y23" s="183"/>
+      <c r="Z23" s="183"/>
+      <c r="AA23" s="183"/>
+      <c r="AB23" s="183"/>
+      <c r="AC23" s="183"/>
+      <c r="AD23" s="183"/>
+      <c r="AE23" s="183"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="183"/>
+      <c r="AH23" s="183"/>
+      <c r="AI23" s="183"/>
+      <c r="AJ23" s="183"/>
+      <c r="AK23" s="183"/>
+      <c r="AL23" s="183"/>
+      <c r="AM23" s="183"/>
+      <c r="AN23" s="183"/>
+      <c r="AO23" s="183"/>
+      <c r="AP23" s="183"/>
+      <c r="AQ23" s="183"/>
+      <c r="AR23" s="183"/>
+      <c r="AS23" s="184"/>
+    </row>
+    <row r="24" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A24" s="182"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="183"/>
+      <c r="G24" s="183"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="183"/>
+      <c r="O24" s="183"/>
+      <c r="P24" s="183"/>
+      <c r="Q24" s="183"/>
+      <c r="R24" s="183"/>
+      <c r="S24" s="183"/>
+      <c r="T24" s="183"/>
+      <c r="U24" s="183"/>
+      <c r="V24" s="183"/>
+      <c r="W24" s="183"/>
+      <c r="X24" s="183"/>
+      <c r="Y24" s="183"/>
+      <c r="Z24" s="183"/>
+      <c r="AA24" s="183"/>
+      <c r="AB24" s="183"/>
+      <c r="AC24" s="183"/>
+      <c r="AD24" s="183"/>
+      <c r="AE24" s="183"/>
+      <c r="AF24" s="183"/>
+      <c r="AG24" s="183"/>
+      <c r="AH24" s="183"/>
+      <c r="AI24" s="183"/>
+      <c r="AJ24" s="183"/>
+      <c r="AK24" s="183"/>
+      <c r="AL24" s="183"/>
+      <c r="AM24" s="183"/>
+      <c r="AN24" s="183"/>
+      <c r="AO24" s="183"/>
+      <c r="AP24" s="183"/>
+      <c r="AQ24" s="183"/>
+      <c r="AR24" s="183"/>
+      <c r="AS24" s="184"/>
+    </row>
+    <row r="25" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A25" s="182"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="183"/>
+      <c r="O25" s="183"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="183"/>
+      <c r="R25" s="183"/>
+      <c r="S25" s="183"/>
+      <c r="T25" s="183"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="183"/>
+      <c r="W25" s="183"/>
+      <c r="X25" s="183"/>
+      <c r="Y25" s="183"/>
+      <c r="Z25" s="183"/>
+      <c r="AA25" s="183"/>
+      <c r="AB25" s="183"/>
+      <c r="AC25" s="183"/>
+      <c r="AD25" s="183"/>
+      <c r="AE25" s="183"/>
+      <c r="AF25" s="183"/>
+      <c r="AG25" s="183"/>
+      <c r="AH25" s="183"/>
+      <c r="AI25" s="183"/>
+      <c r="AJ25" s="183"/>
+      <c r="AK25" s="183"/>
+      <c r="AL25" s="183"/>
+      <c r="AM25" s="183"/>
+      <c r="AN25" s="183"/>
+      <c r="AO25" s="183"/>
+      <c r="AP25" s="183"/>
+      <c r="AQ25" s="183"/>
+      <c r="AR25" s="183"/>
+      <c r="AS25" s="184"/>
+    </row>
+    <row r="26" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A26" s="182"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="183"/>
+      <c r="E26" s="183"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="183"/>
+      <c r="O26" s="183"/>
+      <c r="P26" s="183"/>
+      <c r="Q26" s="183"/>
+      <c r="R26" s="183"/>
+      <c r="S26" s="183"/>
+      <c r="T26" s="183"/>
+      <c r="U26" s="183"/>
+      <c r="V26" s="183"/>
+      <c r="W26" s="183"/>
+      <c r="X26" s="183"/>
+      <c r="Y26" s="183"/>
+      <c r="Z26" s="183"/>
+      <c r="AA26" s="183"/>
+      <c r="AB26" s="183"/>
+      <c r="AC26" s="183"/>
+      <c r="AD26" s="183"/>
+      <c r="AE26" s="183"/>
+      <c r="AF26" s="183"/>
+      <c r="AG26" s="183"/>
+      <c r="AH26" s="183"/>
+      <c r="AI26" s="183"/>
+      <c r="AJ26" s="183"/>
+      <c r="AK26" s="183"/>
+      <c r="AL26" s="183"/>
+      <c r="AM26" s="183"/>
+      <c r="AN26" s="183"/>
+      <c r="AO26" s="183"/>
+      <c r="AP26" s="183"/>
+      <c r="AQ26" s="183"/>
+      <c r="AR26" s="183"/>
+      <c r="AS26" s="184"/>
+    </row>
+    <row r="27" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A27" s="182"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="183"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="183"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="183"/>
+      <c r="O27" s="183"/>
+      <c r="P27" s="183"/>
+      <c r="Q27" s="183"/>
+      <c r="R27" s="183"/>
+      <c r="S27" s="183"/>
+      <c r="T27" s="183"/>
+      <c r="U27" s="183"/>
+      <c r="V27" s="183"/>
+      <c r="W27" s="183"/>
+      <c r="X27" s="183"/>
+      <c r="Y27" s="183"/>
+      <c r="Z27" s="183"/>
+      <c r="AA27" s="183"/>
+      <c r="AB27" s="183"/>
+      <c r="AC27" s="183"/>
+      <c r="AD27" s="183"/>
+      <c r="AE27" s="183"/>
+      <c r="AF27" s="183"/>
+      <c r="AG27" s="183"/>
+      <c r="AH27" s="183"/>
+      <c r="AI27" s="183"/>
+      <c r="AJ27" s="183"/>
+      <c r="AK27" s="183"/>
+      <c r="AL27" s="183"/>
+      <c r="AM27" s="183"/>
+      <c r="AN27" s="183"/>
+      <c r="AO27" s="183"/>
+      <c r="AP27" s="183"/>
+      <c r="AQ27" s="183"/>
+      <c r="AR27" s="183"/>
+      <c r="AS27" s="184"/>
+    </row>
+    <row r="28" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A28" s="182"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
+      <c r="R28" s="183"/>
+      <c r="S28" s="183"/>
+      <c r="T28" s="183"/>
+      <c r="U28" s="183"/>
+      <c r="V28" s="183"/>
+      <c r="W28" s="183"/>
+      <c r="X28" s="183"/>
+      <c r="Y28" s="183"/>
+      <c r="Z28" s="183"/>
+      <c r="AA28" s="183"/>
+      <c r="AB28" s="183"/>
+      <c r="AC28" s="183"/>
+      <c r="AD28" s="183"/>
+      <c r="AE28" s="183"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="183"/>
+      <c r="AH28" s="183"/>
+      <c r="AI28" s="183"/>
+      <c r="AJ28" s="183"/>
+      <c r="AK28" s="183"/>
+      <c r="AL28" s="183"/>
+      <c r="AM28" s="183"/>
+      <c r="AN28" s="183"/>
+      <c r="AO28" s="183"/>
+      <c r="AP28" s="183"/>
+      <c r="AQ28" s="183"/>
+      <c r="AR28" s="183"/>
+      <c r="AS28" s="184"/>
+    </row>
+    <row r="29" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A29" s="182"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
+      <c r="R29" s="183"/>
+      <c r="S29" s="183"/>
+      <c r="T29" s="183"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="183"/>
+      <c r="W29" s="183"/>
+      <c r="X29" s="183"/>
+      <c r="Y29" s="183"/>
+      <c r="Z29" s="183"/>
+      <c r="AA29" s="183"/>
+      <c r="AB29" s="183"/>
+      <c r="AC29" s="183"/>
+      <c r="AD29" s="183"/>
+      <c r="AE29" s="183"/>
+      <c r="AF29" s="183"/>
+      <c r="AG29" s="183"/>
+      <c r="AH29" s="183"/>
+      <c r="AI29" s="183"/>
+      <c r="AJ29" s="183"/>
+      <c r="AK29" s="183"/>
+      <c r="AL29" s="183"/>
+      <c r="AM29" s="183"/>
+      <c r="AN29" s="183"/>
+      <c r="AO29" s="183"/>
+      <c r="AP29" s="183"/>
+      <c r="AQ29" s="183"/>
+      <c r="AR29" s="183"/>
+      <c r="AS29" s="184"/>
+    </row>
+    <row r="30" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A30" s="182"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="183"/>
+      <c r="AA30" s="183"/>
+      <c r="AB30" s="183"/>
+      <c r="AC30" s="183"/>
+      <c r="AD30" s="183"/>
+      <c r="AE30" s="183"/>
+      <c r="AF30" s="183"/>
+      <c r="AG30" s="183"/>
+      <c r="AH30" s="183"/>
+      <c r="AI30" s="183"/>
+      <c r="AJ30" s="183"/>
+      <c r="AK30" s="183"/>
+      <c r="AL30" s="183"/>
+      <c r="AM30" s="183"/>
+      <c r="AN30" s="183"/>
+      <c r="AO30" s="183"/>
+      <c r="AP30" s="183"/>
+      <c r="AQ30" s="183"/>
+      <c r="AR30" s="183"/>
+      <c r="AS30" s="184"/>
+    </row>
+    <row r="31" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A31" s="182"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="183"/>
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="183"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="183"/>
+      <c r="O31" s="183"/>
+      <c r="P31" s="183"/>
+      <c r="Q31" s="183"/>
+      <c r="R31" s="183"/>
+      <c r="S31" s="183"/>
+      <c r="T31" s="183"/>
+      <c r="U31" s="183"/>
+      <c r="V31" s="183"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="183"/>
+      <c r="Y31" s="183"/>
+      <c r="Z31" s="183"/>
+      <c r="AA31" s="183"/>
+      <c r="AB31" s="183"/>
+      <c r="AC31" s="183"/>
+      <c r="AD31" s="183"/>
+      <c r="AE31" s="183"/>
+      <c r="AF31" s="183"/>
+      <c r="AG31" s="183"/>
+      <c r="AH31" s="183"/>
+      <c r="AI31" s="183"/>
+      <c r="AJ31" s="183"/>
+      <c r="AK31" s="183"/>
+      <c r="AL31" s="183"/>
+      <c r="AM31" s="183"/>
+      <c r="AN31" s="183"/>
+      <c r="AO31" s="183"/>
+      <c r="AP31" s="183"/>
+      <c r="AQ31" s="183"/>
+      <c r="AR31" s="183"/>
+      <c r="AS31" s="184"/>
+    </row>
+    <row r="32" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A32" s="182"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="183"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="183"/>
+      <c r="O32" s="183"/>
+      <c r="P32" s="183"/>
+      <c r="Q32" s="183"/>
+      <c r="R32" s="183"/>
+      <c r="S32" s="183"/>
+      <c r="T32" s="183"/>
+      <c r="U32" s="183"/>
+      <c r="V32" s="183"/>
+      <c r="W32" s="183"/>
+      <c r="X32" s="183"/>
+      <c r="Y32" s="183"/>
+      <c r="Z32" s="183"/>
+      <c r="AA32" s="183"/>
+      <c r="AB32" s="183"/>
+      <c r="AC32" s="183"/>
+      <c r="AD32" s="183"/>
+      <c r="AE32" s="183"/>
+      <c r="AF32" s="183"/>
+      <c r="AG32" s="183"/>
+      <c r="AH32" s="183"/>
+      <c r="AI32" s="183"/>
+      <c r="AJ32" s="183"/>
+      <c r="AK32" s="183"/>
+      <c r="AL32" s="183"/>
+      <c r="AM32" s="183"/>
+      <c r="AN32" s="183"/>
+      <c r="AO32" s="183"/>
+      <c r="AP32" s="183"/>
+      <c r="AQ32" s="183"/>
+      <c r="AR32" s="183"/>
+      <c r="AS32" s="184"/>
+    </row>
+    <row r="33" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A33" s="182"/>
+      <c r="B33" s="183"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="183"/>
+      <c r="E33" s="183"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="183"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="183"/>
+      <c r="O33" s="183"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="183"/>
+      <c r="R33" s="183"/>
+      <c r="S33" s="183"/>
+      <c r="T33" s="183"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="183"/>
+      <c r="W33" s="183"/>
+      <c r="X33" s="183"/>
+      <c r="Y33" s="183"/>
+      <c r="Z33" s="183"/>
+      <c r="AA33" s="183"/>
+      <c r="AB33" s="183"/>
+      <c r="AC33" s="183"/>
+      <c r="AD33" s="183"/>
+      <c r="AE33" s="183"/>
+      <c r="AF33" s="183"/>
+      <c r="AG33" s="183"/>
+      <c r="AH33" s="183"/>
+      <c r="AI33" s="183"/>
+      <c r="AJ33" s="183"/>
+      <c r="AK33" s="183"/>
+      <c r="AL33" s="183"/>
+      <c r="AM33" s="183"/>
+      <c r="AN33" s="183"/>
+      <c r="AO33" s="183"/>
+      <c r="AP33" s="183"/>
+      <c r="AQ33" s="183"/>
+      <c r="AR33" s="183"/>
+      <c r="AS33" s="184"/>
+    </row>
+    <row r="34" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A34" s="182"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="183"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="183"/>
+      <c r="F34" s="183"/>
+      <c r="G34" s="183"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="183"/>
+      <c r="O34" s="183"/>
+      <c r="P34" s="183"/>
+      <c r="Q34" s="183"/>
+      <c r="R34" s="183"/>
+      <c r="S34" s="183"/>
+      <c r="T34" s="183"/>
+      <c r="U34" s="183"/>
+      <c r="V34" s="183"/>
+      <c r="W34" s="183"/>
+      <c r="X34" s="183"/>
+      <c r="Y34" s="183"/>
+      <c r="Z34" s="183"/>
+      <c r="AA34" s="183"/>
+      <c r="AB34" s="183"/>
+      <c r="AC34" s="183"/>
+      <c r="AD34" s="183"/>
+      <c r="AE34" s="183"/>
+      <c r="AF34" s="183"/>
+      <c r="AG34" s="183"/>
+      <c r="AH34" s="183"/>
+      <c r="AI34" s="183"/>
+      <c r="AJ34" s="183"/>
+      <c r="AK34" s="183"/>
+      <c r="AL34" s="183"/>
+      <c r="AM34" s="183"/>
+      <c r="AN34" s="183"/>
+      <c r="AO34" s="183"/>
+      <c r="AP34" s="183"/>
+      <c r="AQ34" s="183"/>
+      <c r="AR34" s="183"/>
+      <c r="AS34" s="184"/>
+    </row>
+    <row r="35" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A35" s="185"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="186"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="186"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="186"/>
+      <c r="U35" s="186"/>
+      <c r="V35" s="186"/>
+      <c r="W35" s="186"/>
+      <c r="X35" s="186"/>
+      <c r="Y35" s="186"/>
+      <c r="Z35" s="186"/>
+      <c r="AA35" s="186"/>
+      <c r="AB35" s="186"/>
+      <c r="AC35" s="186"/>
+      <c r="AD35" s="186"/>
+      <c r="AE35" s="186"/>
+      <c r="AF35" s="186"/>
+      <c r="AG35" s="186"/>
+      <c r="AH35" s="186"/>
+      <c r="AI35" s="186"/>
+      <c r="AJ35" s="186"/>
+      <c r="AK35" s="186"/>
+      <c r="AL35" s="186"/>
+      <c r="AM35" s="186"/>
+      <c r="AN35" s="186"/>
+      <c r="AO35" s="186"/>
+      <c r="AP35" s="186"/>
+      <c r="AQ35" s="186"/>
+      <c r="AR35" s="186"/>
+      <c r="AS35" s="187"/>
+    </row>
+    <row r="36" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A36" s="178" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="195"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195"/>
-      <c r="L36" s="195"/>
-      <c r="M36" s="195"/>
-      <c r="N36" s="195"/>
-      <c r="O36" s="195"/>
-      <c r="P36" s="195"/>
-      <c r="Q36" s="195"/>
-      <c r="R36" s="195"/>
-      <c r="S36" s="195"/>
-      <c r="T36" s="195"/>
-      <c r="U36" s="195"/>
-      <c r="V36" s="195"/>
-      <c r="W36" s="195"/>
-      <c r="X36" s="195"/>
-      <c r="Y36" s="195"/>
-      <c r="Z36" s="195"/>
-      <c r="AA36" s="195"/>
-      <c r="AB36" s="195"/>
-      <c r="AC36" s="195"/>
-      <c r="AD36" s="195"/>
-      <c r="AE36" s="195"/>
-      <c r="AF36" s="195"/>
-      <c r="AG36" s="195"/>
-      <c r="AH36" s="195"/>
-      <c r="AI36" s="195"/>
-      <c r="AJ36" s="195"/>
-      <c r="AK36" s="195"/>
-      <c r="AL36" s="195"/>
-      <c r="AM36" s="195"/>
-      <c r="AN36" s="195"/>
-      <c r="AO36" s="195"/>
-      <c r="AP36" s="195"/>
-      <c r="AQ36" s="195"/>
-      <c r="AR36" s="195"/>
-      <c r="AS36" s="195"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="37" spans="1:45">
-      <c r="A37" s="194"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="194"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="194"/>
-      <c r="L37" s="194"/>
-      <c r="M37" s="194"/>
-      <c r="N37" s="194"/>
-      <c r="O37" s="194"/>
-      <c r="P37" s="194"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="194"/>
-      <c r="T37" s="194"/>
-      <c r="U37" s="194"/>
-      <c r="V37" s="194"/>
-      <c r="W37" s="194"/>
-      <c r="X37" s="194"/>
-      <c r="Y37" s="194"/>
-      <c r="Z37" s="194"/>
-      <c r="AA37" s="194"/>
-      <c r="AB37" s="194"/>
-      <c r="AC37" s="194"/>
-      <c r="AD37" s="194"/>
-      <c r="AE37" s="194"/>
-      <c r="AF37" s="194"/>
-      <c r="AG37" s="194"/>
-      <c r="AH37" s="194"/>
-      <c r="AI37" s="194"/>
-      <c r="AJ37" s="194"/>
-      <c r="AK37" s="194"/>
-      <c r="AL37" s="194"/>
-      <c r="AM37" s="194"/>
-      <c r="AN37" s="194"/>
-      <c r="AO37" s="194"/>
-      <c r="AP37" s="194"/>
-      <c r="AQ37" s="194"/>
-      <c r="AR37" s="194"/>
-      <c r="AS37" s="194"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="38" spans="1:45">
-      <c r="A38" s="194"/>
-      <c r="B38" s="194"/>
-      <c r="C38" s="194"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="194"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="194"/>
-      <c r="L38" s="194"/>
-      <c r="M38" s="194"/>
-      <c r="N38" s="194"/>
-      <c r="O38" s="194"/>
-      <c r="P38" s="194"/>
-      <c r="Q38" s="194"/>
-      <c r="R38" s="194"/>
-      <c r="S38" s="194"/>
-      <c r="T38" s="194"/>
-      <c r="U38" s="194"/>
-      <c r="V38" s="194"/>
-      <c r="W38" s="194"/>
-      <c r="X38" s="194"/>
-      <c r="Y38" s="194"/>
-      <c r="Z38" s="194"/>
-      <c r="AA38" s="194"/>
-      <c r="AB38" s="194"/>
-      <c r="AC38" s="194"/>
-      <c r="AD38" s="194"/>
-      <c r="AE38" s="194"/>
-      <c r="AF38" s="194"/>
-      <c r="AG38" s="194"/>
-      <c r="AH38" s="194"/>
-      <c r="AI38" s="194"/>
-      <c r="AJ38" s="194"/>
-      <c r="AK38" s="194"/>
-      <c r="AL38" s="194"/>
-      <c r="AM38" s="194"/>
-      <c r="AN38" s="194"/>
-      <c r="AO38" s="194"/>
-      <c r="AP38" s="194"/>
-      <c r="AQ38" s="194"/>
-      <c r="AR38" s="194"/>
-      <c r="AS38" s="194"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="39" spans="1:45">
-      <c r="A39" s="194"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
-      <c r="I39" s="194"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="194"/>
-      <c r="L39" s="194"/>
-      <c r="M39" s="194"/>
-      <c r="N39" s="194"/>
-      <c r="O39" s="194"/>
-      <c r="P39" s="194"/>
-      <c r="Q39" s="194"/>
-      <c r="R39" s="194"/>
-      <c r="S39" s="194"/>
-      <c r="T39" s="194"/>
-      <c r="U39" s="194"/>
-      <c r="V39" s="194"/>
-      <c r="W39" s="194"/>
-      <c r="X39" s="194"/>
-      <c r="Y39" s="194"/>
-      <c r="Z39" s="194"/>
-      <c r="AA39" s="194"/>
-      <c r="AB39" s="194"/>
-      <c r="AC39" s="194"/>
-      <c r="AD39" s="194"/>
-      <c r="AE39" s="194"/>
-      <c r="AF39" s="194"/>
-      <c r="AG39" s="194"/>
-      <c r="AH39" s="194"/>
-      <c r="AI39" s="194"/>
-      <c r="AJ39" s="194"/>
-      <c r="AK39" s="194"/>
-      <c r="AL39" s="194"/>
-      <c r="AM39" s="194"/>
-      <c r="AN39" s="194"/>
-      <c r="AO39" s="194"/>
-      <c r="AP39" s="194"/>
-      <c r="AQ39" s="194"/>
-      <c r="AR39" s="194"/>
-      <c r="AS39" s="194"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="40" spans="1:45">
-      <c r="A40" s="194"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="194"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="194"/>
-      <c r="L40" s="194"/>
-      <c r="M40" s="194"/>
-      <c r="N40" s="194"/>
-      <c r="O40" s="194"/>
-      <c r="P40" s="194"/>
-      <c r="Q40" s="194"/>
-      <c r="R40" s="194"/>
-      <c r="S40" s="194"/>
-      <c r="T40" s="194"/>
-      <c r="U40" s="194"/>
-      <c r="V40" s="194"/>
-      <c r="W40" s="194"/>
-      <c r="X40" s="194"/>
-      <c r="Y40" s="194"/>
-      <c r="Z40" s="194"/>
-      <c r="AA40" s="194"/>
-      <c r="AB40" s="194"/>
-      <c r="AC40" s="194"/>
-      <c r="AD40" s="194"/>
-      <c r="AE40" s="194"/>
-      <c r="AF40" s="194"/>
-      <c r="AG40" s="194"/>
-      <c r="AH40" s="194"/>
-      <c r="AI40" s="194"/>
-      <c r="AJ40" s="194"/>
-      <c r="AK40" s="194"/>
-      <c r="AL40" s="194"/>
-      <c r="AM40" s="194"/>
-      <c r="AN40" s="194"/>
-      <c r="AO40" s="194"/>
-      <c r="AP40" s="194"/>
-      <c r="AQ40" s="194"/>
-      <c r="AR40" s="194"/>
-      <c r="AS40" s="194"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="41" spans="1:45">
-      <c r="A41" s="194"/>
-      <c r="B41" s="194"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="194"/>
-      <c r="M41" s="194"/>
-      <c r="N41" s="194"/>
-      <c r="O41" s="194"/>
-      <c r="P41" s="194"/>
-      <c r="Q41" s="194"/>
-      <c r="R41" s="194"/>
-      <c r="S41" s="194"/>
-      <c r="T41" s="194"/>
-      <c r="U41" s="194"/>
-      <c r="V41" s="194"/>
-      <c r="W41" s="194"/>
-      <c r="X41" s="194"/>
-      <c r="Y41" s="194"/>
-      <c r="Z41" s="194"/>
-      <c r="AA41" s="194"/>
-      <c r="AB41" s="194"/>
-      <c r="AC41" s="194"/>
-      <c r="AD41" s="194"/>
-      <c r="AE41" s="194"/>
-      <c r="AF41" s="194"/>
-      <c r="AG41" s="194"/>
-      <c r="AH41" s="194"/>
-      <c r="AI41" s="194"/>
-      <c r="AJ41" s="194"/>
-      <c r="AK41" s="194"/>
-      <c r="AL41" s="194"/>
-      <c r="AM41" s="194"/>
-      <c r="AN41" s="194"/>
-      <c r="AO41" s="194"/>
-      <c r="AP41" s="194"/>
-      <c r="AQ41" s="194"/>
-      <c r="AR41" s="194"/>
-      <c r="AS41" s="194"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="42" spans="1:45">
-      <c r="A42" s="194"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="194"/>
-      <c r="L42" s="194"/>
-      <c r="M42" s="194"/>
-      <c r="N42" s="194"/>
-      <c r="O42" s="194"/>
-      <c r="P42" s="194"/>
-      <c r="Q42" s="194"/>
-      <c r="R42" s="194"/>
-      <c r="S42" s="194"/>
-      <c r="T42" s="194"/>
-      <c r="U42" s="194"/>
-      <c r="V42" s="194"/>
-      <c r="W42" s="194"/>
-      <c r="X42" s="194"/>
-      <c r="Y42" s="194"/>
-      <c r="Z42" s="194"/>
-      <c r="AA42" s="194"/>
-      <c r="AB42" s="194"/>
-      <c r="AC42" s="194"/>
-      <c r="AD42" s="194"/>
-      <c r="AE42" s="194"/>
-      <c r="AF42" s="194"/>
-      <c r="AG42" s="194"/>
-      <c r="AH42" s="194"/>
-      <c r="AI42" s="194"/>
-      <c r="AJ42" s="194"/>
-      <c r="AK42" s="194"/>
-      <c r="AL42" s="194"/>
-      <c r="AM42" s="194"/>
-      <c r="AN42" s="194"/>
-      <c r="AO42" s="194"/>
-      <c r="AP42" s="194"/>
-      <c r="AQ42" s="194"/>
-      <c r="AR42" s="194"/>
-      <c r="AS42" s="194"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="43" spans="1:45">
-      <c r="A43" s="194"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
-      <c r="L43" s="194"/>
-      <c r="M43" s="194"/>
-      <c r="N43" s="194"/>
-      <c r="O43" s="194"/>
-      <c r="P43" s="194"/>
-      <c r="Q43" s="194"/>
-      <c r="R43" s="194"/>
-      <c r="S43" s="194"/>
-      <c r="T43" s="194"/>
-      <c r="U43" s="194"/>
-      <c r="V43" s="194"/>
-      <c r="W43" s="194"/>
-      <c r="X43" s="194"/>
-      <c r="Y43" s="194"/>
-      <c r="Z43" s="194"/>
-      <c r="AA43" s="194"/>
-      <c r="AB43" s="194"/>
-      <c r="AC43" s="194"/>
-      <c r="AD43" s="194"/>
-      <c r="AE43" s="194"/>
-      <c r="AF43" s="194"/>
-      <c r="AG43" s="194"/>
-      <c r="AH43" s="194"/>
-      <c r="AI43" s="194"/>
-      <c r="AJ43" s="194"/>
-      <c r="AK43" s="194"/>
-      <c r="AL43" s="194"/>
-      <c r="AM43" s="194"/>
-      <c r="AN43" s="194"/>
-      <c r="AO43" s="194"/>
-      <c r="AP43" s="194"/>
-      <c r="AQ43" s="194"/>
-      <c r="AR43" s="194"/>
-      <c r="AS43" s="194"/>
+      <c r="B36" s="178"/>
+      <c r="C36" s="178"/>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="178"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="178"/>
+      <c r="M36" s="178"/>
+      <c r="N36" s="178"/>
+      <c r="O36" s="178"/>
+      <c r="P36" s="178"/>
+      <c r="Q36" s="178"/>
+      <c r="R36" s="178"/>
+      <c r="S36" s="178"/>
+      <c r="T36" s="178"/>
+      <c r="U36" s="178"/>
+      <c r="V36" s="178"/>
+      <c r="W36" s="178"/>
+      <c r="X36" s="178"/>
+      <c r="Y36" s="178"/>
+      <c r="Z36" s="178"/>
+      <c r="AA36" s="178"/>
+      <c r="AB36" s="178"/>
+      <c r="AC36" s="178"/>
+      <c r="AD36" s="178"/>
+      <c r="AE36" s="178"/>
+      <c r="AF36" s="178"/>
+      <c r="AG36" s="178"/>
+      <c r="AH36" s="178"/>
+      <c r="AI36" s="178"/>
+      <c r="AJ36" s="178"/>
+      <c r="AK36" s="178"/>
+      <c r="AL36" s="178"/>
+      <c r="AM36" s="178"/>
+      <c r="AN36" s="178"/>
+      <c r="AO36" s="178"/>
+      <c r="AP36" s="178"/>
+      <c r="AQ36" s="178"/>
+      <c r="AR36" s="178"/>
+      <c r="AS36" s="178"/>
+    </row>
+    <row r="37" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A37" s="173"/>
+      <c r="B37" s="173"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
+      <c r="G37" s="173"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="173"/>
+      <c r="L37" s="173"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
+      <c r="O37" s="173"/>
+      <c r="P37" s="173"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="173"/>
+      <c r="S37" s="173"/>
+      <c r="T37" s="173"/>
+      <c r="U37" s="173"/>
+      <c r="V37" s="173"/>
+      <c r="W37" s="173"/>
+      <c r="X37" s="173"/>
+      <c r="Y37" s="173"/>
+      <c r="Z37" s="173"/>
+      <c r="AA37" s="173"/>
+      <c r="AB37" s="173"/>
+      <c r="AC37" s="173"/>
+      <c r="AD37" s="173"/>
+      <c r="AE37" s="173"/>
+      <c r="AF37" s="173"/>
+      <c r="AG37" s="173"/>
+      <c r="AH37" s="173"/>
+      <c r="AI37" s="173"/>
+      <c r="AJ37" s="173"/>
+      <c r="AK37" s="173"/>
+      <c r="AL37" s="173"/>
+      <c r="AM37" s="173"/>
+      <c r="AN37" s="173"/>
+      <c r="AO37" s="173"/>
+      <c r="AP37" s="173"/>
+      <c r="AQ37" s="173"/>
+      <c r="AR37" s="173"/>
+      <c r="AS37" s="173"/>
+    </row>
+    <row r="38" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A38" s="173"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="173"/>
+      <c r="S38" s="173"/>
+      <c r="T38" s="173"/>
+      <c r="U38" s="173"/>
+      <c r="V38" s="173"/>
+      <c r="W38" s="173"/>
+      <c r="X38" s="173"/>
+      <c r="Y38" s="173"/>
+      <c r="Z38" s="173"/>
+      <c r="AA38" s="173"/>
+      <c r="AB38" s="173"/>
+      <c r="AC38" s="173"/>
+      <c r="AD38" s="173"/>
+      <c r="AE38" s="173"/>
+      <c r="AF38" s="173"/>
+      <c r="AG38" s="173"/>
+      <c r="AH38" s="173"/>
+      <c r="AI38" s="173"/>
+      <c r="AJ38" s="173"/>
+      <c r="AK38" s="173"/>
+      <c r="AL38" s="173"/>
+      <c r="AM38" s="173"/>
+      <c r="AN38" s="173"/>
+      <c r="AO38" s="173"/>
+      <c r="AP38" s="173"/>
+      <c r="AQ38" s="173"/>
+      <c r="AR38" s="173"/>
+      <c r="AS38" s="173"/>
+    </row>
+    <row r="39" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A39" s="173"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="173"/>
+      <c r="U39" s="173"/>
+      <c r="V39" s="173"/>
+      <c r="W39" s="173"/>
+      <c r="X39" s="173"/>
+      <c r="Y39" s="173"/>
+      <c r="Z39" s="173"/>
+      <c r="AA39" s="173"/>
+      <c r="AB39" s="173"/>
+      <c r="AC39" s="173"/>
+      <c r="AD39" s="173"/>
+      <c r="AE39" s="173"/>
+      <c r="AF39" s="173"/>
+      <c r="AG39" s="173"/>
+      <c r="AH39" s="173"/>
+      <c r="AI39" s="173"/>
+      <c r="AJ39" s="173"/>
+      <c r="AK39" s="173"/>
+      <c r="AL39" s="173"/>
+      <c r="AM39" s="173"/>
+      <c r="AN39" s="173"/>
+      <c r="AO39" s="173"/>
+      <c r="AP39" s="173"/>
+      <c r="AQ39" s="173"/>
+      <c r="AR39" s="173"/>
+      <c r="AS39" s="173"/>
+    </row>
+    <row r="40" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A40" s="173"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="173"/>
+      <c r="P40" s="173"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
+      <c r="U40" s="173"/>
+      <c r="V40" s="173"/>
+      <c r="W40" s="173"/>
+      <c r="X40" s="173"/>
+      <c r="Y40" s="173"/>
+      <c r="Z40" s="173"/>
+      <c r="AA40" s="173"/>
+      <c r="AB40" s="173"/>
+      <c r="AC40" s="173"/>
+      <c r="AD40" s="173"/>
+      <c r="AE40" s="173"/>
+      <c r="AF40" s="173"/>
+      <c r="AG40" s="173"/>
+      <c r="AH40" s="173"/>
+      <c r="AI40" s="173"/>
+      <c r="AJ40" s="173"/>
+      <c r="AK40" s="173"/>
+      <c r="AL40" s="173"/>
+      <c r="AM40" s="173"/>
+      <c r="AN40" s="173"/>
+      <c r="AO40" s="173"/>
+      <c r="AP40" s="173"/>
+      <c r="AQ40" s="173"/>
+      <c r="AR40" s="173"/>
+      <c r="AS40" s="173"/>
+    </row>
+    <row r="41" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A41" s="173"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
+      <c r="X41" s="173"/>
+      <c r="Y41" s="173"/>
+      <c r="Z41" s="173"/>
+      <c r="AA41" s="173"/>
+      <c r="AB41" s="173"/>
+      <c r="AC41" s="173"/>
+      <c r="AD41" s="173"/>
+      <c r="AE41" s="173"/>
+      <c r="AF41" s="173"/>
+      <c r="AG41" s="173"/>
+      <c r="AH41" s="173"/>
+      <c r="AI41" s="173"/>
+      <c r="AJ41" s="173"/>
+      <c r="AK41" s="173"/>
+      <c r="AL41" s="173"/>
+      <c r="AM41" s="173"/>
+      <c r="AN41" s="173"/>
+      <c r="AO41" s="173"/>
+      <c r="AP41" s="173"/>
+      <c r="AQ41" s="173"/>
+      <c r="AR41" s="173"/>
+      <c r="AS41" s="173"/>
+    </row>
+    <row r="42" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A42" s="173"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="173"/>
+      <c r="S42" s="173"/>
+      <c r="T42" s="173"/>
+      <c r="U42" s="173"/>
+      <c r="V42" s="173"/>
+      <c r="W42" s="173"/>
+      <c r="X42" s="173"/>
+      <c r="Y42" s="173"/>
+      <c r="Z42" s="173"/>
+      <c r="AA42" s="173"/>
+      <c r="AB42" s="173"/>
+      <c r="AC42" s="173"/>
+      <c r="AD42" s="173"/>
+      <c r="AE42" s="173"/>
+      <c r="AF42" s="173"/>
+      <c r="AG42" s="173"/>
+      <c r="AH42" s="173"/>
+      <c r="AI42" s="173"/>
+      <c r="AJ42" s="173"/>
+      <c r="AK42" s="173"/>
+      <c r="AL42" s="173"/>
+      <c r="AM42" s="173"/>
+      <c r="AN42" s="173"/>
+      <c r="AO42" s="173"/>
+      <c r="AP42" s="173"/>
+      <c r="AQ42" s="173"/>
+      <c r="AR42" s="173"/>
+      <c r="AS42" s="173"/>
+    </row>
+    <row r="43" spans="1:45" ht="15.75" customHeight="1">
+      <c r="A43" s="173"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="173"/>
+      <c r="S43" s="173"/>
+      <c r="T43" s="173"/>
+      <c r="U43" s="173"/>
+      <c r="V43" s="173"/>
+      <c r="W43" s="173"/>
+      <c r="X43" s="173"/>
+      <c r="Y43" s="173"/>
+      <c r="Z43" s="173"/>
+      <c r="AA43" s="173"/>
+      <c r="AB43" s="173"/>
+      <c r="AC43" s="173"/>
+      <c r="AD43" s="173"/>
+      <c r="AE43" s="173"/>
+      <c r="AF43" s="173"/>
+      <c r="AG43" s="173"/>
+      <c r="AH43" s="173"/>
+      <c r="AI43" s="173"/>
+      <c r="AJ43" s="173"/>
+      <c r="AK43" s="173"/>
+      <c r="AL43" s="173"/>
+      <c r="AM43" s="173"/>
+      <c r="AN43" s="173"/>
+      <c r="AO43" s="173"/>
+      <c r="AP43" s="173"/>
+      <c r="AQ43" s="173"/>
+      <c r="AR43" s="173"/>
+      <c r="AS43" s="173"/>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="0" deleteColumns="0" deleteRows="0" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0" insertRows="0" pivotTables="0" sort="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <dataConsolidate/>
   <mergeCells count="23">
-    <mergeCell ref="A37:AS43"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="A4:AS4"/>
-    <mergeCell ref="A36:AS36"/>
-    <mergeCell ref="A5:AS35"/>
     <mergeCell ref="AJ1:AL1"/>
     <mergeCell ref="AM1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
@@ -9947,14 +9665,21 @@
     <mergeCell ref="O1:V1"/>
     <mergeCell ref="W1:AE1"/>
     <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="A37:AS43"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="A4:AS4"/>
+    <mergeCell ref="A36:AS36"/>
+    <mergeCell ref="A5:AS35"/>
   </mergeCells>
   <phoneticPr fontId="10"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.39370078740157499" footer="0" header="0.196850393700787" left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497"/>
-  <pageSetup cellComments="asDisplayed" firstPageNumber="75" orientation="landscape" paperSize="9" r:id="rId1" scale="93"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.55118110236220497" bottom="0.39370078740157499" header="0.196850393700787" footer="0"/>
+  <pageSetup paperSize="9" scale="93" firstPageNumber="75" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8文書番号　T0100000015078</oddHeader>
-    <oddFooter><![CDATA[&L&"ＭＳ ゴシック,標準"&8©Toshiba Solutions Corporation 2012-2016&C&"ＭＳ ゴシック,標準"&8&P&R&"ＭＳ ゴシック,標準"&8工数管理システム_KSC-S-23_プログラム設計書.xlsx]]></oddFooter>
+    <oddFooter>&amp;L&amp;"ＭＳ ゴシック,標準"&amp;8©Toshiba Solutions Corporation 2012-2016&amp;C&amp;"ＭＳ ゴシック,標準"&amp;8&amp;P&amp;R&amp;"ＭＳ ゴシック,標準"&amp;8工数管理システム_KSC-S-23_プログラム設計書.xlsx</oddFooter>
   </headerFooter>
   <legacyDrawingHF r:id="rId2"/>
 </worksheet>
